--- a/PTR5744 - Pesquisa Operacional Aplicada ao Planejamento de Transportes (2025)/Multi-stage stochastic optimization/Inputs.xlsx
+++ b/PTR5744 - Pesquisa Operacional Aplicada ao Planejamento de Transportes (2025)/Multi-stage stochastic optimization/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan.Santos\GitHub\PPGEP-Nathan\PTR5744 - Pesquisa Operacional Aplicada ao Planejamento de Transportes (2025)\Multi-stage stochastic optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9D053A-B3ED-41F4-978C-D85259042718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A2C465-F3A4-4DBF-A170-292C09973C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{6F247612-8B66-4663-AB2F-0C8F2F94D7F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="5" xr2:uid="{6F247612-8B66-4663-AB2F-0C8F2F94D7F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Submercados" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="174">
   <si>
     <t>S</t>
   </si>
@@ -993,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E21C1FC-9E54-466F-B6F6-AD709AB2E499}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="169" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="169" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1025,19 +1025,19 @@
         <v>SE</v>
       </c>
       <c r="B2">
-        <v>55000</v>
+        <v>30000</v>
       </c>
       <c r="C2">
-        <v>55000</v>
+        <v>30000</v>
       </c>
       <c r="D2">
-        <v>55000</v>
+        <v>30000</v>
       </c>
       <c r="E2">
-        <v>55000</v>
+        <v>30000</v>
       </c>
       <c r="F2">
-        <v>55000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1162,15 +1162,15 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B33" ca="1" si="0">RANDBETWEEN(2,12)*50</f>
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>NE</v>
       </c>
       <c r="D2" s="3">
         <f ca="1">200*EXP(SUM($B$2:B2)*COUNT($B$2:B2)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>73.602613253720179</v>
+        <v>73.590055834155024</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="C3" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="D3" s="3">
         <f ca="1">200*EXP(SUM($B$2:B3)*COUNT($B$2:B3)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>73.644629326986802</v>
+        <v>73.689305448876638</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1196,15 +1196,15 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="C4" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>N</v>
       </c>
       <c r="D4" s="3">
         <f ca="1">200*EXP(SUM($B$2:B4)*COUNT($B$2:B4)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>73.713434643684863</v>
+        <v>73.873981427491415</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="C5" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D5" s="3">
         <f ca="1">200*EXP(SUM($B$2:B5)*COUNT($B$2:B5)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>73.820592932808282</v>
+        <v>74.144725330450356</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1230,15 +1230,15 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="C6" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>SE</v>
       </c>
       <c r="D6" s="3">
         <f ca="1">200*EXP(SUM($B$2:B6)*COUNT($B$2:B6)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>74.112237044675425</v>
+        <v>74.341277084069873</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="C7" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="D7" s="3">
         <f ca="1">200*EXP(SUM($B$2:B7)*COUNT($B$2:B7)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>74.405033359262816</v>
+        <v>74.602959830336303</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1264,15 +1264,15 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="C8" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>SE</v>
       </c>
       <c r="D8" s="3">
         <f ca="1">200*EXP(SUM($B$2:B8)*COUNT($B$2:B8)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>74.788174607476009</v>
+        <v>74.977359848617326</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1281,15 +1281,15 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="C9" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>N</v>
       </c>
       <c r="D9" s="3">
         <f ca="1">200*EXP(SUM($B$2:B9)*COUNT($B$2:B9)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>75.306007213917582</v>
+        <v>75.382661451471705</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1302,11 +1302,11 @@
       </c>
       <c r="C10" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>NE</v>
       </c>
       <c r="D10" s="3">
         <f ca="1">200*EXP(SUM($B$2:B10)*COUNT($B$2:B10)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>75.878584252043169</v>
+        <v>75.939875495017247</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="C11" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="D11" s="3">
         <f ca="1">200*EXP(SUM($B$2:B11)*COUNT($B$2:B11)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>76.336610433410584</v>
+        <v>76.611759216830933</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1332,15 +1332,15 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="C12" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>N</v>
       </c>
       <c r="D12" s="3">
         <f ca="1">200*EXP(SUM($B$2:B12)*COUNT($B$2:B12)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>77.100806033175118</v>
+        <v>77.166914471821428</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="C13" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="D13" s="3">
         <f ca="1">200*EXP(SUM($B$2:B13)*COUNT($B$2:B13)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>77.574258708581738</v>
+        <v>77.950896733869612</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1366,15 +1366,15 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="C14" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>SE</v>
       </c>
       <c r="D14" s="3">
         <f ca="1">200*EXP(SUM($B$2:B14)*COUNT($B$2:B14)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>78.18030453423134</v>
+        <v>78.425104091433624</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1383,15 +1383,15 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C15" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>N</v>
       </c>
       <c r="D15" s="3">
         <f ca="1">200*EXP(SUM($B$2:B15)*COUNT($B$2:B15)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>78.889251802913392</v>
+        <v>78.970588785317574</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1400,15 +1400,15 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="C16" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>S</v>
       </c>
       <c r="D16" s="3">
         <f ca="1">200*EXP(SUM($B$2:B16)*COUNT($B$2:B16)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>79.840382977561276</v>
+        <v>79.715318623152882</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="C17" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="D17" s="3">
         <f ca="1">200*EXP(SUM($B$2:B17)*COUNT($B$2:B17)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>80.476657384452608</v>
+        <v>80.761978814210238</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1434,15 +1434,15 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="C18" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>SE</v>
       </c>
       <c r="D18" s="3">
         <f ca="1">200*EXP(SUM($B$2:B18)*COUNT($B$2:B18)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>81.430026840662819</v>
+        <v>81.566779058132298</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1451,15 +1451,15 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="C19" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>NE</v>
       </c>
       <c r="D19" s="3">
         <f ca="1">200*EXP(SUM($B$2:B19)*COUNT($B$2:B19)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>82.608702483277597</v>
+        <v>82.777087457261416</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="C20" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="D20" s="3">
         <f ca="1">200*EXP(SUM($B$2:B20)*COUNT($B$2:B20)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>84.131161654947007</v>
+        <v>83.779219206826681</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C21" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="D21" s="3">
         <f ca="1">200*EXP(SUM($B$2:B21)*COUNT($B$2:B21)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>85.07925680158661</v>
+        <v>84.516393832084219</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1502,15 +1502,15 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="C22" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>NE</v>
       </c>
       <c r="D22" s="3">
         <f ca="1">200*EXP(SUM($B$2:B22)*COUNT($B$2:B22)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>86.35554419153803</v>
+        <v>85.276472343585297</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1519,15 +1519,15 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="C23" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>S</v>
       </c>
       <c r="D23" s="3">
         <f ca="1">200*EXP(SUM($B$2:B23)*COUNT($B$2:B23)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>87.91512331491451</v>
+        <v>86.242416886608083</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1536,15 +1536,15 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="C24" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>SE</v>
       </c>
       <c r="D24" s="3">
         <f ca="1">200*EXP(SUM($B$2:B24)*COUNT($B$2:B24)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>89.907763302711231</v>
+        <v>87.543170396628611</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1557,11 +1557,11 @@
       </c>
       <c r="C25" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>SE</v>
       </c>
       <c r="D25" s="3">
         <f ca="1">200*EXP(SUM($B$2:B25)*COUNT($B$2:B25)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>91.261218453253463</v>
+        <v>88.718228984277516</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1570,15 +1570,15 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="C26" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>N</v>
       </c>
       <c r="D26" s="3">
         <f ca="1">200*EXP(SUM($B$2:B26)*COUNT($B$2:B26)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>92.562986783377781</v>
+        <v>90.169100419207155</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1587,15 +1587,15 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="C27" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>S</v>
       </c>
       <c r="D27" s="3">
         <f ca="1">200*EXP(SUM($B$2:B27)*COUNT($B$2:B27)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>93.922297726822507</v>
+        <v>91.247545272405546</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1604,15 +1604,15 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="C28" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>S</v>
       </c>
       <c r="D28" s="3">
         <f ca="1">200*EXP(SUM($B$2:B28)*COUNT($B$2:B28)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>95.341133183933394</v>
+        <v>93.209687793986902</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1621,15 +1621,15 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="C29" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>S</v>
       </c>
       <c r="D29" s="3">
         <f ca="1">200*EXP(SUM($B$2:B29)*COUNT($B$2:B29)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>96.540690044266071</v>
+        <v>95.434266681195766</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="C30" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="D30" s="3">
         <f ca="1">200*EXP(SUM($B$2:B30)*COUNT($B$2:B30)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>98.365831355924172</v>
+        <v>97.815466578178629</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1655,15 +1655,15 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="C31" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>S</v>
       </c>
       <c r="D31" s="3">
         <f ca="1">200*EXP(SUM($B$2:B31)*COUNT($B$2:B31)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>100.6005609278957</v>
+        <v>99.640276364575683</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="C32" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="D32" s="3">
         <f ca="1">200*EXP(SUM($B$2:B32)*COUNT($B$2:B32)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>102.80602450042933</v>
+        <v>102.47110992442296</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1689,15 +1689,15 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="0"/>
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="C33" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>SE</v>
       </c>
       <c r="D33" s="3">
         <f ca="1">200*EXP(SUM($B$2:B33)*COUNT($B$2:B33)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>105.13617416844684</v>
+        <v>104.85614131693502</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1706,15 +1706,15 @@
       </c>
       <c r="B34">
         <f t="shared" ref="B34:B65" ca="1" si="1">RANDBETWEEN(2,12)*50</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="C34" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>S</v>
       </c>
       <c r="D34" s="3">
         <f ca="1">200*EXP(SUM($B$2:B34)*COUNT($B$2:B34)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>107.41320491441259</v>
+        <v>107.37935175639814</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1723,15 +1723,15 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="1"/>
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="C35" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>NE</v>
       </c>
       <c r="D35" s="3">
         <f ca="1">200*EXP(SUM($B$2:B35)*COUNT($B$2:B35)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>109.80789302261115</v>
+        <v>110.22825121293356</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1748,7 +1748,7 @@
       </c>
       <c r="D36" s="3">
         <f ca="1">200*EXP(SUM($B$2:B36)*COUNT($B$2:B36)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>111.7156491251519</v>
+        <v>112.11180906956845</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1757,15 +1757,15 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="1"/>
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="C37" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>S</v>
       </c>
       <c r="D37" s="3">
         <f ca="1">200*EXP(SUM($B$2:B37)*COUNT($B$2:B37)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>113.69193475687528</v>
+        <v>115.85328275893272</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1782,7 +1782,7 @@
       </c>
       <c r="D38" s="3">
         <f ca="1">200*EXP(SUM($B$2:B38)*COUNT($B$2:B38)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>117.530290925513</v>
+        <v>119.64472815470643</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1791,15 +1791,15 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="1"/>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="C39" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>SE</v>
       </c>
       <c r="D39" s="3">
         <f ca="1">200*EXP(SUM($B$2:B39)*COUNT($B$2:B39)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>121.3974212124303</v>
+        <v>123.91762192720964</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1808,15 +1808,15 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="1"/>
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="C40" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>SE</v>
       </c>
       <c r="D40" s="3">
         <f ca="1">200*EXP(SUM($B$2:B40)*COUNT($B$2:B40)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>125.52196845117531</v>
+        <v>127.76986601348824</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="1"/>
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="C41" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="D41" s="3">
         <f ca="1">200*EXP(SUM($B$2:B41)*COUNT($B$2:B41)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>129.115051319185</v>
+        <v>130.34157723804137</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1842,7 +1842,7 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="1"/>
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="C42" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="D42" s="3">
         <f ca="1">200*EXP(SUM($B$2:B42)*COUNT($B$2:B42)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>131.78144930066554</v>
+        <v>134.32238351259866</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="1"/>
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="C43" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="D43" s="3">
         <f ca="1">200*EXP(SUM($B$2:B43)*COUNT($B$2:B43)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>136.9107207035469</v>
+        <v>136.86118802088674</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1876,15 +1876,15 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="1"/>
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="C44" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>NE</v>
       </c>
       <c r="D44" s="3">
         <f ca="1">200*EXP(SUM($B$2:B44)*COUNT($B$2:B44)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>141.13700918392382</v>
+        <v>140.05339523127864</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1893,7 +1893,7 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="1"/>
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="C45" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="D45" s="3">
         <f ca="1">200*EXP(SUM($B$2:B45)*COUNT($B$2:B45)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>146.93503029506758</v>
+        <v>145.20883711553057</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1910,15 +1910,15 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="1"/>
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="C46" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>N</v>
       </c>
       <c r="D46" s="3">
         <f ca="1">200*EXP(SUM($B$2:B46)*COUNT($B$2:B46)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>151.01565612812905</v>
+        <v>151.35332520654302</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="1"/>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="C47" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>SE</v>
       </c>
       <c r="D47" s="3">
         <f ca="1">200*EXP(SUM($B$2:B47)*COUNT($B$2:B47)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>155.66119652485042</v>
+        <v>156.5475009662436</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1944,15 +1944,15 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="1"/>
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="C48" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>SE</v>
       </c>
       <c r="D48" s="3">
         <f ca="1">200*EXP(SUM($B$2:B48)*COUNT($B$2:B48)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>162.91572791430934</v>
+        <v>163.14822174453261</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="1"/>
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="C49" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="D49" s="3">
         <f ca="1">200*EXP(SUM($B$2:B49)*COUNT($B$2:B49)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>166.9370804152739</v>
+        <v>169.03170816741837</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="1"/>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="C50" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="D50" s="3">
         <f ca="1">200*EXP(SUM($B$2:B50)*COUNT($B$2:B50)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>171.9831461610425</v>
+        <v>173.6165715379023</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -1995,15 +1995,15 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="1"/>
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="C51" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>N</v>
       </c>
       <c r="D51" s="3">
         <f ca="1">200*EXP(SUM($B$2:B51)*COUNT($B$2:B51)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>176.35636182244085</v>
+        <v>179.68718660610256</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -2020,7 +2020,7 @@
       </c>
       <c r="D52" s="3">
         <f ca="1">200*EXP(SUM($B$2:B52)*COUNT($B$2:B52)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>180.897081941631</v>
+        <v>184.2770091898399</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -2029,15 +2029,15 @@
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="1"/>
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="C53" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>SE</v>
       </c>
       <c r="D53" s="3">
         <f ca="1">200*EXP(SUM($B$2:B53)*COUNT($B$2:B53)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>187.62630706559202</v>
+        <v>192.38000355529917</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -2046,15 +2046,15 @@
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="1"/>
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="C54" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>SE</v>
       </c>
       <c r="D54" s="3">
         <f ca="1">200*EXP(SUM($B$2:B54)*COUNT($B$2:B54)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>196.90104315806781</v>
+        <v>202.06108933459913</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -2063,15 +2063,15 @@
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="1"/>
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="C55" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>N</v>
       </c>
       <c r="D55" s="3">
         <f ca="1">200*EXP(SUM($B$2:B55)*COUNT($B$2:B55)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>205.71435344757373</v>
+        <v>211.37297472755267</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -2080,15 +2080,15 @@
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="1"/>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="C56" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>NE</v>
       </c>
       <c r="D56" s="3">
         <f ca="1">200*EXP(SUM($B$2:B56)*COUNT($B$2:B56)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>211.47125764259505</v>
+        <v>217.83907375197361</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -2097,15 +2097,15 @@
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="1"/>
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="C57" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>N</v>
       </c>
       <c r="D57" s="3">
         <f ca="1">200*EXP(SUM($B$2:B57)*COUNT($B$2:B57)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>218.08964900054335</v>
+        <v>226.41298249203626</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -2114,15 +2114,15 @@
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="1"/>
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="C58" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>NE</v>
       </c>
       <c r="D58" s="3">
         <f ca="1">200*EXP(SUM($B$2:B58)*COUNT($B$2:B58)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>225.67492450733567</v>
+        <v>238.08158175739106</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -2131,15 +2131,15 @@
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="1"/>
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="C59" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>SE</v>
       </c>
       <c r="D59" s="3">
         <f ca="1">200*EXP(SUM($B$2:B59)*COUNT($B$2:B59)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>236.4744254241181</v>
+        <v>247.83366110030394</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -2148,15 +2148,15 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="1"/>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C60" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>N</v>
       </c>
       <c r="D60" s="3">
         <f ca="1">200*EXP(SUM($B$2:B60)*COUNT($B$2:B60)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>244.25520606745496</v>
+        <v>258.89330909665074</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -2165,7 +2165,7 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="1"/>
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="C61" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -2173,7 +2173,7 @@
       </c>
       <c r="D61" s="3">
         <f ca="1">200*EXP(SUM($B$2:B61)*COUNT($B$2:B61)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>254.76478630983257</v>
+        <v>267.54615561039225</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -2182,15 +2182,15 @@
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="1"/>
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="C62" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>N</v>
       </c>
       <c r="D62" s="3">
         <f ca="1">200*EXP(SUM($B$2:B62)*COUNT($B$2:B62)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>265.91963789143483</v>
+        <v>281.51072757748938</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -2199,15 +2199,15 @@
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="1"/>
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="C63" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>N</v>
       </c>
       <c r="D63" s="3">
         <f ca="1">200*EXP(SUM($B$2:B63)*COUNT($B$2:B63)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>278.65947545468941</v>
+        <v>290.35990851152349</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -2216,15 +2216,15 @@
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="1"/>
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="C64" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>N</v>
       </c>
       <c r="D64" s="3">
         <f ca="1">200*EXP(SUM($B$2:B64)*COUNT($B$2:B64)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>293.20893978105107</v>
+        <v>306.00092495322826</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="1"/>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="C65" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="D65" s="3">
         <f ca="1">200*EXP(SUM($B$2:B65)*COUNT($B$2:B65)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>304.73203024127537</v>
+        <v>316.88342857540505</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -2250,15 +2250,15 @@
       </c>
       <c r="B66">
         <f t="shared" ref="B66:B101" ca="1" si="2">RANDBETWEEN(2,12)*50</f>
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="C66" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>NE</v>
       </c>
       <c r="D66" s="3">
         <f ca="1">200*EXP(SUM($B$2:B66)*COUNT($B$2:B66)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>324.44130963087019</v>
+        <v>332.41358838332195</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -2267,15 +2267,15 @@
       </c>
       <c r="B67">
         <f t="shared" ca="1" si="2"/>
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="C67" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>S</v>
       </c>
       <c r="D67" s="3">
         <f ca="1">200*EXP(SUM($B$2:B67)*COUNT($B$2:B67)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>339.98483855668184</v>
+        <v>348.97352750666255</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -2284,15 +2284,15 @@
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="2"/>
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="C68" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>N</v>
       </c>
       <c r="D68" s="3">
         <f ca="1">200*EXP(SUM($B$2:B68)*COUNT($B$2:B68)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>360.26927483275807</v>
+        <v>367.82503567818827</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -2301,15 +2301,15 @@
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="2"/>
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="C69" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>NE</v>
       </c>
       <c r="D69" s="3">
         <f ca="1">200*EXP(SUM($B$2:B69)*COUNT($B$2:B69)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>379.47332048726952</v>
+        <v>385.49907230330183</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -2318,15 +2318,15 @@
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="2"/>
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="C70" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>NE</v>
       </c>
       <c r="D70" s="3">
         <f ca="1">200*EXP(SUM($B$2:B70)*COUNT($B$2:B70)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>398.60349343213034</v>
+        <v>402.95414917332329</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -2335,15 +2335,15 @@
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="2"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="C71" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>NE</v>
       </c>
       <c r="D71" s="3">
         <f ca="1">200*EXP(SUM($B$2:B71)*COUNT($B$2:B71)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>417.48337936897661</v>
+        <v>430.04979345831913</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -2352,15 +2352,15 @@
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="C72" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>NE</v>
       </c>
       <c r="D72" s="3">
         <f ca="1">200*EXP(SUM($B$2:B72)*COUNT($B$2:B72)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>431.13046691739669</v>
+        <v>454.81090847989242</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -2369,15 +2369,15 @@
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="2"/>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="C73" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>SE</v>
       </c>
       <c r="D73" s="3">
         <f ca="1">200*EXP(SUM($B$2:B73)*COUNT($B$2:B73)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>450.33444521082242</v>
+        <v>483.08596677944632</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="2"/>
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="C74" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="D74" s="3">
         <f ca="1">200*EXP(SUM($B$2:B74)*COUNT($B$2:B74)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>479.63506704453403</v>
+        <v>508.22724397770446</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -2403,15 +2403,15 @@
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="2"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C75" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>SE</v>
       </c>
       <c r="D75" s="3">
         <f ca="1">200*EXP(SUM($B$2:B75)*COUNT($B$2:B75)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>507.46098488155735</v>
+        <v>529.35045581923657</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -2420,15 +2420,15 @@
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="2"/>
-        <v>150</v>
+        <v>550</v>
       </c>
       <c r="C76" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>S</v>
       </c>
       <c r="D76" s="3">
         <f ca="1">200*EXP(SUM($B$2:B76)*COUNT($B$2:B76)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>526.99389386419205</v>
+        <v>565.68000598930189</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -2437,15 +2437,15 @@
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="2"/>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="C77" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>NE</v>
       </c>
       <c r="D77" s="3">
         <f ca="1">200*EXP(SUM($B$2:B77)*COUNT($B$2:B77)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>562.76936790580839</v>
+        <v>598.53838108963032</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -2454,15 +2454,15 @@
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="2"/>
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="C78" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>NE</v>
       </c>
       <c r="D78" s="3">
         <f ca="1">200*EXP(SUM($B$2:B78)*COUNT($B$2:B78)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>592.06071890464693</v>
+        <v>640.87987420461309</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -2471,7 +2471,7 @@
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="2"/>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="C79" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="D79" s="3">
         <f ca="1">200*EXP(SUM($B$2:B79)*COUNT($B$2:B79)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>623.26454722516064</v>
+        <v>679.24972720373432</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -2488,15 +2488,15 @@
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="2"/>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="C80" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>SE</v>
       </c>
       <c r="D80" s="3">
         <f ca="1">200*EXP(SUM($B$2:B80)*COUNT($B$2:B80)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>653.83624197022039</v>
+        <v>709.59559592034714</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -2505,15 +2505,15 @@
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="2"/>
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="C81" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>S</v>
       </c>
       <c r="D81" s="3">
         <f ca="1">200*EXP(SUM($B$2:B81)*COUNT($B$2:B81)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>703.56785022154531</v>
+        <v>735.89328591057301</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -2522,15 +2522,15 @@
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="2"/>
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="C82" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>S</v>
       </c>
       <c r="D82" s="3">
         <f ca="1">200*EXP(SUM($B$2:B82)*COUNT($B$2:B82)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>742.18713378814004</v>
+        <v>772.29322107441294</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -2539,15 +2539,15 @@
       </c>
       <c r="B83">
         <f t="shared" ca="1" si="2"/>
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="C83" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>SE</v>
       </c>
       <c r="D83" s="3">
         <f ca="1">200*EXP(SUM($B$2:B83)*COUNT($B$2:B83)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>803.66809585408214</v>
+        <v>814.09077679054292</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -2556,15 +2556,15 @@
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="2"/>
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="C84" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>NE</v>
       </c>
       <c r="D84" s="3">
         <f ca="1">200*EXP(SUM($B$2:B84)*COUNT($B$2:B84)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>852.76667777110436</v>
+        <v>872.4783358774439</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -2573,15 +2573,15 @@
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="2"/>
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="C85" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>N</v>
       </c>
       <c r="D85" s="3">
         <f ca="1">200*EXP(SUM($B$2:B85)*COUNT($B$2:B85)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>889.87411816847998</v>
+        <v>928.4159194311535</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -2590,15 +2590,15 @@
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="2"/>
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="C86" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>NE</v>
       </c>
       <c r="D86" s="3">
         <f ca="1">200*EXP(SUM($B$2:B86)*COUNT($B$2:B86)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>953.79090874250187</v>
+        <v>1000.9114798473911</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -2607,15 +2607,15 @@
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="C87" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>SE</v>
       </c>
       <c r="D87" s="3">
         <f ca="1">200*EXP(SUM($B$2:B87)*COUNT($B$2:B87)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>991.78923705008128</v>
+        <v>1084.692072886101</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -2624,7 +2624,7 @@
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="2"/>
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="C88" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -2632,7 +2632,7 @@
       </c>
       <c r="D88" s="3">
         <f ca="1">200*EXP(SUM($B$2:B88)*COUNT($B$2:B88)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>1074.2809797287362</v>
+        <v>1133.3149532603325</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -2641,15 +2641,15 @@
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="2"/>
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="C89" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>S</v>
       </c>
       <c r="D89" s="3">
         <f ca="1">200*EXP(SUM($B$2:B89)*COUNT($B$2:B89)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>1164.962846646187</v>
+        <v>1184.4594568564255</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -2658,15 +2658,15 @@
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="2"/>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="C90" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>S</v>
       </c>
       <c r="D90" s="3">
         <f ca="1">200*EXP(SUM($B$2:B90)*COUNT($B$2:B90)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>1230.1841866155264</v>
+        <v>1243.5857129438371</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -2675,15 +2675,15 @@
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="2"/>
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="C91" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>N</v>
       </c>
       <c r="D91" s="3">
         <f ca="1">200*EXP(SUM($B$2:B91)*COUNT($B$2:B91)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>1324.2343734975912</v>
+        <v>1352.2277577482562</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -2692,15 +2692,15 @@
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="2"/>
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="C92" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>N</v>
       </c>
       <c r="D92" s="3">
         <f ca="1">200*EXP(SUM($B$2:B92)*COUNT($B$2:B92)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>1400.1149010957627</v>
+        <v>1452.8430725405456</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -2709,15 +2709,15 @@
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="2"/>
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="C93" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>NE</v>
       </c>
       <c r="D93" s="3">
         <f ca="1">200*EXP(SUM($B$2:B93)*COUNT($B$2:B93)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>1474.0591686541575</v>
+        <v>1534.8676523603581</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -2726,15 +2726,15 @@
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="2"/>
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="C94" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>N</v>
       </c>
       <c r="D94" s="3">
         <f ca="1">200*EXP(SUM($B$2:B94)*COUNT($B$2:B94)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>1590.4629264787618</v>
+        <v>1600.6626235523499</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="2"/>
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="C95" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>S</v>
       </c>
       <c r="D95" s="3">
         <f ca="1">200*EXP(SUM($B$2:B95)*COUNT($B$2:B95)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>1700.9902747011186</v>
+        <v>1723.3264949488328</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -2760,15 +2760,15 @@
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="2"/>
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="C96" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>NE</v>
       </c>
       <c r="D96" s="3">
         <f ca="1">200*EXP(SUM($B$2:B96)*COUNT($B$2:B96)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>1856.7674675937203</v>
+        <v>1848.5264392342897</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -2777,7 +2777,7 @@
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="2"/>
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="C97" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -2785,7 +2785,7 @@
       </c>
       <c r="D97" s="3">
         <f ca="1">200*EXP(SUM($B$2:B97)*COUNT($B$2:B97)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>2009.0134880601545</v>
+        <v>1975.201445385057</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -2794,15 +2794,15 @@
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="2"/>
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="C98" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>NE</v>
       </c>
       <c r="D98" s="3">
         <f ca="1">200*EXP(SUM($B$2:B98)*COUNT($B$2:B98)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>2175.7738541147669</v>
+        <v>2092.3497554265537</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="B99">
         <f t="shared" ca="1" si="2"/>
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="C99" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -2819,7 +2819,7 @@
       </c>
       <c r="D99" s="3">
         <f ca="1">200*EXP(SUM($B$2:B99)*COUNT($B$2:B99)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>2346.6165832939619</v>
+        <v>2281.1726814834869</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -2828,15 +2828,15 @@
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="2"/>
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="C100" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>NE</v>
       </c>
       <c r="D100" s="3">
         <f ca="1">200*EXP(SUM($B$2:B100)*COUNT($B$2:B100)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>2532.9756867900992</v>
+        <v>2396.5442204329838</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -2845,15 +2845,15 @@
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="C101" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>NE</v>
       </c>
       <c r="D101" s="3">
         <f ca="1">200*EXP(SUM($B$2:B101)*COUNT($B$2:B101)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>2652.5374017597183</v>
+        <v>2604.7822727030048</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -2862,7 +2862,7 @@
       </c>
       <c r="B102">
         <f t="shared" ref="B102:B111" ca="1" si="3">RANDBETWEEN(2,12)*50</f>
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="C102" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -2870,7 +2870,7 @@
       </c>
       <c r="D102" s="3">
         <f ca="1">200*EXP(SUM($B$2:B102)*COUNT($B$2:B102)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>2807.5887826020235</v>
+        <v>2765.7864468910525</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -2879,7 +2879,7 @@
       </c>
       <c r="B103">
         <f t="shared" ca="1" si="3"/>
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="C103" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="D103" s="3">
         <f ca="1">200*EXP(SUM($B$2:B103)*COUNT($B$2:B103)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>2957.2464606963113</v>
+        <v>2981.7534873763702</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -2896,15 +2896,15 @@
       </c>
       <c r="B104">
         <f t="shared" ca="1" si="3"/>
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="C104" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>NE</v>
       </c>
       <c r="D104" s="3">
         <f ca="1">200*EXP(SUM($B$2:B104)*COUNT($B$2:B104)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>3217.3713704974284</v>
+        <v>3265.2680943804662</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -2913,15 +2913,15 @@
       </c>
       <c r="B105">
         <f t="shared" ca="1" si="3"/>
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="C105" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>SE</v>
       </c>
       <c r="D105" s="3">
         <f ca="1">200*EXP(SUM($B$2:B105)*COUNT($B$2:B105)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>3541.6609428489269</v>
+        <v>3597.4928699031648</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -2930,7 +2930,7 @@
       </c>
       <c r="B106">
         <f t="shared" ca="1" si="3"/>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="C106" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -2938,7 +2938,7 @@
       </c>
       <c r="D106" s="3">
         <f ca="1">200*EXP(SUM($B$2:B106)*COUNT($B$2:B106)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>3881.884930230472</v>
+        <v>3968.101303984849</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -2947,15 +2947,15 @@
       </c>
       <c r="B107">
         <f t="shared" ca="1" si="3"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C107" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>SE</v>
       </c>
       <c r="D107" s="3">
         <f ca="1">200*EXP(SUM($B$2:B107)*COUNT($B$2:B107)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>4212.6200144970726</v>
+        <v>4206.6861681781875</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -2964,15 +2964,15 @@
       </c>
       <c r="B108">
         <f t="shared" ca="1" si="3"/>
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="C108" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>N</v>
       </c>
       <c r="D108" s="3">
         <f ca="1">200*EXP(SUM($B$2:B108)*COUNT($B$2:B108)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>4499.7647722890861</v>
+        <v>4507.5267463803939</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -2981,15 +2981,15 @@
       </c>
       <c r="B109">
         <f t="shared" ca="1" si="3"/>
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="C109" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>SE</v>
       </c>
       <c r="D109" s="3">
         <f ca="1">200*EXP(SUM($B$2:B109)*COUNT($B$2:B109)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>4917.9742991996109</v>
+        <v>4959.933892265055</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -3002,11 +3002,11 @@
       </c>
       <c r="C110" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>NE</v>
       </c>
       <c r="D110" s="3">
         <f ca="1">200*EXP(SUM($B$2:B110)*COUNT($B$2:B110)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>5410.584668885851</v>
+        <v>5434.9400464006503</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -3019,7 +3019,7 @@
       </c>
       <c r="C111" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>S</v>
       </c>
       <c r="D111" s="3">
         <f ca="1">200*EXP(SUM($B$2:B111)*COUNT($B$2:B111)/(SUM(B:B)*25))/EXP(1)</f>
@@ -3036,8 +3036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E9BC52-2D1D-4967-8989-F3D2AA185BA4}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView zoomScale="243" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="201" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3068,15 +3068,15 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(12,40)*50</f>
-        <v>1850</v>
+        <v>1650</v>
       </c>
       <c r="C2" s="2">
         <f ca="1">RANDBETWEEN(60,80)/100</f>
-        <v>0.77</v>
+        <v>0.7</v>
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(0,300)*RANDBETWEEN(0,1)*B2/100</f>
@@ -3093,23 +3093,23 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B51" ca="1" si="0">RANDBETWEEN(12,40)*50</f>
-        <v>600</v>
+        <v>1250</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C51" ca="1" si="1">RANDBETWEEN(60,80)/100</f>
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D51" ca="1" si="2">RANDBETWEEN(1,100)/100</f>
-        <v>0.75</v>
+        <v>0.16</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E51" ca="1" si="3">RANDBETWEEN(0,300)*RANDBETWEEN(0,1)*B3/100</f>
-        <v>1476</v>
+        <v>0</v>
       </c>
       <c r="F3" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>NE</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -3118,11 +3118,11 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>1050</v>
+        <v>1200</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64</v>
+        <v>0.77</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="2"/>
@@ -3130,11 +3130,11 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>3192</v>
       </c>
       <c r="F4" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>N</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -3143,23 +3143,23 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61</v>
+        <v>0.69</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="3"/>
-        <v>1822.5</v>
+        <v>3692</v>
       </c>
       <c r="F5" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>S</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -3168,23 +3168,23 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="F6" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>SE</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -3193,23 +3193,23 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>1950</v>
+        <v>1750</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69</v>
+        <v>0.75</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74</v>
+        <v>0.54</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="3"/>
-        <v>4212</v>
+        <v>0</v>
       </c>
       <c r="F7" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>NE</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -3218,23 +3218,23 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>1000</v>
+        <v>1850</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="3"/>
-        <v>120</v>
+        <v>4218</v>
       </c>
       <c r="F8" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>S</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -3243,19 +3243,19 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>1150</v>
+        <v>1750</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61</v>
+        <v>0.72</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3</v>
+        <v>0.79</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>4812.5</v>
       </c>
       <c r="F9" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -3268,23 +3268,23 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76</v>
+        <v>0.6</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37</v>
+        <v>0.7</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="3"/>
-        <v>3568</v>
+        <v>552</v>
       </c>
       <c r="F10" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>S</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -3293,15 +3293,15 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>1150</v>
+        <v>1750</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59</v>
+        <v>0.47</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="3"/>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="F11" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>NE</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -3318,23 +3318,23 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>950</v>
+        <v>1500</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66</v>
+        <v>0.72</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="3"/>
-        <v>1510.5</v>
+        <v>1395</v>
       </c>
       <c r="F12" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>NE</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -3343,23 +3343,23 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>1900</v>
+        <v>1250</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71</v>
+        <v>0.8</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="3"/>
-        <v>3078</v>
+        <v>0</v>
       </c>
       <c r="F13" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>SE</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -3368,15 +3368,15 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62</v>
+        <v>0.71</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37</v>
+        <v>0.54</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="3"/>
@@ -3384,7 +3384,7 @@
       </c>
       <c r="F14" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>S</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -3393,7 +3393,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>1150</v>
+        <v>1500</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -3401,15 +3401,15 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="3"/>
-        <v>851</v>
+        <v>0</v>
       </c>
       <c r="F15" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>SE</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -3418,23 +3418,23 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77</v>
+        <v>0.6</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47</v>
+        <v>0.91</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="3"/>
-        <v>1881</v>
+        <v>1173</v>
       </c>
       <c r="F16" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>SE</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -3443,23 +3443,23 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>1350</v>
+        <v>1150</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75</v>
+        <v>0.61</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.66</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>2840.5</v>
       </c>
       <c r="F17" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>NE</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -3468,23 +3468,23 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>1350</v>
+        <v>650</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.55000000000000004</v>
+        <v>0.37</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="3"/>
-        <v>2659.5</v>
+        <v>819</v>
       </c>
       <c r="F18" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>N</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -3493,23 +3493,23 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73</v>
+        <v>0.8</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46</v>
+        <v>0.98</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="F19" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>N</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -3518,23 +3518,23 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>1000</v>
+        <v>1550</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68</v>
+        <v>0.74</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87</v>
+        <v>0.2</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1426</v>
       </c>
       <c r="F20" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>S</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -3543,15 +3543,15 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>1750</v>
+        <v>1300</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68</v>
+        <v>0.74</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16</v>
+        <v>0.97</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="3"/>
@@ -3559,7 +3559,7 @@
       </c>
       <c r="F21" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>SE</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -3568,23 +3568,23 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1140</v>
       </c>
       <c r="F22" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>SE</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -3593,23 +3593,23 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>750</v>
+        <v>1750</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71</v>
+        <v>0.79</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1067.5</v>
       </c>
       <c r="F23" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>NE</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -3618,23 +3618,23 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>850</v>
+        <v>1150</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73</v>
+        <v>0.61</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34</v>
+        <v>0.68</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="3"/>
-        <v>909.5</v>
+        <v>0</v>
       </c>
       <c r="F24" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>NE</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -3643,23 +3643,23 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61</v>
+        <v>0.67</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="2"/>
-        <v>0.23</v>
+        <v>0.35</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="3"/>
-        <v>1110</v>
+        <v>1122</v>
       </c>
       <c r="F25" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>SE</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -3668,23 +3668,23 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>1650</v>
+        <v>1050</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43</v>
+        <v>0.71</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1428</v>
       </c>
       <c r="F26" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>S</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -3693,23 +3693,23 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>1950</v>
+        <v>1100</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76</v>
+        <v>0.6</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39</v>
+        <v>0.44</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="3"/>
-        <v>3861</v>
+        <v>715</v>
       </c>
       <c r="F27" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>SE</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -3718,23 +3718,23 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>750</v>
+        <v>1600</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="2"/>
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>4448</v>
       </c>
       <c r="F28" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>SE</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -3743,15 +3743,15 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66</v>
+        <v>0.78</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="2"/>
-        <v>0.73</v>
+        <v>0.17</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="3"/>
@@ -3759,7 +3759,7 @@
       </c>
       <c r="F29" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>S</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -3768,23 +3768,23 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>1350</v>
+        <v>1650</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77</v>
+        <v>0.64</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="2"/>
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="3"/>
-        <v>3159</v>
+        <v>3877.5</v>
       </c>
       <c r="F30" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>SE</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -3793,19 +3793,19 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>1400</v>
+        <v>850</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74</v>
+        <v>0.6</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96</v>
+        <v>0.83</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="3"/>
-        <v>2632</v>
+        <v>34</v>
       </c>
       <c r="F31" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -3818,15 +3818,15 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="2"/>
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="3"/>
@@ -3847,11 +3847,11 @@
       </c>
       <c r="C33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7</v>
+        <v>0.61</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="2"/>
-        <v>0.18</v>
+        <v>0.81</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="3"/>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="F33" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>SE</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -3868,19 +3868,19 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="0"/>
-        <v>650</v>
+        <v>1850</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65</v>
+        <v>0.76</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26</v>
+        <v>0.94</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>4477</v>
       </c>
       <c r="F34" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -3893,23 +3893,23 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="0"/>
-        <v>650</v>
+        <v>2000</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66</v>
+        <v>0.62</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="2"/>
-        <v>0.66</v>
+        <v>0.96</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>3080</v>
       </c>
       <c r="F35" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>S</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -3922,11 +3922,11 @@
       </c>
       <c r="C36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="2"/>
-        <v>0.83</v>
+        <v>0.73</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="3"/>
@@ -3934,7 +3934,7 @@
       </c>
       <c r="F36" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>SE</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="0"/>
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="3"/>
@@ -3959,7 +3959,7 @@
       </c>
       <c r="F37" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>S</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -3968,23 +3968,23 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="0"/>
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78</v>
+        <v>0.65</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="2"/>
-        <v>0.09</v>
+        <v>0.62</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="F38" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>SE</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -3993,23 +3993,23 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="0"/>
-        <v>950</v>
+        <v>1350</v>
       </c>
       <c r="C39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14000000000000001</v>
+        <v>0.51</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1903.5</v>
       </c>
       <c r="F39" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>SE</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -4018,23 +4018,23 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="0"/>
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="C40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75</v>
+        <v>0.69</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="2"/>
-        <v>0.68</v>
+        <v>0.8</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="3"/>
-        <v>490</v>
+        <v>777</v>
       </c>
       <c r="F40" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>NE</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -4043,23 +4043,23 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="0"/>
-        <v>1650</v>
+        <v>1600</v>
       </c>
       <c r="C41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89</v>
+        <v>0.25</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="3"/>
-        <v>1716</v>
+        <v>2592</v>
       </c>
       <c r="F41" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>N</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -4068,19 +4068,19 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="0"/>
-        <v>1450</v>
+        <v>1900</v>
       </c>
       <c r="C42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="2"/>
-        <v>0.67</v>
+        <v>0.41</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>3401</v>
       </c>
       <c r="F42" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -4093,23 +4093,23 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="0"/>
-        <v>1700</v>
+        <v>1950</v>
       </c>
       <c r="C43" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66</v>
+        <v>0.61</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41</v>
+        <v>0.78</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="3"/>
-        <v>4437</v>
+        <v>0</v>
       </c>
       <c r="F43" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>N</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -4118,15 +4118,15 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="0"/>
-        <v>1700</v>
+        <v>1450</v>
       </c>
       <c r="C44" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78</v>
+        <v>0.73</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33</v>
+        <v>0.45</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="3"/>
@@ -4143,19 +4143,19 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="0"/>
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="C45" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76</v>
+        <v>0.63</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15</v>
+        <v>0.96</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>2216</v>
       </c>
       <c r="F45" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -4168,19 +4168,19 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="0"/>
-        <v>1450</v>
+        <v>1950</v>
       </c>
       <c r="C46" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="2"/>
-        <v>0.69</v>
+        <v>0.72</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="3"/>
-        <v>855.5</v>
+        <v>2047.5</v>
       </c>
       <c r="F46" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -4193,23 +4193,23 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="0"/>
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="C47" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75</v>
+        <v>0.63</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74</v>
+        <v>0.12</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="3"/>
-        <v>510</v>
+        <v>670</v>
       </c>
       <c r="F47" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>NE</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -4218,23 +4218,23 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="0"/>
-        <v>600</v>
+        <v>1050</v>
       </c>
       <c r="C48" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56999999999999995</v>
+        <v>0.33</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="3"/>
-        <v>894</v>
+        <v>0</v>
       </c>
       <c r="F48" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>S</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -4243,15 +4243,15 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="0"/>
-        <v>2000</v>
+        <v>1650</v>
       </c>
       <c r="C49" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="2"/>
-        <v>0.91</v>
+        <v>0.53</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="3"/>
@@ -4268,15 +4268,15 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="0"/>
-        <v>850</v>
+        <v>1200</v>
       </c>
       <c r="C50" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69</v>
+        <v>0.71</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="2"/>
-        <v>0.82</v>
+        <v>0.36</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="3"/>
@@ -4284,7 +4284,7 @@
       </c>
       <c r="F50" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>S</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -4293,15 +4293,15 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="0"/>
-        <v>1150</v>
+        <v>700</v>
       </c>
       <c r="C51" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81</v>
+        <v>0.61</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="3"/>
@@ -4309,7 +4309,7 @@
       </c>
       <c r="F51" t="str">
         <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>NE</v>
       </c>
     </row>
   </sheetData>
@@ -4320,12 +4320,160 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6D1DF2-4EDE-42E3-A8BA-91BF4C03B5F0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="137" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>Submercados!A2</f>
+        <v>SE</v>
+      </c>
+      <c r="B2">
+        <f ca="1">RANDBETWEEN(50,120)/100</f>
+        <v>0.79</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:F5" ca="1" si="0">RANDBETWEEN(50,120)/100</f>
+        <v>0.86</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.83</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.67</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f>Submercados!A3</f>
+        <v>S</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B5" ca="1" si="1">RANDBETWEEN(50,120)/100</f>
+        <v>0.84</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.96</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f>Submercados!A4</f>
+        <v>NE</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.01</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.92</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.03</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f>Submercados!A5</f>
+        <v>N</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.17</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.61</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <f>Submercados!A6</f>
+        <v>IP</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4334,8 +4482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1C4D63-8CC4-41FC-8C63-0A4AB4191719}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScale="302" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="186" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4423,9 +4571,11 @@
         <v>NE</v>
       </c>
       <c r="B4" s="1">
+        <f>B3</f>
         <v>20000</v>
       </c>
       <c r="C4" s="1">
+        <f>B4</f>
         <v>20000</v>
       </c>
       <c r="D4" s="1">
@@ -4433,11 +4583,11 @@
       </c>
       <c r="E4" s="1">
         <f>D5</f>
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="F4" s="1">
         <f>D6</f>
-        <v>20000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -4446,20 +4596,22 @@
         <v>N</v>
       </c>
       <c r="B5" s="1">
+        <f>B4</f>
         <v>20000</v>
       </c>
       <c r="C5" s="1">
+        <f>B5</f>
         <v>20000</v>
       </c>
       <c r="D5" s="1">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1">
         <f>E6</f>
-        <v>20000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -4468,16 +4620,18 @@
         <v>IP</v>
       </c>
       <c r="B6" s="1">
+        <f>B5</f>
         <v>20000</v>
       </c>
       <c r="C6" s="1">
+        <f>B6</f>
         <v>20000</v>
       </c>
       <c r="D6" s="1">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="E6" s="1">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>

--- a/PTR5744 - Pesquisa Operacional Aplicada ao Planejamento de Transportes (2025)/Multi-stage stochastic optimization/Inputs.xlsx
+++ b/PTR5744 - Pesquisa Operacional Aplicada ao Planejamento de Transportes (2025)/Multi-stage stochastic optimization/Inputs.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan.Santos\GitHub\PPGEP-Nathan\PTR5744 - Pesquisa Operacional Aplicada ao Planejamento de Transportes (2025)\Multi-stage stochastic optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A2C465-F3A4-4DBF-A170-292C09973C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387CD109-DBD4-4822-8AB1-5177E30FED5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="5" xr2:uid="{6F247612-8B66-4663-AB2F-0C8F2F94D7F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{6F247612-8B66-4663-AB2F-0C8F2F94D7F0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Submercados" sheetId="4" r:id="rId1"/>
-    <sheet name="Carga" sheetId="3" r:id="rId2"/>
-    <sheet name="Térmicas" sheetId="2" r:id="rId3"/>
-    <sheet name="Hidrelétricas" sheetId="5" r:id="rId4"/>
-    <sheet name="Vazões" sheetId="6" r:id="rId5"/>
-    <sheet name="Intercâmbios" sheetId="1" r:id="rId6"/>
+    <sheet name="Submarkets" sheetId="4" r:id="rId1"/>
+    <sheet name="Load" sheetId="3" r:id="rId2"/>
+    <sheet name="Thermals" sheetId="2" r:id="rId3"/>
+    <sheet name="Hydroelectrics" sheetId="5" r:id="rId4"/>
+    <sheet name="Inflows" sheetId="6" r:id="rId5"/>
+    <sheet name="Interchanges" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="173">
   <si>
     <t>S</t>
   </si>
@@ -121,12 +121,6 @@
     <t>Term 20</t>
   </si>
   <si>
-    <t>submercado</t>
-  </si>
-  <si>
-    <t>capacidade</t>
-  </si>
-  <si>
     <t>Term 21</t>
   </si>
   <si>
@@ -403,15 +397,6 @@
     <t>Hidr 12</t>
   </si>
   <si>
-    <t>produtibilidade</t>
-  </si>
-  <si>
-    <t>nivel_reservatorio</t>
-  </si>
-  <si>
-    <t>capacidade_reservatorio</t>
-  </si>
-  <si>
     <t>Hidr 13</t>
   </si>
   <si>
@@ -556,13 +541,25 @@
     <t>Hidr 50</t>
   </si>
   <si>
-    <t>submercados</t>
-  </si>
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
     <t>origem</t>
+  </si>
+  <si>
+    <t>submarket</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>reservoir_capacity</t>
+  </si>
+  <si>
+    <t>productivity</t>
+  </si>
+  <si>
+    <t>reservoir_level</t>
   </si>
 </sst>
 </file>
@@ -949,14 +946,14 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -993,15 +990,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E21C1FC-9E54-466F-B6F6-AD709AB2E499}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScale="169" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="169" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>167</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1021,7 +1018,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
-        <f>Submercados!A2</f>
+        <f>Submarkets!A2</f>
         <v>SE</v>
       </c>
       <c r="B2">
@@ -1042,7 +1039,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f>Submercados!A3</f>
+        <f>Submarkets!A3</f>
         <v>S</v>
       </c>
       <c r="B3">
@@ -1063,7 +1060,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
-        <f>Submercados!A4</f>
+        <f>Submarkets!A4</f>
         <v>NE</v>
       </c>
       <c r="B4">
@@ -1084,7 +1081,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
-        <f>Submercados!A5</f>
+        <f>Submarkets!A5</f>
         <v>N</v>
       </c>
       <c r="B5">
@@ -1105,7 +1102,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
-        <f>Submercados!A6</f>
+        <f>Submarkets!A6</f>
         <v>IP</v>
       </c>
       <c r="B6">
@@ -1134,7 +1131,7 @@
   <dimension ref="A1:D111"/>
   <sheetViews>
     <sheetView zoomScale="163" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1144,13 +1141,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>169</v>
+      </c>
+      <c r="C1" t="s">
+        <v>167</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -1165,12 +1162,12 @@
         <v>200</v>
       </c>
       <c r="C2" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>N</v>
       </c>
       <c r="D2" s="3">
         <f ca="1">200*EXP(SUM($B$2:B2)*COUNT($B$2:B2)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>73.590055834155024</v>
+        <v>73.591278264715925</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1179,15 +1176,15 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="C3" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>N</v>
       </c>
       <c r="D3" s="3">
         <f ca="1">200*EXP(SUM($B$2:B3)*COUNT($B$2:B3)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>73.689305448876638</v>
+        <v>73.637467673691035</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1196,15 +1193,15 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="C4" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
         <v>N</v>
       </c>
       <c r="D4" s="3">
         <f ca="1">200*EXP(SUM($B$2:B4)*COUNT($B$2:B4)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>73.873981427491415</v>
+        <v>73.795500337047429</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1213,15 +1210,15 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="C5" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>N</v>
       </c>
       <c r="D5" s="3">
         <f ca="1">200*EXP(SUM($B$2:B5)*COUNT($B$2:B5)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>74.144725330450356</v>
+        <v>73.992550955333215</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1230,15 +1227,15 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="C6" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>S</v>
       </c>
       <c r="D6" s="3">
         <f ca="1">200*EXP(SUM($B$2:B6)*COUNT($B$2:B6)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>74.341277084069873</v>
+        <v>74.291056114050349</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1247,15 +1244,15 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="C7" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>S</v>
       </c>
       <c r="D7" s="3">
         <f ca="1">200*EXP(SUM($B$2:B7)*COUNT($B$2:B7)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>74.602959830336303</v>
+        <v>74.505011095915478</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1264,15 +1261,15 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="C8" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>S</v>
       </c>
       <c r="D8" s="3">
         <f ca="1">200*EXP(SUM($B$2:B8)*COUNT($B$2:B8)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>74.977359848617326</v>
+        <v>74.989645671084929</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1284,12 +1281,12 @@
         <v>350</v>
       </c>
       <c r="C9" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
         <v>N</v>
       </c>
       <c r="D9" s="3">
         <f ca="1">200*EXP(SUM($B$2:B9)*COUNT($B$2:B9)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>75.382661451471705</v>
+        <v>75.414314547877837</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1298,15 +1295,15 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="C10" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>SE</v>
       </c>
       <c r="D10" s="3">
         <f ca="1">200*EXP(SUM($B$2:B10)*COUNT($B$2:B10)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>75.939875495017247</v>
+        <v>75.754196116785749</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1315,15 +1312,15 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="C11" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>NE</v>
       </c>
       <c r="D11" s="3">
         <f ca="1">200*EXP(SUM($B$2:B11)*COUNT($B$2:B11)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>76.611759216830933</v>
+        <v>76.079695726141082</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1335,12 +1332,12 @@
         <v>300</v>
       </c>
       <c r="C12" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>NE</v>
       </c>
       <c r="D12" s="3">
         <f ca="1">200*EXP(SUM($B$2:B12)*COUNT($B$2:B12)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>77.166914471821428</v>
+        <v>76.598600355372469</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1349,15 +1346,15 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="C13" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>SE</v>
       </c>
       <c r="D13" s="3">
         <f ca="1">200*EXP(SUM($B$2:B13)*COUNT($B$2:B13)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>77.950896733869612</v>
+        <v>77.072669697640364</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1366,15 +1363,15 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="C14" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>N</v>
       </c>
       <c r="D14" s="3">
         <f ca="1">200*EXP(SUM($B$2:B14)*COUNT($B$2:B14)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>78.425104091433624</v>
+        <v>77.740487015678596</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1383,15 +1380,15 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="C15" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>S</v>
       </c>
       <c r="D15" s="3">
         <f ca="1">200*EXP(SUM($B$2:B15)*COUNT($B$2:B15)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>78.970588785317574</v>
+        <v>78.299372488579692</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1400,15 +1397,15 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="C16" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>NE</v>
       </c>
       <c r="D16" s="3">
         <f ca="1">200*EXP(SUM($B$2:B16)*COUNT($B$2:B16)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>79.715318623152882</v>
+        <v>79.14317413648719</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1417,15 +1414,15 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="C17" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
         <v>S</v>
       </c>
       <c r="D17" s="3">
         <f ca="1">200*EXP(SUM($B$2:B17)*COUNT($B$2:B17)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>80.761978814210238</v>
+        <v>79.795546397676205</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1434,15 +1431,15 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="C18" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>NE</v>
       </c>
       <c r="D18" s="3">
         <f ca="1">200*EXP(SUM($B$2:B18)*COUNT($B$2:B18)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>81.566779058132298</v>
+        <v>80.415444655112623</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1451,15 +1448,15 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="C19" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
         <v>NE</v>
       </c>
       <c r="D19" s="3">
         <f ca="1">200*EXP(SUM($B$2:B19)*COUNT($B$2:B19)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>82.777087457261416</v>
+        <v>81.447971132119378</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1468,15 +1465,15 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C20" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>SE</v>
       </c>
       <c r="D20" s="3">
         <f ca="1">200*EXP(SUM($B$2:B20)*COUNT($B$2:B20)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>83.779219206826681</v>
+        <v>82.153699451308142</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1485,1540 +1482,1540 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="C21" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>S</v>
       </c>
       <c r="D21" s="3">
         <f ca="1">200*EXP(SUM($B$2:B21)*COUNT($B$2:B21)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>84.516393832084219</v>
+        <v>83.675382431691091</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="C22" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>SE</v>
       </c>
       <c r="D22" s="3">
         <f ca="1">200*EXP(SUM($B$2:B22)*COUNT($B$2:B22)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>85.276472343585297</v>
+        <v>84.678894077040511</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C23" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
         <v>S</v>
       </c>
       <c r="D23" s="3">
         <f ca="1">200*EXP(SUM($B$2:B23)*COUNT($B$2:B23)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>86.242416886608083</v>
+        <v>86.035655656938843</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="C24" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>S</v>
       </c>
       <c r="D24" s="3">
         <f ca="1">200*EXP(SUM($B$2:B24)*COUNT($B$2:B24)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>87.543170396628611</v>
+        <v>87.697997526341737</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="C25" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
         <v>SE</v>
       </c>
       <c r="D25" s="3">
         <f ca="1">200*EXP(SUM($B$2:B25)*COUNT($B$2:B25)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>88.718228984277516</v>
+        <v>89.598356250239746</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="C26" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>S</v>
       </c>
       <c r="D26" s="3">
         <f ca="1">200*EXP(SUM($B$2:B26)*COUNT($B$2:B26)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>90.169100419207155</v>
+        <v>90.929280991377937</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="C27" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
         <v>S</v>
       </c>
       <c r="D27" s="3">
         <f ca="1">200*EXP(SUM($B$2:B27)*COUNT($B$2:B27)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>91.247545272405546</v>
+        <v>92.831679437207001</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="C28" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
         <v>S</v>
       </c>
       <c r="D28" s="3">
         <f ca="1">200*EXP(SUM($B$2:B28)*COUNT($B$2:B28)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>93.209687793986902</v>
+        <v>93.930266447782174</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="C29" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>N</v>
       </c>
       <c r="D29" s="3">
         <f ca="1">200*EXP(SUM($B$2:B29)*COUNT($B$2:B29)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>95.434266681195766</v>
+        <v>95.760164426096424</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
         <v>550</v>
       </c>
       <c r="C30" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>N</v>
       </c>
       <c r="D30" s="3">
         <f ca="1">200*EXP(SUM($B$2:B30)*COUNT($B$2:B30)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>97.815466578178629</v>
+        <v>98.291571571588022</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="C31" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>SE</v>
       </c>
       <c r="D31" s="3">
         <f ca="1">200*EXP(SUM($B$2:B31)*COUNT($B$2:B31)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>99.640276364575683</v>
+        <v>101.00601925464282</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="C32" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
         <v>N</v>
       </c>
       <c r="D32" s="3">
         <f ca="1">200*EXP(SUM($B$2:B32)*COUNT($B$2:B32)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>102.47110992442296</v>
+        <v>103.07611473663745</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="0"/>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="C33" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>NE</v>
       </c>
       <c r="D33" s="3">
         <f ca="1">200*EXP(SUM($B$2:B33)*COUNT($B$2:B33)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>104.85614131693502</v>
+        <v>106.31665387587732</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B34">
         <f t="shared" ref="B34:B65" ca="1" si="1">RANDBETWEEN(2,12)*50</f>
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="C34" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
         <v>S</v>
       </c>
       <c r="D34" s="3">
         <f ca="1">200*EXP(SUM($B$2:B34)*COUNT($B$2:B34)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>107.37935175639814</v>
+        <v>108.10485981266334</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="1"/>
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="C35" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
         <v>NE</v>
       </c>
       <c r="D35" s="3">
         <f ca="1">200*EXP(SUM($B$2:B35)*COUNT($B$2:B35)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>110.22825121293356</v>
+        <v>110.74234151597712</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="1"/>
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="C36" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>SE</v>
       </c>
       <c r="D36" s="3">
         <f ca="1">200*EXP(SUM($B$2:B36)*COUNT($B$2:B36)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>112.11180906956845</v>
+        <v>114.1522464766107</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="1"/>
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="C37" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>N</v>
       </c>
       <c r="D37" s="3">
         <f ca="1">200*EXP(SUM($B$2:B37)*COUNT($B$2:B37)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>115.85328275893272</v>
+        <v>117.12696800466566</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="1"/>
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="C38" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>N</v>
       </c>
       <c r="D38" s="3">
         <f ca="1">200*EXP(SUM($B$2:B38)*COUNT($B$2:B38)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>119.64472815470643</v>
+        <v>120.50011410760861</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="1"/>
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="C39" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
         <v>SE</v>
       </c>
       <c r="D39" s="3">
         <f ca="1">200*EXP(SUM($B$2:B39)*COUNT($B$2:B39)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>123.91762192720964</v>
+        <v>123.58208632103869</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="1"/>
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="C40" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
         <v>SE</v>
       </c>
       <c r="D40" s="3">
         <f ca="1">200*EXP(SUM($B$2:B40)*COUNT($B$2:B40)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>127.76986601348824</v>
+        <v>128.38367595939351</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="1"/>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="C41" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>NE</v>
       </c>
       <c r="D41" s="3">
         <f ca="1">200*EXP(SUM($B$2:B41)*COUNT($B$2:B41)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>130.34157723804137</v>
+        <v>131.59845451888242</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="1"/>
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="C42" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>N</v>
       </c>
       <c r="D42" s="3">
         <f ca="1">200*EXP(SUM($B$2:B42)*COUNT($B$2:B42)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>134.32238351259866</v>
+        <v>136.41874071652273</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="C43" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>SE</v>
       </c>
       <c r="D43" s="3">
         <f ca="1">200*EXP(SUM($B$2:B43)*COUNT($B$2:B43)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>136.86118802088674</v>
+        <v>141.25300733479153</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="1"/>
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="C44" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>N</v>
       </c>
       <c r="D44" s="3">
         <f ca="1">200*EXP(SUM($B$2:B44)*COUNT($B$2:B44)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>140.05339523127864</v>
+        <v>145.73947858398449</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="1"/>
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="C45" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>SE</v>
       </c>
       <c r="D45" s="3">
         <f ca="1">200*EXP(SUM($B$2:B45)*COUNT($B$2:B45)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>145.20883711553057</v>
+        <v>150.13276174225331</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="1"/>
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="C46" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>SE</v>
       </c>
       <c r="D46" s="3">
         <f ca="1">200*EXP(SUM($B$2:B46)*COUNT($B$2:B46)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>151.35332520654302</v>
+        <v>154.39184782506121</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="1"/>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="C47" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>N</v>
       </c>
       <c r="D47" s="3">
         <f ca="1">200*EXP(SUM($B$2:B47)*COUNT($B$2:B47)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>156.5475009662436</v>
+        <v>159.2373406805215</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="1"/>
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="C48" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>N</v>
       </c>
       <c r="D48" s="3">
         <f ca="1">200*EXP(SUM($B$2:B48)*COUNT($B$2:B48)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>163.14822174453261</v>
+        <v>164.74234797556869</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="1"/>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="C49" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>NE</v>
       </c>
       <c r="D49" s="3">
         <f ca="1">200*EXP(SUM($B$2:B49)*COUNT($B$2:B49)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>169.03170816741837</v>
+        <v>172.71635800831285</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="1"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C50" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>SE</v>
       </c>
       <c r="D50" s="3">
         <f ca="1">200*EXP(SUM($B$2:B50)*COUNT($B$2:B50)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>173.6165715379023</v>
+        <v>176.71754388365957</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="1"/>
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="C51" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>NE</v>
       </c>
       <c r="D51" s="3">
         <f ca="1">200*EXP(SUM($B$2:B51)*COUNT($B$2:B51)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>179.68718660610256</v>
+        <v>180.84924285112069</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="1"/>
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C52" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>SE</v>
       </c>
       <c r="D52" s="3">
         <f ca="1">200*EXP(SUM($B$2:B52)*COUNT($B$2:B52)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>184.2770091898399</v>
+        <v>187.10139700632354</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="1"/>
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="C53" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>S</v>
       </c>
       <c r="D53" s="3">
         <f ca="1">200*EXP(SUM($B$2:B53)*COUNT($B$2:B53)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>192.38000355529917</v>
+        <v>193.16526633052121</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="1"/>
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="C54" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>N</v>
       </c>
       <c r="D54" s="3">
         <f ca="1">200*EXP(SUM($B$2:B54)*COUNT($B$2:B54)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>202.06108933459913</v>
+        <v>200.08367763070262</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="1"/>
         <v>500</v>
       </c>
       <c r="C55" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>SE</v>
       </c>
       <c r="D55" s="3">
         <f ca="1">200*EXP(SUM($B$2:B55)*COUNT($B$2:B55)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>211.37297472755267</v>
+        <v>209.7354088220367</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="1"/>
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="C56" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>S</v>
       </c>
       <c r="D56" s="3">
         <f ca="1">200*EXP(SUM($B$2:B56)*COUNT($B$2:B56)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>217.83907375197361</v>
+        <v>219.45074787154215</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="1"/>
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="C57" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
         <v>N</v>
       </c>
       <c r="D57" s="3">
         <f ca="1">200*EXP(SUM($B$2:B57)*COUNT($B$2:B57)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>226.41298249203626</v>
+        <v>225.16946900222965</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="1"/>
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="C58" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>SE</v>
       </c>
       <c r="D58" s="3">
         <f ca="1">200*EXP(SUM($B$2:B58)*COUNT($B$2:B58)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>238.08158175739106</v>
+        <v>236.66155724728691</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="1"/>
         <v>350</v>
       </c>
       <c r="C59" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>S</v>
       </c>
       <c r="D59" s="3">
         <f ca="1">200*EXP(SUM($B$2:B59)*COUNT($B$2:B59)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>247.83366110030394</v>
+        <v>246.74528808742741</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="1"/>
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="C60" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
         <v>N</v>
       </c>
       <c r="D60" s="3">
         <f ca="1">200*EXP(SUM($B$2:B60)*COUNT($B$2:B60)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>258.89330909665074</v>
+        <v>254.28971551875469</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="1"/>
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="C61" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>N</v>
       </c>
       <c r="D61" s="3">
         <f ca="1">200*EXP(SUM($B$2:B61)*COUNT($B$2:B61)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>267.54615561039225</v>
+        <v>265.4574652014424</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="1"/>
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="C62" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
         <v>N</v>
       </c>
       <c r="D62" s="3">
         <f ca="1">200*EXP(SUM($B$2:B62)*COUNT($B$2:B62)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>281.51072757748938</v>
+        <v>274.67770053896845</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="1"/>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="C63" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>SE</v>
       </c>
       <c r="D63" s="3">
         <f ca="1">200*EXP(SUM($B$2:B63)*COUNT($B$2:B63)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>290.35990851152349</v>
+        <v>284.33709934740767</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="1"/>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="C64" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
         <v>N</v>
       </c>
       <c r="D64" s="3">
         <f ca="1">200*EXP(SUM($B$2:B64)*COUNT($B$2:B64)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>306.00092495322826</v>
+        <v>302.32235148283706</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="1"/>
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="C65" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>SE</v>
       </c>
       <c r="D65" s="3">
         <f ca="1">200*EXP(SUM($B$2:B65)*COUNT($B$2:B65)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>316.88342857540505</v>
+        <v>314.39722551839742</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B66">
         <f t="shared" ref="B66:B101" ca="1" si="2">RANDBETWEEN(2,12)*50</f>
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="C66" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>S</v>
       </c>
       <c r="D66" s="3">
         <f ca="1">200*EXP(SUM($B$2:B66)*COUNT($B$2:B66)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>332.41358838332195</v>
+        <v>327.12537602666674</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B67">
         <f t="shared" ca="1" si="2"/>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="C67" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
         <v>S</v>
       </c>
       <c r="D67" s="3">
         <f ca="1">200*EXP(SUM($B$2:B67)*COUNT($B$2:B67)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>348.97352750666255</v>
+        <v>348.87354573653585</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="2"/>
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="C68" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>SE</v>
       </c>
       <c r="D68" s="3">
         <f ca="1">200*EXP(SUM($B$2:B68)*COUNT($B$2:B68)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>367.82503567818827</v>
+        <v>367.35084287883797</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="2"/>
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="C69" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>S</v>
       </c>
       <c r="D69" s="3">
         <f ca="1">200*EXP(SUM($B$2:B69)*COUNT($B$2:B69)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>385.49907230330183</v>
+        <v>387.1304866450248</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="2"/>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="C70" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>N</v>
       </c>
       <c r="D70" s="3">
         <f ca="1">200*EXP(SUM($B$2:B70)*COUNT($B$2:B70)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>402.95414917332329</v>
+        <v>408.31660116979458</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="2"/>
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="C71" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>S</v>
       </c>
       <c r="D71" s="3">
         <f ca="1">200*EXP(SUM($B$2:B71)*COUNT($B$2:B71)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>430.04979345831913</v>
+        <v>432.60308055683788</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="2"/>
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="C72" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>S</v>
       </c>
       <c r="D72" s="3">
         <f ca="1">200*EXP(SUM($B$2:B72)*COUNT($B$2:B72)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>454.81090847989242</v>
+        <v>453.68464124387492</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="2"/>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="C73" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>N</v>
       </c>
       <c r="D73" s="3">
         <f ca="1">200*EXP(SUM($B$2:B73)*COUNT($B$2:B73)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>483.08596677944632</v>
+        <v>479.69040007668019</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="2"/>
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="C74" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
         <v>SE</v>
       </c>
       <c r="D74" s="3">
         <f ca="1">200*EXP(SUM($B$2:B74)*COUNT($B$2:B74)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>508.22724397770446</v>
+        <v>501.83183772803113</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="2"/>
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="C75" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>N</v>
       </c>
       <c r="D75" s="3">
         <f ca="1">200*EXP(SUM($B$2:B75)*COUNT($B$2:B75)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>529.35045581923657</v>
+        <v>525.26985380872907</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="2"/>
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="C76" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
         <v>S</v>
       </c>
       <c r="D76" s="3">
         <f ca="1">200*EXP(SUM($B$2:B76)*COUNT($B$2:B76)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>565.68000598930189</v>
+        <v>565.39977811619565</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="2"/>
         <v>400</v>
       </c>
       <c r="C77" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>S</v>
       </c>
       <c r="D77" s="3">
         <f ca="1">200*EXP(SUM($B$2:B77)*COUNT($B$2:B77)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>598.53838108963032</v>
+        <v>599.75032582003678</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="2"/>
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="C78" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
         <v>NE</v>
       </c>
       <c r="D78" s="3">
         <f ca="1">200*EXP(SUM($B$2:B78)*COUNT($B$2:B78)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>640.87987420461309</v>
+        <v>626.54829808497857</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="2"/>
         <v>400</v>
       </c>
       <c r="C79" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>SE</v>
       </c>
       <c r="D79" s="3">
         <f ca="1">200*EXP(SUM($B$2:B79)*COUNT($B$2:B79)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>679.24972720373432</v>
+        <v>665.58763208048288</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="2"/>
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="C80" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>N</v>
       </c>
       <c r="D80" s="3">
         <f ca="1">200*EXP(SUM($B$2:B80)*COUNT($B$2:B80)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>709.59559592034714</v>
+        <v>716.47511142240671</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C81" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>N</v>
       </c>
       <c r="D81" s="3">
         <f ca="1">200*EXP(SUM($B$2:B81)*COUNT($B$2:B81)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>735.89328591057301</v>
+        <v>749.85960374387514</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="2"/>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="C82" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
         <v>S</v>
       </c>
       <c r="D82" s="3">
         <f ca="1">200*EXP(SUM($B$2:B82)*COUNT($B$2:B82)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>772.29322107441294</v>
+        <v>805.33516356174061</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B83">
         <f t="shared" ca="1" si="2"/>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="C83" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
         <v>SE</v>
       </c>
       <c r="D83" s="3">
         <f ca="1">200*EXP(SUM($B$2:B83)*COUNT($B$2:B83)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>814.09077679054292</v>
+        <v>858.42703054630135</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="2"/>
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="C84" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>SE</v>
       </c>
       <c r="D84" s="3">
         <f ca="1">200*EXP(SUM($B$2:B84)*COUNT($B$2:B84)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>872.4783358774439</v>
+        <v>900.0244608808141</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="2"/>
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="C85" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
         <v>N</v>
       </c>
       <c r="D85" s="3">
         <f ca="1">200*EXP(SUM($B$2:B85)*COUNT($B$2:B85)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>928.4159194311535</v>
+        <v>956.55374295091713</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="2"/>
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="C86" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>S</v>
       </c>
       <c r="D86" s="3">
         <f ca="1">200*EXP(SUM($B$2:B86)*COUNT($B$2:B86)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>1000.9114798473911</v>
+        <v>1008.3747389001603</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="2"/>
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="C87" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>S</v>
       </c>
       <c r="D87" s="3">
         <f ca="1">200*EXP(SUM($B$2:B87)*COUNT($B$2:B87)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>1084.692072886101</v>
+        <v>1092.6449354895537</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="2"/>
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="C88" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>S</v>
       </c>
       <c r="D88" s="3">
         <f ca="1">200*EXP(SUM($B$2:B88)*COUNT($B$2:B88)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>1133.3149532603325</v>
+        <v>1169.2540824559765</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="2"/>
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="C89" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
         <v>S</v>
       </c>
       <c r="D89" s="3">
         <f ca="1">200*EXP(SUM($B$2:B89)*COUNT($B$2:B89)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>1184.4594568564255</v>
+        <v>1263.8592424506896</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="2"/>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="C90" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>N</v>
       </c>
       <c r="D90" s="3">
         <f ca="1">200*EXP(SUM($B$2:B90)*COUNT($B$2:B90)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>1243.5857129438371</v>
+        <v>1342.3277379890303</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="2"/>
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="C91" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
         <v>N</v>
       </c>
       <c r="D91" s="3">
         <f ca="1">200*EXP(SUM($B$2:B91)*COUNT($B$2:B91)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>1352.2277577482562</v>
+        <v>1440.0527352586162</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="2"/>
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="C92" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>S</v>
       </c>
       <c r="D92" s="3">
         <f ca="1">200*EXP(SUM($B$2:B92)*COUNT($B$2:B92)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>1452.8430725405456</v>
+        <v>1560.9696295915553</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="2"/>
         <v>250</v>
       </c>
       <c r="C93" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>S</v>
       </c>
       <c r="D93" s="3">
         <f ca="1">200*EXP(SUM($B$2:B93)*COUNT($B$2:B93)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>1534.8676523603581</v>
+        <v>1653.5559672891955</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94">
+        <f t="shared" ca="1" si="2"/>
         <v>100</v>
       </c>
-      <c r="B94">
-        <f t="shared" ca="1" si="2"/>
-        <v>100</v>
-      </c>
       <c r="C94" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>NE</v>
       </c>
       <c r="D94" s="3">
         <f ca="1">200*EXP(SUM($B$2:B94)*COUNT($B$2:B94)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>1600.6626235523499</v>
+        <v>1727.1690073578977</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="2"/>
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="C95" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>N</v>
       </c>
       <c r="D95" s="3">
         <f ca="1">200*EXP(SUM($B$2:B95)*COUNT($B$2:B95)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>1723.3264949488328</v>
+        <v>1895.3408470416452</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="2"/>
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="C96" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
         <v>NE</v>
       </c>
       <c r="D96" s="3">
         <f ca="1">200*EXP(SUM($B$2:B96)*COUNT($B$2:B96)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>1848.5264392342897</v>
+        <v>1981.5818123765121</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="2"/>
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="C97" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>N</v>
       </c>
       <c r="D97" s="3">
         <f ca="1">200*EXP(SUM($B$2:B97)*COUNT($B$2:B97)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>1975.201445385057</v>
+        <v>2114.2068590516178</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="2"/>
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="C98" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>S</v>
       </c>
       <c r="D98" s="3">
         <f ca="1">200*EXP(SUM($B$2:B98)*COUNT($B$2:B98)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>2092.3497554265537</v>
+        <v>2223.0404102258713</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <f t="shared" ca="1" si="2"/>
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="C99" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>SE</v>
       </c>
       <c r="D99" s="3">
         <f ca="1">200*EXP(SUM($B$2:B99)*COUNT($B$2:B99)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>2281.1726814834869</v>
+        <v>2338.2098541006421</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="2"/>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="C100" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>S</v>
       </c>
       <c r="D100" s="3">
         <f ca="1">200*EXP(SUM($B$2:B100)*COUNT($B$2:B100)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>2396.5442204329838</v>
+        <v>2472.8853257869587</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="2"/>
         <v>500</v>
       </c>
       <c r="C101" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>N</v>
       </c>
       <c r="D101" s="3">
         <f ca="1">200*EXP(SUM($B$2:B101)*COUNT($B$2:B101)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>2604.7822727030048</v>
+        <v>2699.7966804852986</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B102">
         <f t="shared" ref="B102:B111" ca="1" si="3">RANDBETWEEN(2,12)*50</f>
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="C102" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>SE</v>
       </c>
       <c r="D102" s="3">
         <f ca="1">200*EXP(SUM($B$2:B102)*COUNT($B$2:B102)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>2765.7864468910525</v>
+        <v>2888.9377816273695</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B103">
         <f t="shared" ca="1" si="3"/>
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="C103" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
         <v>NE</v>
       </c>
       <c r="D103" s="3">
         <f ca="1">200*EXP(SUM($B$2:B103)*COUNT($B$2:B103)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>2981.7534873763702</v>
+        <v>3044.1714253524365</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B104">
         <f t="shared" ca="1" si="3"/>
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="C104" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>S</v>
       </c>
       <c r="D104" s="3">
         <f ca="1">200*EXP(SUM($B$2:B104)*COUNT($B$2:B104)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>3265.2680943804662</v>
+        <v>3261.0173320710219</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B105">
         <f t="shared" ca="1" si="3"/>
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="C105" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
         <v>SE</v>
       </c>
       <c r="D105" s="3">
         <f ca="1">200*EXP(SUM($B$2:B105)*COUNT($B$2:B105)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>3597.4928699031648</v>
+        <v>3457.6919612180072</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B106">
         <f t="shared" ca="1" si="3"/>
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="C106" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
         <v>N</v>
       </c>
       <c r="D106" s="3">
         <f ca="1">200*EXP(SUM($B$2:B106)*COUNT($B$2:B106)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>3968.101303984849</v>
+        <v>3749.1999843754675</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B107">
         <f t="shared" ca="1" si="3"/>
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="C107" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
         <v>SE</v>
       </c>
       <c r="D107" s="3">
         <f ca="1">200*EXP(SUM($B$2:B107)*COUNT($B$2:B107)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>4206.6861681781875</v>
+        <v>4114.0388099724678</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B108">
         <f t="shared" ca="1" si="3"/>
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="C108" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>S</v>
       </c>
       <c r="D108" s="3">
         <f ca="1">200*EXP(SUM($B$2:B108)*COUNT($B$2:B108)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>4507.5267463803939</v>
+        <v>4544.4581099826291</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B109">
         <f t="shared" ca="1" si="3"/>
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="C109" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>S</v>
       </c>
       <c r="D109" s="3">
         <f ca="1">200*EXP(SUM($B$2:B109)*COUNT($B$2:B109)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>4959.933892265055</v>
+        <v>4941.2627260404934</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B110">
         <f t="shared" ca="1" si="3"/>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="C110" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>SE</v>
       </c>
       <c r="D110" s="3">
         <f ca="1">200*EXP(SUM($B$2:B110)*COUNT($B$2:B110)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>5434.9400464006503</v>
+        <v>5377.2114970315415</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B111">
         <f t="shared" ca="1" si="3"/>
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="C111" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
         <v>S</v>
       </c>
       <c r="D111" s="3">
@@ -3037,413 +3034,413 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView zoomScale="201" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" t="s">
         <v>172</v>
       </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D1" t="s">
-        <v>121</v>
-      </c>
       <c r="E1" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(12,40)*50</f>
-        <v>1650</v>
+        <v>1100</v>
       </c>
       <c r="C2" s="2">
         <f ca="1">RANDBETWEEN(60,80)/100</f>
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.04</v>
+        <v>0.19</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(0,300)*RANDBETWEEN(0,1)*B2/100</f>
-        <v>0</v>
+        <v>561</v>
       </c>
       <c r="F2" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>NE</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B51" ca="1" si="0">RANDBETWEEN(12,40)*50</f>
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C51" ca="1" si="1">RANDBETWEEN(60,80)/100</f>
-        <v>0.66</v>
+        <v>0.73</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D51" ca="1" si="2">RANDBETWEEN(1,100)/100</f>
-        <v>0.16</v>
+        <v>0.33</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E51" ca="1" si="3">RANDBETWEEN(0,300)*RANDBETWEEN(0,1)*B3/100</f>
         <v>0</v>
       </c>
       <c r="F3" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
         <v>NE</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>1200</v>
+        <v>1950</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="2"/>
-        <v>0.98</v>
+        <v>0.34</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="3"/>
-        <v>3192</v>
+        <v>0</v>
       </c>
       <c r="F4" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>NE</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>1300</v>
+        <v>1850</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69</v>
+        <v>0.8</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72</v>
+        <v>0.89</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="3"/>
-        <v>3692</v>
+        <v>4384.5</v>
       </c>
       <c r="F5" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>SE</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>900</v>
+        <v>1700</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="2"/>
-        <v>0.93</v>
+        <v>0.71</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="3"/>
-        <v>252</v>
+        <v>1819</v>
       </c>
       <c r="F6" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>N</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>1750</v>
+        <v>1800</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75</v>
+        <v>0.63</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54</v>
+        <v>0.88</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="F7" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>N</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>1850</v>
+        <v>1800</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17</v>
+        <v>0.87</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="3"/>
-        <v>4218</v>
+        <v>0</v>
       </c>
       <c r="F8" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>SE</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>1750</v>
+        <v>1900</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72</v>
+        <v>0.78</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="2"/>
-        <v>0.79</v>
+        <v>0.44</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="3"/>
-        <v>4812.5</v>
+        <v>0</v>
       </c>
       <c r="F9" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>NE</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6</v>
+        <v>0.71</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7</v>
+        <v>0.41</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="3"/>
-        <v>552</v>
+        <v>0</v>
       </c>
       <c r="F10" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>SE</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>1750</v>
+        <v>600</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76</v>
+        <v>0.7</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1434</v>
       </c>
       <c r="F11" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
         <v>NE</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="2"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.41</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="3"/>
-        <v>1395</v>
+        <v>348</v>
       </c>
       <c r="F12" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>SE</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>1250</v>
+        <v>1300</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8</v>
+        <v>0.66</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49</v>
+        <v>0.24</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="F13" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>S</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54</v>
+        <v>0.92</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="F14" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>NE</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76</v>
+        <v>0.62</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16</v>
+        <v>0.42</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1708</v>
       </c>
       <c r="F15" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
         <v>SE</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>1700</v>
+        <v>800</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6</v>
+        <v>0.77</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.91</v>
+        <v>0.74</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="3"/>
-        <v>1173</v>
+        <v>0</v>
       </c>
       <c r="F16" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>S</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>1150</v>
+        <v>1900</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -3451,128 +3448,128 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="3"/>
-        <v>2840.5</v>
+        <v>2204</v>
       </c>
       <c r="F17" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>N</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>650</v>
+        <v>1600</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37</v>
+        <v>0.84</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="3"/>
-        <v>819</v>
+        <v>0</v>
       </c>
       <c r="F18" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>NE</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>850</v>
+        <v>1950</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.98</v>
+        <v>0.66</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="3"/>
-        <v>136</v>
+        <v>39</v>
       </c>
       <c r="F19" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>SE</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>1550</v>
+        <v>1900</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74</v>
+        <v>0.67</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2</v>
+        <v>0.53</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="3"/>
-        <v>1426</v>
+        <v>0</v>
       </c>
       <c r="F20" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>NE</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>1300</v>
+        <v>1850</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74</v>
+        <v>0.62</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="2"/>
-        <v>0.97</v>
+        <v>0.25</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1517</v>
       </c>
       <c r="F21" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>NE</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>1200</v>
+        <v>950</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="2"/>
@@ -3580,116 +3577,116 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="3"/>
-        <v>1140</v>
+        <v>0</v>
       </c>
       <c r="F22" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>S</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>1750</v>
+        <v>1150</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79</v>
+        <v>0.65</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.25</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="3"/>
-        <v>1067.5</v>
+        <v>402.5</v>
       </c>
       <c r="F23" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>SE</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>1150</v>
+        <v>700</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61</v>
+        <v>0.73</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
-        <v>0.68</v>
+        <v>0.94</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="F24" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>SE</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67</v>
+        <v>0.69</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="3"/>
-        <v>1122</v>
+        <v>1134</v>
       </c>
       <c r="F25" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>NE</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>1050</v>
+        <v>650</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71</v>
+        <v>0.84</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="3"/>
-        <v>1428</v>
+        <v>71.5</v>
       </c>
       <c r="F26" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>N</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
@@ -3697,474 +3694,474 @@
       </c>
       <c r="C27" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6</v>
+        <v>0.79</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="3"/>
-        <v>715</v>
+        <v>253</v>
       </c>
       <c r="F27" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>S</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66</v>
+        <v>0.69</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71</v>
+        <v>0.89</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="3"/>
-        <v>4448</v>
+        <v>0</v>
       </c>
       <c r="F28" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>N</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>1700</v>
+        <v>1950</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78</v>
+        <v>0.68</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="3"/>
-        <v>714</v>
+        <v>4563</v>
       </c>
       <c r="F29" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>NE</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>1650</v>
+        <v>1900</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64</v>
+        <v>0.77</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="2"/>
-        <v>0.75</v>
+        <v>0.97</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="3"/>
-        <v>3877.5</v>
+        <v>3154</v>
       </c>
       <c r="F30" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
         <v>SE</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>850</v>
+        <v>1300</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6</v>
+        <v>0.71</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="2"/>
-        <v>0.83</v>
+        <v>0.38</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>3133</v>
       </c>
       <c r="F31" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>NE</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
-        <v>1900</v>
+        <v>1050</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="2"/>
-        <v>0.03</v>
+        <v>0.84</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="F32" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
         <v>SE</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="0"/>
-        <v>1600</v>
+        <v>650</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61</v>
+        <v>0.64</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81</v>
+        <v>0.46</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>364</v>
       </c>
       <c r="F33" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
         <v>SE</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="0"/>
-        <v>1850</v>
+        <v>1100</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76</v>
+        <v>0.68</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94</v>
+        <v>0.91</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="3"/>
-        <v>4477</v>
+        <v>1430</v>
       </c>
       <c r="F34" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>N</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="0"/>
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96</v>
+        <v>0.18</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="3"/>
-        <v>3080</v>
+        <v>2185</v>
       </c>
       <c r="F35" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>N</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="0"/>
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74</v>
+        <v>0.77</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="2"/>
-        <v>0.73</v>
+        <v>0.37</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="F36" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>NE</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="0"/>
-        <v>1900</v>
+        <v>1650</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75</v>
+        <v>0.68</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56000000000000005</v>
+        <v>0.09</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="F37" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>SE</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="0"/>
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65</v>
+        <v>0.79</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="2"/>
-        <v>0.62</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="3"/>
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="F38" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>S</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="0"/>
-        <v>1350</v>
+        <v>1800</v>
       </c>
       <c r="C39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51</v>
+        <v>0.81</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="3"/>
-        <v>1903.5</v>
+        <v>1062</v>
       </c>
       <c r="F39" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
         <v>SE</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="0"/>
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="C40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69</v>
+        <v>0.75</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="3"/>
-        <v>777</v>
+        <v>1944</v>
       </c>
       <c r="F40" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
         <v>NE</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="0"/>
-        <v>1600</v>
+        <v>1350</v>
       </c>
       <c r="C41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74</v>
+        <v>0.62</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25</v>
+        <v>0.96</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="3"/>
-        <v>2592</v>
+        <v>3591</v>
       </c>
       <c r="F41" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
         <v>N</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="0"/>
-        <v>1900</v>
+        <v>1050</v>
       </c>
       <c r="C42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67</v>
+        <v>0.69</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41</v>
+        <v>0.13</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="3"/>
-        <v>3401</v>
+        <v>2373</v>
       </c>
       <c r="F42" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>NE</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="0"/>
-        <v>1950</v>
+        <v>1900</v>
       </c>
       <c r="C43" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78</v>
+        <v>0.62</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="F43" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
         <v>N</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="0"/>
-        <v>1450</v>
+        <v>1300</v>
       </c>
       <c r="C44" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73</v>
+        <v>0.6</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="2"/>
-        <v>0.45</v>
+        <v>0.19</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1820</v>
       </c>
       <c r="F44" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
         <v>SE</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="0"/>
-        <v>800</v>
+        <v>1850</v>
       </c>
       <c r="C45" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96</v>
+        <v>0.25</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="3"/>
-        <v>2216</v>
+        <v>0</v>
       </c>
       <c r="F45" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>S</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="0"/>
@@ -4172,143 +4169,143 @@
       </c>
       <c r="C46" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72</v>
+        <v>0.69</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="3"/>
-        <v>2047.5</v>
+        <v>409.5</v>
       </c>
       <c r="F46" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>N</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="0"/>
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="C47" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63</v>
+        <v>0.71</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12</v>
+        <v>0.3</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="3"/>
-        <v>670</v>
+        <v>285</v>
       </c>
       <c r="F47" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>N</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="0"/>
-        <v>1050</v>
+        <v>1250</v>
       </c>
       <c r="C48" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66</v>
+        <v>0.71</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33</v>
+        <v>0.73</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>387.5</v>
       </c>
       <c r="F48" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
         <v>S</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="0"/>
-        <v>1650</v>
+        <v>1550</v>
       </c>
       <c r="C49" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6</v>
+        <v>0.79</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="2"/>
-        <v>0.53</v>
+        <v>0.06</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>2991.5</v>
       </c>
       <c r="F49" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
+        <v>SE</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="0"/>
-        <v>1200</v>
+        <v>1450</v>
       </c>
       <c r="C50" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71</v>
+        <v>0.78</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36</v>
+        <v>0.99</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="F50" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
         <v>S</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="0"/>
-        <v>700</v>
+        <v>1750</v>
       </c>
       <c r="C51" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8</v>
+        <v>0.64</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="2"/>
-        <v>0.61</v>
+        <v>0.22</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="F51" t="str">
-        <f ca="1">OFFSET(Submercados!$A$2,RANDBETWEEN(0,3),0)</f>
+        <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
         <v>NE</v>
       </c>
     </row>
@@ -4323,14 +4320,14 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="137" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>167</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -4350,76 +4347,76 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
-        <f>Submercados!A2</f>
+        <f>Submarkets!A2</f>
         <v>SE</v>
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(50,120)/100</f>
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:F5" ca="1" si="0">RANDBETWEEN(50,120)/100</f>
-        <v>0.86</v>
+        <f t="shared" ref="C2:F6" ca="1" si="0">RANDBETWEEN(50,120)/100</f>
+        <v>1.02</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67</v>
+        <v>1.04</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f>Submercados!A3</f>
+        <f>Submarkets!A3</f>
         <v>S</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B5" ca="1" si="1">RANDBETWEEN(50,120)/100</f>
-        <v>0.84</v>
+        <f t="shared" ref="B3:B6" ca="1" si="1">RANDBETWEEN(50,120)/100</f>
+        <v>1.01</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1599999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96</v>
+        <v>1.01</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
-        <f>Submercados!A4</f>
+        <f>Submarkets!A4</f>
         <v>NE</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.01</v>
+        <v>0.71</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92</v>
+        <v>0.62</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
+        <v>0.61</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
@@ -4428,49 +4425,54 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
-        <f>Submercados!A5</f>
+        <f>Submarkets!A5</f>
         <v>N</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.17</v>
+        <v>0.7</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0900000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
-        <f>Submercados!A6</f>
+        <f>Submarkets!A6</f>
         <v>IP</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.77</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.65</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.87</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.1200000000000001</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.51</v>
       </c>
     </row>
   </sheetData>
@@ -4482,8 +4484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1C4D63-8CC4-41FC-8C63-0A4AB4191719}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="186" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="186" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4493,7 +4495,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B1" s="1" t="str">
         <f>A2</f>
@@ -4518,7 +4520,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
-        <f>Submercados!A2</f>
+        <f>Submarkets!A2</f>
         <v>SE</v>
       </c>
       <c r="B2" s="1">
@@ -4543,7 +4545,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f>Submercados!A3</f>
+        <f>Submarkets!A3</f>
         <v>S</v>
       </c>
       <c r="B3" s="1">
@@ -4567,7 +4569,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
-        <f>Submercados!A4</f>
+        <f>Submarkets!A4</f>
         <v>NE</v>
       </c>
       <c r="B4" s="1">
@@ -4592,7 +4594,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
-        <f>Submercados!A5</f>
+        <f>Submarkets!A5</f>
         <v>N</v>
       </c>
       <c r="B5" s="1">
@@ -4616,7 +4618,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
-        <f>Submercados!A6</f>
+        <f>Submarkets!A6</f>
         <v>IP</v>
       </c>
       <c r="B6" s="1">

--- a/PTR5744 - Pesquisa Operacional Aplicada ao Planejamento de Transportes (2025)/Multi-stage stochastic optimization/Inputs.xlsx
+++ b/PTR5744 - Pesquisa Operacional Aplicada ao Planejamento de Transportes (2025)/Multi-stage stochastic optimization/Inputs.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan.Santos\GitHub\PPGEP-Nathan\PTR5744 - Pesquisa Operacional Aplicada ao Planejamento de Transportes (2025)\Multi-stage stochastic optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387CD109-DBD4-4822-8AB1-5177E30FED5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DB0343-9E09-4A47-9E05-CEB3586AF532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{6F247612-8B66-4663-AB2F-0C8F2F94D7F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{6F247612-8B66-4663-AB2F-0C8F2F94D7F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Submarkets" sheetId="4" r:id="rId1"/>
@@ -38,6 +38,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -626,10 +648,3083 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050" b="1"/>
+              <a:t>Demanda por Submercado </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="800" i="1"/>
+              <a:t>[MW]</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" i="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Load!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Load!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E2F5-429C-A528-872CB68951DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Load!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Load!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E2F5-429C-A528-872CB68951DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Load!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Load!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E2F5-429C-A528-872CB68951DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Load!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Load!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E2F5-429C-A528-872CB68951DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1913881391"/>
+        <c:axId val="1913863151"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Load!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E2F5-429C-A528-872CB68951DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1913881391"/>
+        <c:axId val="1913863151"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1913881391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="600" b="1"/>
+                  <a:t>Estágio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1913863151"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1913863151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1913881391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+          <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1080" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Empilhamento Térmico</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>[R$/MWh]</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1080" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Thermals!$J$2:$J$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="110"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3850</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4250</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4450</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4550</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5750</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5850</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6700</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7650</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8850</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10150</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10600</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10900</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11500</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12100</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12450</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13050</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13650</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14050</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14400</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14650</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15250</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>15700</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16150</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16450</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>16750</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>16950</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>17300</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>17650</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18050</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>18300</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>18850</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>19150</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>19450</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>20050</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>20650</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>20950</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>21250</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>21850</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>21950</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>22300</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>22700</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>23100</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>23200</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>23550</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>23700</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>23850</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>24250</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>24800</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>25050</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>25450</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>26050</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>26650</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>26800</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>27350</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>27900</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>28250</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>28700</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>29150</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>29750</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>29850</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>30250</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>30550</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>31100</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>31400</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>32300</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>32750</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>33150</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>33450</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>34300</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>34650</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>35600</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>35850</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>36350</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>36650</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>36850</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>37150</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>37250</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>37550</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>37850</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>38100</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>38550</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>38800</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>39300</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>39450</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>39750</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>39900</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>40500</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>41050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Thermals!$K$2:$K$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="110"/>
+                <c:pt idx="0">
+                  <c:v>73.618917165213688</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.705050534810169</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.802071039272448</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73.978471603225671</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74.242054721760255</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.528360404722164</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.76475612858232</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75.023829916751396</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75.272798525420569</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75.684666836452038</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>76.102496462016759</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>76.873893399917876</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>77.253108888815831</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>77.96776266300509</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>78.520520438382377</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>78.984785647666115</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>79.664985125504572</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>80.885221420497757</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>81.840555443957015</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>82.460935714391908</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>83.35768051171749</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>84.940166611396023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>86.653960836403542</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>87.989821448553471</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>89.953402655966258</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>92.068396335436248</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>94.095484418344569</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>95.606599383851616</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>98.016743548135778</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>100.30177418553338</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>102.2657042781624</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>105.30958656127986</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>108.57094675698391</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>111.13992143442138</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>114.82214408629889</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>118.76515559368355</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>122.10365934263152</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>125.40152347181473</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>128.38750259872404</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>133.31495924532334</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>137.76542854531505</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>142.48937384925861</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>146.58044204261941</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>150.87715547592529</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>154.71076134463357</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>159.7742603700751</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>165.11606813399845</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>171.15269303631032</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>176.28130965521549</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>184.32667133780168</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>190.56361260447963</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>197.12680624914651</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>207.22109330412462</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>218.08714077607448</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>226.12647522821243</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>234.59928228506911</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>247.62377192648466</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>254.38612715064991</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>265.16801701984014</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>277.40523076786542</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>290.43349401223446</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>298.84503514137651</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>312.31669839882574</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>322.56988247328883</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>333.25707851163997</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>349.98100336178226</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>371.45065416887684</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>386.89248689668761</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>407.25931961022235</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>434.92554582348527</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>465.01464005525071</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>482.29741720959589</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>514.81030197731593</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>550.10428312696627</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>579.90992326694834</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>616.29479078120755</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>655.53716814775453</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>705.89204267091225</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>732.26998567615794</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>777.75941780657911</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>820.21945635126428</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>882.96619523419236</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>932.48635282002977</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1009.8551562868183</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1068.0516957161194</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1144.5597504464322</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1222.4318980872702</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1295.4641271930263</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1403.7698346774541</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1489.7391900831494</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1588.9271538763689</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1695.8754812167765</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1852.7603017548663</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1962.5897243189775</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2128.6392287551366</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2268.1544256587813</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2395.4780014589128</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2555.2197153913153</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2675.094596403801</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2856.264306593504</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3051.4872021496562</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3245.7896919762456</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3524.1827572451039</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3752.9697925678065</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4102.1537820100775</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4328.8426149006082</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4641.4186620621203</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4901.4885517617677</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5431.1208049706538</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5992.8200094794047</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5D50-4BC4-8819-9F87494338C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1913833391"/>
+        <c:axId val="1913823791"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1913833391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="600" b="1"/>
+                  <a:t>Capacidade Térmica</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="600" b="1" baseline="0"/>
+                  <a:t> [GW]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="600" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1913823791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+        </c:dispUnits>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1913823791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1913833391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="900">
+          <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+          <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371418</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>105058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>124557</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>30210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CEFB10C-23D3-FA0C-6726-068EA0089539}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>261791</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>27931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>455797</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>140244</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A76D862A-44DF-E218-875F-63DC14829EEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Blue Warm">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -637,34 +3732,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="242852"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="ACCBF9"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4A66AC"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="629DD1"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="297FD5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="7F8FA9"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5AA2AE"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="9D90A0"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="9454C3"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="3EBBF0"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -945,8 +4040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18888307-CB72-48A9-9B78-DC67A15818BB}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView topLeftCell="XEC1" workbookViewId="0">
+      <selection activeCell="XFD1" sqref="XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -988,10 +4083,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E21C1FC-9E54-466F-B6F6-AD709AB2E499}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="169" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F5"/>
+    <sheetView zoomScale="169" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1022,19 +4117,19 @@
         <v>SE</v>
       </c>
       <c r="B2">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="C2">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="D2">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="E2">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="F2">
-        <v>30000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1043,19 +4138,19 @@
         <v>S</v>
       </c>
       <c r="B3">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="C3">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="D3">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="E3">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="F3">
-        <v>10000</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1067,7 +4162,7 @@
         <v>12000</v>
       </c>
       <c r="C4">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="D4">
         <v>12000</v>
@@ -1085,19 +4180,19 @@
         <v>N</v>
       </c>
       <c r="B5">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="C5">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="D5">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="E5">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="F5">
-        <v>8000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1121,17 +4216,40 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <f>SUM(B2:B6)</f>
+        <v>70000</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:F7" si="0">SUM(C2:C6)</f>
+        <v>62000</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>57000</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>72000</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>58000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3799D59E-8C33-46AB-A85A-A5859B4AF551}">
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView zoomScale="163" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView zoomScale="124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1139,7 +4257,7 @@
     <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>168</v>
       </c>
@@ -1153,47 +4271,87 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B33" ca="1" si="0">RANDBETWEEN(2,12)*50</f>
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>S</v>
       </c>
       <c r="D2" s="3">
         <f ca="1">200*EXP(SUM($B$2:B2)*COUNT($B$2:B2)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>73.591278264715925</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>73.618917165213688</v>
+      </c>
+      <c r="G2" cm="1">
+        <f t="array" aca="1" ref="G2:I111" ca="1">_xlfn.SORTBY(B2:D111,D2:D111)</f>
+        <v>600</v>
+      </c>
+      <c r="H2" t="str">
+        <f ca="1"/>
+        <v>S</v>
+      </c>
+      <c r="I2">
+        <f ca="1"/>
+        <v>73.618917165213688</v>
+      </c>
+      <c r="J2">
+        <f ca="1">SUM($G$2:G2)</f>
+        <v>600</v>
+      </c>
+      <c r="K2">
+        <f ca="1">I2</f>
+        <v>73.618917165213688</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="C3" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>SE</v>
       </c>
       <c r="D3" s="3">
         <f ca="1">200*EXP(SUM($B$2:B3)*COUNT($B$2:B3)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>73.637467673691035</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>73.705050534810169</v>
+      </c>
+      <c r="G3">
+        <f ca="1"/>
+        <v>300</v>
+      </c>
+      <c r="H3" t="str">
+        <f ca="1"/>
+        <v>SE</v>
+      </c>
+      <c r="I3">
+        <f ca="1"/>
+        <v>73.705050534810169</v>
+      </c>
+      <c r="J3">
+        <f ca="1">SUM($G$2:G3)</f>
+        <v>900</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K66" ca="1" si="1">I3</f>
+        <v>73.705050534810169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="C4" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -1201,16 +4359,36 @@
       </c>
       <c r="D4" s="3">
         <f ca="1">200*EXP(SUM($B$2:B4)*COUNT($B$2:B4)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>73.795500337047429</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>73.802071039272448</v>
+      </c>
+      <c r="G4">
+        <f ca="1"/>
+        <v>150</v>
+      </c>
+      <c r="H4" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="I4">
+        <f ca="1"/>
+        <v>73.802071039272448</v>
+      </c>
+      <c r="J4">
+        <f ca="1">SUM($G$2:G4)</f>
+        <v>1050</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ca="1" si="1"/>
+        <v>73.802071039272448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="C5" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -1218,33 +4396,73 @@
       </c>
       <c r="D5" s="3">
         <f ca="1">200*EXP(SUM($B$2:B5)*COUNT($B$2:B5)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>73.992550955333215</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>73.978471603225671</v>
+      </c>
+      <c r="G5">
+        <f ca="1"/>
+        <v>350</v>
+      </c>
+      <c r="H5" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="I5">
+        <f ca="1"/>
+        <v>73.978471603225671</v>
+      </c>
+      <c r="J5">
+        <f ca="1">SUM($G$2:G5)</f>
+        <v>1400</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ca="1" si="1"/>
+        <v>73.978471603225671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="C6" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>N</v>
       </c>
       <c r="D6" s="3">
         <f ca="1">200*EXP(SUM($B$2:B6)*COUNT($B$2:B6)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>74.291056114050349</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>74.242054721760255</v>
+      </c>
+      <c r="G6">
+        <f ca="1"/>
+        <v>450</v>
+      </c>
+      <c r="H6" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="I6">
+        <f ca="1"/>
+        <v>74.242054721760255</v>
+      </c>
+      <c r="J6">
+        <f ca="1">SUM($G$2:G6)</f>
+        <v>1850</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ca="1" si="1"/>
+        <v>74.242054721760255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="C7" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -1252,203 +4470,443 @@
       </c>
       <c r="D7" s="3">
         <f ca="1">200*EXP(SUM($B$2:B7)*COUNT($B$2:B7)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>74.505011095915478</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>74.528360404722164</v>
+      </c>
+      <c r="G7">
+        <f ca="1"/>
+        <v>350</v>
+      </c>
+      <c r="H7" t="str">
+        <f ca="1"/>
+        <v>S</v>
+      </c>
+      <c r="I7">
+        <f ca="1"/>
+        <v>74.528360404722164</v>
+      </c>
+      <c r="J7">
+        <f ca="1">SUM($G$2:G7)</f>
+        <v>2200</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ca="1" si="1"/>
+        <v>74.528360404722164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="C8" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>SE</v>
       </c>
       <c r="D8" s="3">
         <f ca="1">200*EXP(SUM($B$2:B8)*COUNT($B$2:B8)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>74.989645671084929</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>74.76475612858232</v>
+      </c>
+      <c r="G8">
+        <f ca="1"/>
+        <v>150</v>
+      </c>
+      <c r="H8" t="str">
+        <f ca="1"/>
+        <v>SE</v>
+      </c>
+      <c r="I8">
+        <f ca="1"/>
+        <v>74.76475612858232</v>
+      </c>
+      <c r="J8">
+        <f ca="1">SUM($G$2:G8)</f>
+        <v>2350</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ca="1" si="1"/>
+        <v>74.76475612858232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="C9" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>SE</v>
       </c>
       <c r="D9" s="3">
         <f ca="1">200*EXP(SUM($B$2:B9)*COUNT($B$2:B9)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>75.414314547877837</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>75.023829916751396</v>
+      </c>
+      <c r="G9">
+        <f ca="1"/>
+        <v>150</v>
+      </c>
+      <c r="H9" t="str">
+        <f ca="1"/>
+        <v>SE</v>
+      </c>
+      <c r="I9">
+        <f ca="1"/>
+        <v>75.023829916751396</v>
+      </c>
+      <c r="J9">
+        <f ca="1">SUM($G$2:G9)</f>
+        <v>2500</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ca="1" si="1"/>
+        <v>75.023829916751396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="C10" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>S</v>
       </c>
       <c r="D10" s="3">
         <f ca="1">200*EXP(SUM($B$2:B10)*COUNT($B$2:B10)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>75.754196116785749</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>75.272798525420569</v>
+      </c>
+      <c r="G10">
+        <f ca="1"/>
+        <v>100</v>
+      </c>
+      <c r="H10" t="str">
+        <f ca="1"/>
+        <v>S</v>
+      </c>
+      <c r="I10">
+        <f ca="1"/>
+        <v>75.272798525420569</v>
+      </c>
+      <c r="J10">
+        <f ca="1">SUM($G$2:G10)</f>
+        <v>2600</v>
+      </c>
+      <c r="K10">
+        <f t="shared" ca="1" si="1"/>
+        <v>75.272798525420569</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="C11" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>S</v>
       </c>
       <c r="D11" s="3">
         <f ca="1">200*EXP(SUM($B$2:B11)*COUNT($B$2:B11)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>76.079695726141082</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>75.684666836452038</v>
+      </c>
+      <c r="G11">
+        <f ca="1"/>
+        <v>300</v>
+      </c>
+      <c r="H11" t="str">
+        <f ca="1"/>
+        <v>S</v>
+      </c>
+      <c r="I11">
+        <f ca="1"/>
+        <v>75.684666836452038</v>
+      </c>
+      <c r="J11">
+        <f ca="1">SUM($G$2:G11)</f>
+        <v>2900</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ca="1" si="1"/>
+        <v>75.684666836452038</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="C12" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>S</v>
       </c>
       <c r="D12" s="3">
         <f ca="1">200*EXP(SUM($B$2:B12)*COUNT($B$2:B12)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>76.598600355372469</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>76.102496462016759</v>
+      </c>
+      <c r="G12">
+        <f ca="1"/>
+        <v>250</v>
+      </c>
+      <c r="H12" t="str">
+        <f ca="1"/>
+        <v>S</v>
+      </c>
+      <c r="I12">
+        <f ca="1"/>
+        <v>76.102496462016759</v>
+      </c>
+      <c r="J12">
+        <f ca="1">SUM($G$2:G12)</f>
+        <v>3150</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ca="1" si="1"/>
+        <v>76.102496462016759</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="C13" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>NE</v>
       </c>
       <c r="D13" s="3">
         <f ca="1">200*EXP(SUM($B$2:B13)*COUNT($B$2:B13)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>77.072669697640364</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>76.873893399917876</v>
+      </c>
+      <c r="G13">
+        <f ca="1"/>
+        <v>600</v>
+      </c>
+      <c r="H13" t="str">
+        <f ca="1"/>
+        <v>NE</v>
+      </c>
+      <c r="I13">
+        <f ca="1"/>
+        <v>76.873893399917876</v>
+      </c>
+      <c r="J13">
+        <f ca="1">SUM($G$2:G13)</f>
+        <v>3750</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ca="1" si="1"/>
+        <v>76.873893399917876</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="C14" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>S</v>
       </c>
       <c r="D14" s="3">
         <f ca="1">200*EXP(SUM($B$2:B14)*COUNT($B$2:B14)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>77.740487015678596</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>77.253108888815831</v>
+      </c>
+      <c r="G14">
+        <f ca="1"/>
+        <v>100</v>
+      </c>
+      <c r="H14" t="str">
+        <f ca="1"/>
+        <v>S</v>
+      </c>
+      <c r="I14">
+        <f ca="1"/>
+        <v>77.253108888815831</v>
+      </c>
+      <c r="J14">
+        <f ca="1">SUM($G$2:G14)</f>
+        <v>3850</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ca="1" si="1"/>
+        <v>77.253108888815831</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C15" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>SE</v>
       </c>
       <c r="D15" s="3">
         <f ca="1">200*EXP(SUM($B$2:B15)*COUNT($B$2:B15)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>78.299372488579692</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>77.96776266300509</v>
+      </c>
+      <c r="G15">
+        <f ca="1"/>
+        <v>400</v>
+      </c>
+      <c r="H15" t="str">
+        <f ca="1"/>
+        <v>SE</v>
+      </c>
+      <c r="I15">
+        <f ca="1"/>
+        <v>77.96776266300509</v>
+      </c>
+      <c r="J15">
+        <f ca="1">SUM($G$2:G15)</f>
+        <v>4250</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ca="1" si="1"/>
+        <v>77.96776266300509</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C16" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>S</v>
       </c>
       <c r="D16" s="3">
         <f ca="1">200*EXP(SUM($B$2:B16)*COUNT($B$2:B16)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>79.14317413648719</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>78.520520438382377</v>
+      </c>
+      <c r="G16">
+        <f ca="1"/>
+        <v>200</v>
+      </c>
+      <c r="H16" t="str">
+        <f ca="1"/>
+        <v>S</v>
+      </c>
+      <c r="I16">
+        <f ca="1"/>
+        <v>78.520520438382377</v>
+      </c>
+      <c r="J16">
+        <f ca="1">SUM($G$2:G16)</f>
+        <v>4450</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ca="1" si="1"/>
+        <v>78.520520438382377</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C17" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>SE</v>
       </c>
       <c r="D17" s="3">
         <f ca="1">200*EXP(SUM($B$2:B17)*COUNT($B$2:B17)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>79.795546397676205</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>78.984785647666115</v>
+      </c>
+      <c r="G17">
+        <f ca="1"/>
+        <v>100</v>
+      </c>
+      <c r="H17" t="str">
+        <f ca="1"/>
+        <v>SE</v>
+      </c>
+      <c r="I17">
+        <f ca="1"/>
+        <v>78.984785647666115</v>
+      </c>
+      <c r="J17">
+        <f ca="1">SUM($G$2:G17)</f>
+        <v>4550</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ca="1" si="1"/>
+        <v>78.984785647666115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="C18" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>SE</v>
       </c>
       <c r="D18" s="3">
         <f ca="1">200*EXP(SUM($B$2:B18)*COUNT($B$2:B18)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>80.415444655112623</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>79.664985125504572</v>
+      </c>
+      <c r="G18">
+        <f ca="1"/>
+        <v>250</v>
+      </c>
+      <c r="H18" t="str">
+        <f ca="1"/>
+        <v>SE</v>
+      </c>
+      <c r="I18">
+        <f ca="1"/>
+        <v>79.664985125504572</v>
+      </c>
+      <c r="J18">
+        <f ca="1">SUM($G$2:G18)</f>
+        <v>4800</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ca="1" si="1"/>
+        <v>79.664985125504572</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="C19" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -1456,16 +4914,36 @@
       </c>
       <c r="D19" s="3">
         <f ca="1">200*EXP(SUM($B$2:B19)*COUNT($B$2:B19)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>81.447971132119378</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>80.885221420497757</v>
+      </c>
+      <c r="G19">
+        <f ca="1"/>
+        <v>600</v>
+      </c>
+      <c r="H19" t="str">
+        <f ca="1"/>
+        <v>NE</v>
+      </c>
+      <c r="I19">
+        <f ca="1"/>
+        <v>80.885221420497757</v>
+      </c>
+      <c r="J19">
+        <f ca="1">SUM($G$2:G19)</f>
+        <v>5400</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ca="1" si="1"/>
+        <v>80.885221420497757</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="C20" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -1473,27 +4951,67 @@
       </c>
       <c r="D20" s="3">
         <f ca="1">200*EXP(SUM($B$2:B20)*COUNT($B$2:B20)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>82.153699451308142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>81.840555443957015</v>
+      </c>
+      <c r="G20">
+        <f ca="1"/>
+        <v>350</v>
+      </c>
+      <c r="H20" t="str">
+        <f ca="1"/>
+        <v>SE</v>
+      </c>
+      <c r="I20">
+        <f ca="1"/>
+        <v>81.840555443957015</v>
+      </c>
+      <c r="J20">
+        <f ca="1">SUM($G$2:G20)</f>
+        <v>5750</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ca="1" si="1"/>
+        <v>81.840555443957015</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="C21" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>NE</v>
       </c>
       <c r="D21" s="3">
         <f ca="1">200*EXP(SUM($B$2:B21)*COUNT($B$2:B21)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>83.675382431691091</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>82.460935714391908</v>
+      </c>
+      <c r="G21">
+        <f ca="1"/>
+        <v>100</v>
+      </c>
+      <c r="H21" t="str">
+        <f ca="1"/>
+        <v>NE</v>
+      </c>
+      <c r="I21">
+        <f ca="1"/>
+        <v>82.460935714391908</v>
+      </c>
+      <c r="J21">
+        <f ca="1">SUM($G$2:G21)</f>
+        <v>5850</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ca="1" si="1"/>
+        <v>82.460935714391908</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1503,88 +5021,188 @@
       </c>
       <c r="C22" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>N</v>
       </c>
       <c r="D22" s="3">
         <f ca="1">200*EXP(SUM($B$2:B22)*COUNT($B$2:B22)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>84.678894077040511</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>83.35768051171749</v>
+      </c>
+      <c r="G22">
+        <f ca="1"/>
+        <v>250</v>
+      </c>
+      <c r="H22" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="I22">
+        <f ca="1"/>
+        <v>83.35768051171749</v>
+      </c>
+      <c r="J22">
+        <f ca="1">SUM($G$2:G22)</f>
+        <v>6100</v>
+      </c>
+      <c r="K22">
+        <f t="shared" ca="1" si="1"/>
+        <v>83.35768051171749</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="C23" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>NE</v>
       </c>
       <c r="D23" s="3">
         <f ca="1">200*EXP(SUM($B$2:B23)*COUNT($B$2:B23)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>86.035655656938843</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>84.940166611396023</v>
+      </c>
+      <c r="G23">
+        <f ca="1"/>
+        <v>600</v>
+      </c>
+      <c r="H23" t="str">
+        <f ca="1"/>
+        <v>NE</v>
+      </c>
+      <c r="I23">
+        <f ca="1"/>
+        <v>84.940166611396023</v>
+      </c>
+      <c r="J23">
+        <f ca="1">SUM($G$2:G23)</f>
+        <v>6700</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ca="1" si="1"/>
+        <v>84.940166611396023</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>28</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="C24" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>SE</v>
       </c>
       <c r="D24" s="3">
         <f ca="1">200*EXP(SUM($B$2:B24)*COUNT($B$2:B24)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>87.697997526341737</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>86.653960836403542</v>
+      </c>
+      <c r="G24">
+        <f ca="1"/>
+        <v>600</v>
+      </c>
+      <c r="H24" t="str">
+        <f ca="1"/>
+        <v>SE</v>
+      </c>
+      <c r="I24">
+        <f ca="1"/>
+        <v>86.653960836403542</v>
+      </c>
+      <c r="J24">
+        <f ca="1">SUM($G$2:G24)</f>
+        <v>7300</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ca="1" si="1"/>
+        <v>86.653960836403542</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>29</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="C25" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>S</v>
       </c>
       <c r="D25" s="3">
         <f ca="1">200*EXP(SUM($B$2:B25)*COUNT($B$2:B25)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>89.598356250239746</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v>87.989821448553471</v>
+      </c>
+      <c r="G25">
+        <f ca="1"/>
+        <v>350</v>
+      </c>
+      <c r="H25" t="str">
+        <f ca="1"/>
+        <v>S</v>
+      </c>
+      <c r="I25">
+        <f ca="1"/>
+        <v>87.989821448553471</v>
+      </c>
+      <c r="J25">
+        <f ca="1">SUM($G$2:G25)</f>
+        <v>7650</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ca="1" si="1"/>
+        <v>87.989821448553471</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>30</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="C26" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>NE</v>
       </c>
       <c r="D26" s="3">
         <f ca="1">200*EXP(SUM($B$2:B26)*COUNT($B$2:B26)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>90.929280991377937</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>89.953402655966258</v>
+      </c>
+      <c r="G26">
+        <f ca="1"/>
+        <v>600</v>
+      </c>
+      <c r="H26" t="str">
+        <f ca="1"/>
+        <v>NE</v>
+      </c>
+      <c r="I26">
+        <f ca="1"/>
+        <v>89.953402655966258</v>
+      </c>
+      <c r="J26">
+        <f ca="1">SUM($G$2:G26)</f>
+        <v>8250</v>
+      </c>
+      <c r="K26">
+        <f t="shared" ca="1" si="1"/>
+        <v>89.953402655966258</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>31</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="C27" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -1592,16 +5210,36 @@
       </c>
       <c r="D27" s="3">
         <f ca="1">200*EXP(SUM($B$2:B27)*COUNT($B$2:B27)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>92.831679437207001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+        <v>92.068396335436248</v>
+      </c>
+      <c r="G27">
+        <f ca="1"/>
+        <v>600</v>
+      </c>
+      <c r="H27" t="str">
+        <f ca="1"/>
+        <v>S</v>
+      </c>
+      <c r="I27">
+        <f ca="1"/>
+        <v>92.068396335436248</v>
+      </c>
+      <c r="J27">
+        <f ca="1">SUM($G$2:G27)</f>
+        <v>8850</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ca="1" si="1"/>
+        <v>92.068396335436248</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>32</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="C28" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -1609,27 +5247,67 @@
       </c>
       <c r="D28" s="3">
         <f ca="1">200*EXP(SUM($B$2:B28)*COUNT($B$2:B28)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>93.930266447782174</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>94.095484418344569</v>
+      </c>
+      <c r="G28">
+        <f ca="1"/>
+        <v>500</v>
+      </c>
+      <c r="H28" t="str">
+        <f ca="1"/>
+        <v>S</v>
+      </c>
+      <c r="I28">
+        <f ca="1"/>
+        <v>94.095484418344569</v>
+      </c>
+      <c r="J28">
+        <f ca="1">SUM($G$2:G28)</f>
+        <v>9350</v>
+      </c>
+      <c r="K28">
+        <f t="shared" ca="1" si="1"/>
+        <v>94.095484418344569</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>33</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="C29" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>SE</v>
       </c>
       <c r="D29" s="3">
         <f ca="1">200*EXP(SUM($B$2:B29)*COUNT($B$2:B29)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>95.760164426096424</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+        <v>95.606599383851616</v>
+      </c>
+      <c r="G29">
+        <f ca="1"/>
+        <v>250</v>
+      </c>
+      <c r="H29" t="str">
+        <f ca="1"/>
+        <v>SE</v>
+      </c>
+      <c r="I29">
+        <f ca="1"/>
+        <v>95.606599383851616</v>
+      </c>
+      <c r="J29">
+        <f ca="1">SUM($G$2:G29)</f>
+        <v>9600</v>
+      </c>
+      <c r="K29">
+        <f t="shared" ca="1" si="1"/>
+        <v>95.606599383851616</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1643,27 +5321,67 @@
       </c>
       <c r="D30" s="3">
         <f ca="1">200*EXP(SUM($B$2:B30)*COUNT($B$2:B30)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>98.291571571588022</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>98.016743548135778</v>
+      </c>
+      <c r="G30">
+        <f ca="1"/>
+        <v>550</v>
+      </c>
+      <c r="H30" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="I30">
+        <f ca="1"/>
+        <v>98.016743548135778</v>
+      </c>
+      <c r="J30">
+        <f ca="1">SUM($G$2:G30)</f>
+        <v>10150</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ca="1" si="1"/>
+        <v>98.016743548135778</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>35</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="C31" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>NE</v>
       </c>
       <c r="D31" s="3">
         <f ca="1">200*EXP(SUM($B$2:B31)*COUNT($B$2:B31)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>101.00601925464282</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+        <v>100.30177418553338</v>
+      </c>
+      <c r="G31">
+        <f ca="1"/>
+        <v>450</v>
+      </c>
+      <c r="H31" t="str">
+        <f ca="1"/>
+        <v>NE</v>
+      </c>
+      <c r="I31">
+        <f ca="1"/>
+        <v>100.30177418553338</v>
+      </c>
+      <c r="J31">
+        <f ca="1">SUM($G$2:G31)</f>
+        <v>10600</v>
+      </c>
+      <c r="K31">
+        <f t="shared" ca="1" si="1"/>
+        <v>100.30177418553338</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1677,10 +5395,30 @@
       </c>
       <c r="D32" s="3">
         <f ca="1">200*EXP(SUM($B$2:B32)*COUNT($B$2:B32)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>103.07611473663745</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+        <v>102.2657042781624</v>
+      </c>
+      <c r="G32">
+        <f ca="1"/>
+        <v>300</v>
+      </c>
+      <c r="H32" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="I32">
+        <f ca="1"/>
+        <v>102.2657042781624</v>
+      </c>
+      <c r="J32">
+        <f ca="1">SUM($G$2:G32)</f>
+        <v>10900</v>
+      </c>
+      <c r="K32">
+        <f t="shared" ca="1" si="1"/>
+        <v>102.2657042781624</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1690,54 +5428,114 @@
       </c>
       <c r="C33" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>SE</v>
       </c>
       <c r="D33" s="3">
         <f ca="1">200*EXP(SUM($B$2:B33)*COUNT($B$2:B33)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>106.31665387587732</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>105.30958656127986</v>
+      </c>
+      <c r="G33">
+        <f ca="1"/>
+        <v>600</v>
+      </c>
+      <c r="H33" t="str">
+        <f ca="1"/>
+        <v>SE</v>
+      </c>
+      <c r="I33">
+        <f ca="1"/>
+        <v>105.30958656127986</v>
+      </c>
+      <c r="J33">
+        <f ca="1">SUM($G$2:G33)</f>
+        <v>11500</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ca="1" si="1"/>
+        <v>105.30958656127986</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>38</v>
       </c>
       <c r="B34">
-        <f t="shared" ref="B34:B65" ca="1" si="1">RANDBETWEEN(2,12)*50</f>
-        <v>150</v>
+        <f t="shared" ref="B34:B65" ca="1" si="2">RANDBETWEEN(2,12)*50</f>
+        <v>600</v>
       </c>
       <c r="C34" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>NE</v>
       </c>
       <c r="D34" s="3">
         <f ca="1">200*EXP(SUM($B$2:B34)*COUNT($B$2:B34)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>108.10485981266334</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+        <v>108.57094675698391</v>
+      </c>
+      <c r="G34">
+        <f ca="1"/>
+        <v>600</v>
+      </c>
+      <c r="H34" t="str">
+        <f ca="1"/>
+        <v>NE</v>
+      </c>
+      <c r="I34">
+        <f ca="1"/>
+        <v>108.57094675698391</v>
+      </c>
+      <c r="J34">
+        <f ca="1">SUM($G$2:G34)</f>
+        <v>12100</v>
+      </c>
+      <c r="K34">
+        <f t="shared" ca="1" si="1"/>
+        <v>108.57094675698391</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>39</v>
       </c>
       <c r="B35">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>350</v>
       </c>
       <c r="C35" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>S</v>
       </c>
       <c r="D35" s="3">
         <f ca="1">200*EXP(SUM($B$2:B35)*COUNT($B$2:B35)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>110.74234151597712</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+        <v>111.13992143442138</v>
+      </c>
+      <c r="G35">
+        <f ca="1"/>
+        <v>350</v>
+      </c>
+      <c r="H35" t="str">
+        <f ca="1"/>
+        <v>S</v>
+      </c>
+      <c r="I35">
+        <f ca="1"/>
+        <v>111.13992143442138</v>
+      </c>
+      <c r="J35">
+        <f ca="1">SUM($G$2:G35)</f>
+        <v>12450</v>
+      </c>
+      <c r="K35">
+        <f t="shared" ca="1" si="1"/>
+        <v>111.13992143442138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>40</v>
       </c>
       <c r="B36">
-        <f t="shared" ca="1" si="1"/>
-        <v>500</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>600</v>
       </c>
       <c r="C36" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -1745,84 +5543,184 @@
       </c>
       <c r="D36" s="3">
         <f ca="1">200*EXP(SUM($B$2:B36)*COUNT($B$2:B36)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>114.1522464766107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>114.82214408629889</v>
+      </c>
+      <c r="G36">
+        <f ca="1"/>
+        <v>600</v>
+      </c>
+      <c r="H36" t="str">
+        <f ca="1"/>
+        <v>SE</v>
+      </c>
+      <c r="I36">
+        <f ca="1"/>
+        <v>114.82214408629889</v>
+      </c>
+      <c r="J36">
+        <f ca="1">SUM($G$2:G36)</f>
+        <v>13050</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ca="1" si="1"/>
+        <v>114.82214408629889</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>41</v>
       </c>
       <c r="B37">
-        <f t="shared" ca="1" si="1"/>
-        <v>350</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>600</v>
       </c>
       <c r="C37" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>SE</v>
       </c>
       <c r="D37" s="3">
         <f ca="1">200*EXP(SUM($B$2:B37)*COUNT($B$2:B37)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>117.12696800466566</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>118.76515559368355</v>
+      </c>
+      <c r="G37">
+        <f ca="1"/>
+        <v>600</v>
+      </c>
+      <c r="H37" t="str">
+        <f ca="1"/>
+        <v>SE</v>
+      </c>
+      <c r="I37">
+        <f ca="1"/>
+        <v>118.76515559368355</v>
+      </c>
+      <c r="J37">
+        <f ca="1">SUM($G$2:G37)</f>
+        <v>13650</v>
+      </c>
+      <c r="K37">
+        <f t="shared" ca="1" si="1"/>
+        <v>118.76515559368355</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>42</v>
       </c>
       <c r="B38">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>400</v>
       </c>
       <c r="C38" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>NE</v>
       </c>
       <c r="D38" s="3">
         <f ca="1">200*EXP(SUM($B$2:B38)*COUNT($B$2:B38)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>120.50011410760861</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+        <v>122.10365934263152</v>
+      </c>
+      <c r="G38">
+        <f ca="1"/>
+        <v>400</v>
+      </c>
+      <c r="H38" t="str">
+        <f ca="1"/>
+        <v>NE</v>
+      </c>
+      <c r="I38">
+        <f ca="1"/>
+        <v>122.10365934263152</v>
+      </c>
+      <c r="J38">
+        <f ca="1">SUM($G$2:G38)</f>
+        <v>14050</v>
+      </c>
+      <c r="K38">
+        <f t="shared" ca="1" si="1"/>
+        <v>122.10365934263152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>43</v>
       </c>
       <c r="B39">
-        <f t="shared" ca="1" si="1"/>
-        <v>300</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>350</v>
       </c>
       <c r="C39" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>S</v>
       </c>
       <c r="D39" s="3">
         <f ca="1">200*EXP(SUM($B$2:B39)*COUNT($B$2:B39)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>123.58208632103869</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+        <v>125.40152347181473</v>
+      </c>
+      <c r="G39">
+        <f ca="1"/>
+        <v>350</v>
+      </c>
+      <c r="H39" t="str">
+        <f ca="1"/>
+        <v>S</v>
+      </c>
+      <c r="I39">
+        <f ca="1"/>
+        <v>125.40152347181473</v>
+      </c>
+      <c r="J39">
+        <f ca="1">SUM($G$2:G39)</f>
+        <v>14400</v>
+      </c>
+      <c r="K39">
+        <f t="shared" ca="1" si="1"/>
+        <v>125.40152347181473</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>44</v>
       </c>
       <c r="B40">
-        <f t="shared" ca="1" si="1"/>
-        <v>600</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>250</v>
       </c>
       <c r="C40" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>N</v>
       </c>
       <c r="D40" s="3">
         <f ca="1">200*EXP(SUM($B$2:B40)*COUNT($B$2:B40)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>128.38367595939351</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+        <v>128.38750259872404</v>
+      </c>
+      <c r="G40">
+        <f ca="1"/>
+        <v>250</v>
+      </c>
+      <c r="H40" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="I40">
+        <f ca="1"/>
+        <v>128.38750259872404</v>
+      </c>
+      <c r="J40">
+        <f ca="1">SUM($G$2:G40)</f>
+        <v>14650</v>
+      </c>
+      <c r="K40">
+        <f t="shared" ca="1" si="1"/>
+        <v>128.38750259872404</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>45</v>
       </c>
       <c r="B41">
-        <f t="shared" ca="1" si="1"/>
-        <v>250</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>600</v>
       </c>
       <c r="C41" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -1830,32 +5728,72 @@
       </c>
       <c r="D41" s="3">
         <f ca="1">200*EXP(SUM($B$2:B41)*COUNT($B$2:B41)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>131.59845451888242</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+        <v>133.31495924532334</v>
+      </c>
+      <c r="G41">
+        <f ca="1"/>
+        <v>600</v>
+      </c>
+      <c r="H41" t="str">
+        <f ca="1"/>
+        <v>NE</v>
+      </c>
+      <c r="I41">
+        <f ca="1"/>
+        <v>133.31495924532334</v>
+      </c>
+      <c r="J41">
+        <f ca="1">SUM($G$2:G41)</f>
+        <v>15250</v>
+      </c>
+      <c r="K41">
+        <f t="shared" ca="1" si="1"/>
+        <v>133.31495924532334</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>46</v>
       </c>
       <c r="B42">
-        <f t="shared" ca="1" si="1"/>
-        <v>500</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>450</v>
       </c>
       <c r="C42" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>SE</v>
       </c>
       <c r="D42" s="3">
         <f ca="1">200*EXP(SUM($B$2:B42)*COUNT($B$2:B42)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>136.41874071652273</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+        <v>137.76542854531505</v>
+      </c>
+      <c r="G42">
+        <f ca="1"/>
+        <v>450</v>
+      </c>
+      <c r="H42" t="str">
+        <f ca="1"/>
+        <v>SE</v>
+      </c>
+      <c r="I42">
+        <f ca="1"/>
+        <v>137.76542854531505</v>
+      </c>
+      <c r="J42">
+        <f ca="1">SUM($G$2:G42)</f>
+        <v>15700</v>
+      </c>
+      <c r="K42">
+        <f t="shared" ca="1" si="1"/>
+        <v>137.76542854531505</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>47</v>
       </c>
       <c r="B43">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>450</v>
       </c>
       <c r="C43" t="str">
@@ -1864,16 +5802,36 @@
       </c>
       <c r="D43" s="3">
         <f ca="1">200*EXP(SUM($B$2:B43)*COUNT($B$2:B43)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>141.25300733479153</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+        <v>142.48937384925861</v>
+      </c>
+      <c r="G43">
+        <f ca="1"/>
+        <v>450</v>
+      </c>
+      <c r="H43" t="str">
+        <f ca="1"/>
+        <v>SE</v>
+      </c>
+      <c r="I43">
+        <f ca="1"/>
+        <v>142.48937384925861</v>
+      </c>
+      <c r="J43">
+        <f ca="1">SUM($G$2:G43)</f>
+        <v>16150</v>
+      </c>
+      <c r="K43">
+        <f t="shared" ca="1" si="1"/>
+        <v>142.48937384925861</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>48</v>
       </c>
       <c r="B44">
-        <f t="shared" ca="1" si="1"/>
-        <v>350</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>300</v>
       </c>
       <c r="C44" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -1881,84 +5839,184 @@
       </c>
       <c r="D44" s="3">
         <f ca="1">200*EXP(SUM($B$2:B44)*COUNT($B$2:B44)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>145.73947858398449</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+        <v>146.58044204261941</v>
+      </c>
+      <c r="G44">
+        <f ca="1"/>
+        <v>300</v>
+      </c>
+      <c r="H44" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="I44">
+        <f ca="1"/>
+        <v>146.58044204261941</v>
+      </c>
+      <c r="J44">
+        <f ca="1">SUM($G$2:G44)</f>
+        <v>16450</v>
+      </c>
+      <c r="K44">
+        <f t="shared" ca="1" si="1"/>
+        <v>146.58044204261941</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>49</v>
       </c>
       <c r="B45">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>300</v>
       </c>
       <c r="C45" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>N</v>
       </c>
       <c r="D45" s="3">
         <f ca="1">200*EXP(SUM($B$2:B45)*COUNT($B$2:B45)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>150.13276174225331</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+        <v>150.87715547592529</v>
+      </c>
+      <c r="G45">
+        <f ca="1"/>
+        <v>300</v>
+      </c>
+      <c r="H45" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="I45">
+        <f ca="1"/>
+        <v>150.87715547592529</v>
+      </c>
+      <c r="J45">
+        <f ca="1">SUM($G$2:G45)</f>
+        <v>16750</v>
+      </c>
+      <c r="K45">
+        <f t="shared" ca="1" si="1"/>
+        <v>150.87715547592529</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>50</v>
       </c>
       <c r="B46">
-        <f t="shared" ca="1" si="1"/>
-        <v>250</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>200</v>
       </c>
       <c r="C46" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>N</v>
       </c>
       <c r="D46" s="3">
         <f ca="1">200*EXP(SUM($B$2:B46)*COUNT($B$2:B46)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>154.39184782506121</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+        <v>154.71076134463357</v>
+      </c>
+      <c r="G46">
+        <f ca="1"/>
+        <v>200</v>
+      </c>
+      <c r="H46" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="I46">
+        <f ca="1"/>
+        <v>154.71076134463357</v>
+      </c>
+      <c r="J46">
+        <f ca="1">SUM($G$2:G46)</f>
+        <v>16950</v>
+      </c>
+      <c r="K46">
+        <f t="shared" ca="1" si="1"/>
+        <v>154.71076134463357</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>51</v>
       </c>
       <c r="B47">
-        <f t="shared" ca="1" si="1"/>
-        <v>300</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>350</v>
       </c>
       <c r="C47" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>SE</v>
       </c>
       <c r="D47" s="3">
         <f ca="1">200*EXP(SUM($B$2:B47)*COUNT($B$2:B47)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>159.2373406805215</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+        <v>159.7742603700751</v>
+      </c>
+      <c r="G47">
+        <f ca="1"/>
+        <v>350</v>
+      </c>
+      <c r="H47" t="str">
+        <f ca="1"/>
+        <v>SE</v>
+      </c>
+      <c r="I47">
+        <f ca="1"/>
+        <v>159.7742603700751</v>
+      </c>
+      <c r="J47">
+        <f ca="1">SUM($G$2:G47)</f>
+        <v>17300</v>
+      </c>
+      <c r="K47">
+        <f t="shared" ca="1" si="1"/>
+        <v>159.7742603700751</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>52</v>
       </c>
       <c r="B48">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>350</v>
       </c>
       <c r="C48" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>S</v>
       </c>
       <c r="D48" s="3">
         <f ca="1">200*EXP(SUM($B$2:B48)*COUNT($B$2:B48)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>164.74234797556869</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+        <v>165.11606813399845</v>
+      </c>
+      <c r="G48">
+        <f ca="1"/>
+        <v>350</v>
+      </c>
+      <c r="H48" t="str">
+        <f ca="1"/>
+        <v>S</v>
+      </c>
+      <c r="I48">
+        <f ca="1"/>
+        <v>165.11606813399845</v>
+      </c>
+      <c r="J48">
+        <f ca="1">SUM($G$2:G48)</f>
+        <v>17650</v>
+      </c>
+      <c r="K48">
+        <f t="shared" ca="1" si="1"/>
+        <v>165.11606813399845</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>53</v>
       </c>
       <c r="B49">
-        <f t="shared" ca="1" si="1"/>
-        <v>600</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>400</v>
       </c>
       <c r="C49" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -1966,101 +6024,221 @@
       </c>
       <c r="D49" s="3">
         <f ca="1">200*EXP(SUM($B$2:B49)*COUNT($B$2:B49)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>172.71635800831285</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+        <v>171.15269303631032</v>
+      </c>
+      <c r="G49">
+        <f ca="1"/>
+        <v>400</v>
+      </c>
+      <c r="H49" t="str">
+        <f ca="1"/>
+        <v>NE</v>
+      </c>
+      <c r="I49">
+        <f ca="1"/>
+        <v>171.15269303631032</v>
+      </c>
+      <c r="J49">
+        <f ca="1">SUM($G$2:G49)</f>
+        <v>18050</v>
+      </c>
+      <c r="K49">
+        <f t="shared" ca="1" si="1"/>
+        <v>171.15269303631032</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>54</v>
       </c>
       <c r="B50">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>250</v>
       </c>
       <c r="C50" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>N</v>
       </c>
       <c r="D50" s="3">
         <f ca="1">200*EXP(SUM($B$2:B50)*COUNT($B$2:B50)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>176.71754388365957</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+        <v>176.28130965521549</v>
+      </c>
+      <c r="G50">
+        <f ca="1"/>
+        <v>250</v>
+      </c>
+      <c r="H50" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="I50">
+        <f ca="1"/>
+        <v>176.28130965521549</v>
+      </c>
+      <c r="J50">
+        <f ca="1">SUM($G$2:G50)</f>
+        <v>18300</v>
+      </c>
+      <c r="K50">
+        <f t="shared" ca="1" si="1"/>
+        <v>176.28130965521549</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>55</v>
       </c>
       <c r="B51">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>550</v>
       </c>
       <c r="C51" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>S</v>
       </c>
       <c r="D51" s="3">
         <f ca="1">200*EXP(SUM($B$2:B51)*COUNT($B$2:B51)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>180.84924285112069</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+        <v>184.32667133780168</v>
+      </c>
+      <c r="G51">
+        <f ca="1"/>
+        <v>550</v>
+      </c>
+      <c r="H51" t="str">
+        <f ca="1"/>
+        <v>S</v>
+      </c>
+      <c r="I51">
+        <f ca="1"/>
+        <v>184.32667133780168</v>
+      </c>
+      <c r="J51">
+        <f ca="1">SUM($G$2:G51)</f>
+        <v>18850</v>
+      </c>
+      <c r="K51">
+        <f t="shared" ca="1" si="1"/>
+        <v>184.32667133780168</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>56</v>
       </c>
       <c r="B52">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>300</v>
       </c>
       <c r="C52" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>N</v>
       </c>
       <c r="D52" s="3">
         <f ca="1">200*EXP(SUM($B$2:B52)*COUNT($B$2:B52)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>187.10139700632354</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+        <v>190.56361260447963</v>
+      </c>
+      <c r="G52">
+        <f ca="1"/>
+        <v>300</v>
+      </c>
+      <c r="H52" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="I52">
+        <f ca="1"/>
+        <v>190.56361260447963</v>
+      </c>
+      <c r="J52">
+        <f ca="1">SUM($G$2:G52)</f>
+        <v>19150</v>
+      </c>
+      <c r="K52">
+        <f t="shared" ca="1" si="1"/>
+        <v>190.56361260447963</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>57</v>
       </c>
       <c r="B53">
-        <f t="shared" ca="1" si="1"/>
-        <v>250</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>300</v>
       </c>
       <c r="C53" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>SE</v>
       </c>
       <c r="D53" s="3">
         <f ca="1">200*EXP(SUM($B$2:B53)*COUNT($B$2:B53)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>193.16526633052121</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+        <v>197.12680624914651</v>
+      </c>
+      <c r="G53">
+        <f ca="1"/>
+        <v>300</v>
+      </c>
+      <c r="H53" t="str">
+        <f ca="1"/>
+        <v>SE</v>
+      </c>
+      <c r="I53">
+        <f ca="1"/>
+        <v>197.12680624914651</v>
+      </c>
+      <c r="J53">
+        <f ca="1">SUM($G$2:G53)</f>
+        <v>19450</v>
+      </c>
+      <c r="K53">
+        <f t="shared" ca="1" si="1"/>
+        <v>197.12680624914651</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>58</v>
       </c>
       <c r="B54">
-        <f t="shared" ca="1" si="1"/>
-        <v>300</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>600</v>
       </c>
       <c r="C54" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>SE</v>
       </c>
       <c r="D54" s="3">
         <f ca="1">200*EXP(SUM($B$2:B54)*COUNT($B$2:B54)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>200.08367763070262</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+        <v>207.22109330412462</v>
+      </c>
+      <c r="G54">
+        <f ca="1"/>
+        <v>600</v>
+      </c>
+      <c r="H54" t="str">
+        <f ca="1"/>
+        <v>SE</v>
+      </c>
+      <c r="I54">
+        <f ca="1"/>
+        <v>207.22109330412462</v>
+      </c>
+      <c r="J54">
+        <f ca="1">SUM($G$2:G54)</f>
+        <v>20050</v>
+      </c>
+      <c r="K54">
+        <f t="shared" ca="1" si="1"/>
+        <v>207.22109330412462</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>59</v>
       </c>
       <c r="B55">
-        <f t="shared" ca="1" si="1"/>
-        <v>500</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>600</v>
       </c>
       <c r="C55" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -2068,33 +6246,73 @@
       </c>
       <c r="D55" s="3">
         <f ca="1">200*EXP(SUM($B$2:B55)*COUNT($B$2:B55)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>209.7354088220367</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+        <v>218.08714077607448</v>
+      </c>
+      <c r="G55">
+        <f ca="1"/>
+        <v>600</v>
+      </c>
+      <c r="H55" t="str">
+        <f ca="1"/>
+        <v>SE</v>
+      </c>
+      <c r="I55">
+        <f ca="1"/>
+        <v>218.08714077607448</v>
+      </c>
+      <c r="J55">
+        <f ca="1">SUM($G$2:G55)</f>
+        <v>20650</v>
+      </c>
+      <c r="K55">
+        <f t="shared" ca="1" si="1"/>
+        <v>218.08714077607448</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>60</v>
       </c>
       <c r="B56">
-        <f t="shared" ca="1" si="1"/>
-        <v>450</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>300</v>
       </c>
       <c r="C56" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>N</v>
       </c>
       <c r="D56" s="3">
         <f ca="1">200*EXP(SUM($B$2:B56)*COUNT($B$2:B56)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>219.45074787154215</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+        <v>226.12647522821243</v>
+      </c>
+      <c r="G56">
+        <f ca="1"/>
+        <v>300</v>
+      </c>
+      <c r="H56" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="I56">
+        <f ca="1"/>
+        <v>226.12647522821243</v>
+      </c>
+      <c r="J56">
+        <f ca="1">SUM($G$2:G56)</f>
+        <v>20950</v>
+      </c>
+      <c r="K56">
+        <f t="shared" ca="1" si="1"/>
+        <v>226.12647522821243</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>61</v>
       </c>
       <c r="B57">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>300</v>
       </c>
       <c r="C57" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -2102,135 +6320,295 @@
       </c>
       <c r="D57" s="3">
         <f ca="1">200*EXP(SUM($B$2:B57)*COUNT($B$2:B57)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>225.16946900222965</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+        <v>234.59928228506911</v>
+      </c>
+      <c r="G57">
+        <f ca="1"/>
+        <v>300</v>
+      </c>
+      <c r="H57" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="I57">
+        <f ca="1"/>
+        <v>234.59928228506911</v>
+      </c>
+      <c r="J57">
+        <f ca="1">SUM($G$2:G57)</f>
+        <v>21250</v>
+      </c>
+      <c r="K57">
+        <f t="shared" ca="1" si="1"/>
+        <v>234.59928228506911</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>62</v>
       </c>
       <c r="B58">
-        <f t="shared" ca="1" si="1"/>
-        <v>500</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>600</v>
       </c>
       <c r="C58" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>NE</v>
       </c>
       <c r="D58" s="3">
         <f ca="1">200*EXP(SUM($B$2:B58)*COUNT($B$2:B58)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>236.66155724728691</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+        <v>247.62377192648466</v>
+      </c>
+      <c r="G58">
+        <f ca="1"/>
+        <v>600</v>
+      </c>
+      <c r="H58" t="str">
+        <f ca="1"/>
+        <v>NE</v>
+      </c>
+      <c r="I58">
+        <f ca="1"/>
+        <v>247.62377192648466</v>
+      </c>
+      <c r="J58">
+        <f ca="1">SUM($G$2:G58)</f>
+        <v>21850</v>
+      </c>
+      <c r="K58">
+        <f t="shared" ca="1" si="1"/>
+        <v>247.62377192648466</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>63</v>
       </c>
       <c r="B59">
-        <f t="shared" ca="1" si="1"/>
-        <v>350</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
       </c>
       <c r="C59" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>NE</v>
       </c>
       <c r="D59" s="3">
         <f ca="1">200*EXP(SUM($B$2:B59)*COUNT($B$2:B59)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>246.74528808742741</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+        <v>254.38612715064991</v>
+      </c>
+      <c r="G59">
+        <f ca="1"/>
+        <v>100</v>
+      </c>
+      <c r="H59" t="str">
+        <f ca="1"/>
+        <v>NE</v>
+      </c>
+      <c r="I59">
+        <f ca="1"/>
+        <v>254.38612715064991</v>
+      </c>
+      <c r="J59">
+        <f ca="1">SUM($G$2:G59)</f>
+        <v>21950</v>
+      </c>
+      <c r="K59">
+        <f t="shared" ca="1" si="1"/>
+        <v>254.38612715064991</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>64</v>
       </c>
       <c r="B60">
-        <f t="shared" ca="1" si="1"/>
-        <v>150</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>350</v>
       </c>
       <c r="C60" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>NE</v>
       </c>
       <c r="D60" s="3">
         <f ca="1">200*EXP(SUM($B$2:B60)*COUNT($B$2:B60)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>254.28971551875469</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+        <v>265.16801701984014</v>
+      </c>
+      <c r="G60">
+        <f ca="1"/>
+        <v>350</v>
+      </c>
+      <c r="H60" t="str">
+        <f ca="1"/>
+        <v>NE</v>
+      </c>
+      <c r="I60">
+        <f ca="1"/>
+        <v>265.16801701984014</v>
+      </c>
+      <c r="J60">
+        <f ca="1">SUM($G$2:G60)</f>
+        <v>22300</v>
+      </c>
+      <c r="K60">
+        <f t="shared" ca="1" si="1"/>
+        <v>265.16801701984014</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>65</v>
       </c>
       <c r="B61">
-        <f t="shared" ca="1" si="1"/>
-        <v>350</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>400</v>
       </c>
       <c r="C61" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>SE</v>
       </c>
       <c r="D61" s="3">
         <f ca="1">200*EXP(SUM($B$2:B61)*COUNT($B$2:B61)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>265.4574652014424</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+        <v>277.40523076786542</v>
+      </c>
+      <c r="G61">
+        <f ca="1"/>
+        <v>400</v>
+      </c>
+      <c r="H61" t="str">
+        <f ca="1"/>
+        <v>SE</v>
+      </c>
+      <c r="I61">
+        <f ca="1"/>
+        <v>277.40523076786542</v>
+      </c>
+      <c r="J61">
+        <f ca="1">SUM($G$2:G61)</f>
+        <v>22700</v>
+      </c>
+      <c r="K61">
+        <f t="shared" ca="1" si="1"/>
+        <v>277.40523076786542</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>66</v>
       </c>
       <c r="B62">
-        <f t="shared" ca="1" si="1"/>
-        <v>200</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>400</v>
       </c>
       <c r="C62" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>NE</v>
       </c>
       <c r="D62" s="3">
         <f ca="1">200*EXP(SUM($B$2:B62)*COUNT($B$2:B62)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>274.67770053896845</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+        <v>290.43349401223446</v>
+      </c>
+      <c r="G62">
+        <f ca="1"/>
+        <v>400</v>
+      </c>
+      <c r="H62" t="str">
+        <f ca="1"/>
+        <v>NE</v>
+      </c>
+      <c r="I62">
+        <f ca="1"/>
+        <v>290.43349401223446</v>
+      </c>
+      <c r="J62">
+        <f ca="1">SUM($G$2:G62)</f>
+        <v>23100</v>
+      </c>
+      <c r="K62">
+        <f t="shared" ca="1" si="1"/>
+        <v>290.43349401223446</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>67</v>
       </c>
       <c r="B63">
-        <f t="shared" ca="1" si="1"/>
-        <v>200</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
       </c>
       <c r="C63" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>NE</v>
       </c>
       <c r="D63" s="3">
         <f ca="1">200*EXP(SUM($B$2:B63)*COUNT($B$2:B63)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>284.33709934740767</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+        <v>298.84503514137651</v>
+      </c>
+      <c r="G63">
+        <f ca="1"/>
+        <v>100</v>
+      </c>
+      <c r="H63" t="str">
+        <f ca="1"/>
+        <v>NE</v>
+      </c>
+      <c r="I63">
+        <f ca="1"/>
+        <v>298.84503514137651</v>
+      </c>
+      <c r="J63">
+        <f ca="1">SUM($G$2:G63)</f>
+        <v>23200</v>
+      </c>
+      <c r="K63">
+        <f t="shared" ca="1" si="1"/>
+        <v>298.84503514137651</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>68</v>
       </c>
       <c r="B64">
-        <f t="shared" ca="1" si="1"/>
-        <v>600</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>350</v>
       </c>
       <c r="C64" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>SE</v>
       </c>
       <c r="D64" s="3">
         <f ca="1">200*EXP(SUM($B$2:B64)*COUNT($B$2:B64)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>302.32235148283706</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+        <v>312.31669839882574</v>
+      </c>
+      <c r="G64">
+        <f ca="1"/>
+        <v>350</v>
+      </c>
+      <c r="H64" t="str">
+        <f ca="1"/>
+        <v>SE</v>
+      </c>
+      <c r="I64">
+        <f ca="1"/>
+        <v>312.31669839882574</v>
+      </c>
+      <c r="J64">
+        <f ca="1">SUM($G$2:G64)</f>
+        <v>23550</v>
+      </c>
+      <c r="K64">
+        <f t="shared" ca="1" si="1"/>
+        <v>312.31669839882574</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>69</v>
       </c>
       <c r="B65">
-        <f t="shared" ca="1" si="1"/>
-        <v>250</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>150</v>
       </c>
       <c r="C65" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -2238,67 +6616,147 @@
       </c>
       <c r="D65" s="3">
         <f ca="1">200*EXP(SUM($B$2:B65)*COUNT($B$2:B65)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>314.39722551839742</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+        <v>322.56988247328883</v>
+      </c>
+      <c r="G65">
+        <f ca="1"/>
+        <v>150</v>
+      </c>
+      <c r="H65" t="str">
+        <f ca="1"/>
+        <v>SE</v>
+      </c>
+      <c r="I65">
+        <f ca="1"/>
+        <v>322.56988247328883</v>
+      </c>
+      <c r="J65">
+        <f ca="1">SUM($G$2:G65)</f>
+        <v>23700</v>
+      </c>
+      <c r="K65">
+        <f t="shared" ca="1" si="1"/>
+        <v>322.56988247328883</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>70</v>
       </c>
       <c r="B66">
-        <f t="shared" ref="B66:B101" ca="1" si="2">RANDBETWEEN(2,12)*50</f>
-        <v>250</v>
+        <f t="shared" ref="B66:B101" ca="1" si="3">RANDBETWEEN(2,12)*50</f>
+        <v>150</v>
       </c>
       <c r="C66" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>SE</v>
       </c>
       <c r="D66" s="3">
         <f ca="1">200*EXP(SUM($B$2:B66)*COUNT($B$2:B66)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>327.12537602666674</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+        <v>333.25707851163997</v>
+      </c>
+      <c r="G66">
+        <f ca="1"/>
+        <v>150</v>
+      </c>
+      <c r="H66" t="str">
+        <f ca="1"/>
+        <v>SE</v>
+      </c>
+      <c r="I66">
+        <f ca="1"/>
+        <v>333.25707851163997</v>
+      </c>
+      <c r="J66">
+        <f ca="1">SUM($G$2:G66)</f>
+        <v>23850</v>
+      </c>
+      <c r="K66">
+        <f t="shared" ca="1" si="1"/>
+        <v>333.25707851163997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>71</v>
       </c>
       <c r="B67">
-        <f t="shared" ca="1" si="2"/>
-        <v>600</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>400</v>
       </c>
       <c r="C67" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>N</v>
       </c>
       <c r="D67" s="3">
         <f ca="1">200*EXP(SUM($B$2:B67)*COUNT($B$2:B67)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>348.87354573653585</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+        <v>349.98100336178226</v>
+      </c>
+      <c r="G67">
+        <f ca="1"/>
+        <v>400</v>
+      </c>
+      <c r="H67" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="I67">
+        <f ca="1"/>
+        <v>349.98100336178226</v>
+      </c>
+      <c r="J67">
+        <f ca="1">SUM($G$2:G67)</f>
+        <v>24250</v>
+      </c>
+      <c r="K67">
+        <f t="shared" ref="K67:K111" ca="1" si="4">I67</f>
+        <v>349.98100336178226</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>72</v>
       </c>
       <c r="B68">
-        <f t="shared" ca="1" si="2"/>
-        <v>400</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>550</v>
       </c>
       <c r="C68" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>NE</v>
       </c>
       <c r="D68" s="3">
         <f ca="1">200*EXP(SUM($B$2:B68)*COUNT($B$2:B68)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>367.35084287883797</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+        <v>371.45065416887684</v>
+      </c>
+      <c r="G68">
+        <f ca="1"/>
+        <v>550</v>
+      </c>
+      <c r="H68" t="str">
+        <f ca="1"/>
+        <v>NE</v>
+      </c>
+      <c r="I68">
+        <f ca="1"/>
+        <v>371.45065416887684</v>
+      </c>
+      <c r="J68">
+        <f ca="1">SUM($G$2:G68)</f>
+        <v>24800</v>
+      </c>
+      <c r="K68">
+        <f t="shared" ca="1" si="4"/>
+        <v>371.45065416887684</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>73</v>
       </c>
       <c r="B69">
-        <f t="shared" ca="1" si="2"/>
-        <v>400</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>250</v>
       </c>
       <c r="C69" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -2306,15 +6764,35 @@
       </c>
       <c r="D69" s="3">
         <f ca="1">200*EXP(SUM($B$2:B69)*COUNT($B$2:B69)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>387.1304866450248</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+        <v>386.89248689668761</v>
+      </c>
+      <c r="G69">
+        <f ca="1"/>
+        <v>250</v>
+      </c>
+      <c r="H69" t="str">
+        <f ca="1"/>
+        <v>S</v>
+      </c>
+      <c r="I69">
+        <f ca="1"/>
+        <v>386.89248689668761</v>
+      </c>
+      <c r="J69">
+        <f ca="1">SUM($G$2:G69)</f>
+        <v>25050</v>
+      </c>
+      <c r="K69">
+        <f t="shared" ca="1" si="4"/>
+        <v>386.89248689668761</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>74</v>
       </c>
       <c r="B70">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>400</v>
       </c>
       <c r="C70" t="str">
@@ -2323,50 +6801,110 @@
       </c>
       <c r="D70" s="3">
         <f ca="1">200*EXP(SUM($B$2:B70)*COUNT($B$2:B70)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>408.31660116979458</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+        <v>407.25931961022235</v>
+      </c>
+      <c r="G70">
+        <f ca="1"/>
+        <v>400</v>
+      </c>
+      <c r="H70" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="I70">
+        <f ca="1"/>
+        <v>407.25931961022235</v>
+      </c>
+      <c r="J70">
+        <f ca="1">SUM($G$2:G70)</f>
+        <v>25450</v>
+      </c>
+      <c r="K70">
+        <f t="shared" ca="1" si="4"/>
+        <v>407.25931961022235</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>75</v>
       </c>
       <c r="B71">
-        <f t="shared" ca="1" si="2"/>
-        <v>450</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>600</v>
       </c>
       <c r="C71" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>SE</v>
       </c>
       <c r="D71" s="3">
         <f ca="1">200*EXP(SUM($B$2:B71)*COUNT($B$2:B71)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>432.60308055683788</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+        <v>434.92554582348527</v>
+      </c>
+      <c r="G71">
+        <f ca="1"/>
+        <v>600</v>
+      </c>
+      <c r="H71" t="str">
+        <f ca="1"/>
+        <v>SE</v>
+      </c>
+      <c r="I71">
+        <f ca="1"/>
+        <v>434.92554582348527</v>
+      </c>
+      <c r="J71">
+        <f ca="1">SUM($G$2:G71)</f>
+        <v>26050</v>
+      </c>
+      <c r="K71">
+        <f t="shared" ca="1" si="4"/>
+        <v>434.92554582348527</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>76</v>
       </c>
       <c r="B72">
-        <f t="shared" ca="1" si="2"/>
-        <v>300</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>600</v>
       </c>
       <c r="C72" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>SE</v>
       </c>
       <c r="D72" s="3">
         <f ca="1">200*EXP(SUM($B$2:B72)*COUNT($B$2:B72)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>453.68464124387492</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+        <v>465.01464005525071</v>
+      </c>
+      <c r="G72">
+        <f ca="1"/>
+        <v>600</v>
+      </c>
+      <c r="H72" t="str">
+        <f ca="1"/>
+        <v>SE</v>
+      </c>
+      <c r="I72">
+        <f ca="1"/>
+        <v>465.01464005525071</v>
+      </c>
+      <c r="J72">
+        <f ca="1">SUM($G$2:G72)</f>
+        <v>26650</v>
+      </c>
+      <c r="K72">
+        <f t="shared" ca="1" si="4"/>
+        <v>465.01464005525071</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>77</v>
       </c>
       <c r="B73">
-        <f t="shared" ca="1" si="2"/>
-        <v>400</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>150</v>
       </c>
       <c r="C73" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -2374,152 +6912,332 @@
       </c>
       <c r="D73" s="3">
         <f ca="1">200*EXP(SUM($B$2:B73)*COUNT($B$2:B73)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>479.69040007668019</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+        <v>482.29741720959589</v>
+      </c>
+      <c r="G73">
+        <f ca="1"/>
+        <v>150</v>
+      </c>
+      <c r="H73" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="I73">
+        <f ca="1"/>
+        <v>482.29741720959589</v>
+      </c>
+      <c r="J73">
+        <f ca="1">SUM($G$2:G73)</f>
+        <v>26800</v>
+      </c>
+      <c r="K73">
+        <f t="shared" ca="1" si="4"/>
+        <v>482.29741720959589</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>78</v>
       </c>
       <c r="B74">
-        <f t="shared" ca="1" si="2"/>
-        <v>250</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>550</v>
       </c>
       <c r="C74" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>NE</v>
       </c>
       <c r="D74" s="3">
         <f ca="1">200*EXP(SUM($B$2:B74)*COUNT($B$2:B74)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>501.83183772803113</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+        <v>514.81030197731593</v>
+      </c>
+      <c r="G74">
+        <f ca="1"/>
+        <v>550</v>
+      </c>
+      <c r="H74" t="str">
+        <f ca="1"/>
+        <v>NE</v>
+      </c>
+      <c r="I74">
+        <f ca="1"/>
+        <v>514.81030197731593</v>
+      </c>
+      <c r="J74">
+        <f ca="1">SUM($G$2:G74)</f>
+        <v>27350</v>
+      </c>
+      <c r="K74">
+        <f t="shared" ca="1" si="4"/>
+        <v>514.81030197731593</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>79</v>
       </c>
       <c r="B75">
-        <f t="shared" ca="1" si="2"/>
-        <v>250</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>550</v>
       </c>
       <c r="C75" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>SE</v>
       </c>
       <c r="D75" s="3">
         <f ca="1">200*EXP(SUM($B$2:B75)*COUNT($B$2:B75)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>525.26985380872907</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+        <v>550.10428312696627</v>
+      </c>
+      <c r="G75">
+        <f ca="1"/>
+        <v>550</v>
+      </c>
+      <c r="H75" t="str">
+        <f ca="1"/>
+        <v>SE</v>
+      </c>
+      <c r="I75">
+        <f ca="1"/>
+        <v>550.10428312696627</v>
+      </c>
+      <c r="J75">
+        <f ca="1">SUM($G$2:G75)</f>
+        <v>27900</v>
+      </c>
+      <c r="K75">
+        <f t="shared" ca="1" si="4"/>
+        <v>550.10428312696627</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>80</v>
       </c>
       <c r="B76">
-        <f t="shared" ca="1" si="2"/>
-        <v>600</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>350</v>
       </c>
       <c r="C76" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>N</v>
       </c>
       <c r="D76" s="3">
         <f ca="1">200*EXP(SUM($B$2:B76)*COUNT($B$2:B76)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>565.39977811619565</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+        <v>579.90992326694834</v>
+      </c>
+      <c r="G76">
+        <f ca="1"/>
+        <v>350</v>
+      </c>
+      <c r="H76" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="I76">
+        <f ca="1"/>
+        <v>579.90992326694834</v>
+      </c>
+      <c r="J76">
+        <f ca="1">SUM($G$2:G76)</f>
+        <v>28250</v>
+      </c>
+      <c r="K76">
+        <f t="shared" ca="1" si="4"/>
+        <v>579.90992326694834</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>81</v>
       </c>
       <c r="B77">
-        <f t="shared" ca="1" si="2"/>
-        <v>400</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>450</v>
       </c>
       <c r="C77" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>N</v>
       </c>
       <c r="D77" s="3">
         <f ca="1">200*EXP(SUM($B$2:B77)*COUNT($B$2:B77)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>599.75032582003678</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+        <v>616.29479078120755</v>
+      </c>
+      <c r="G77">
+        <f ca="1"/>
+        <v>450</v>
+      </c>
+      <c r="H77" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="I77">
+        <f ca="1"/>
+        <v>616.29479078120755</v>
+      </c>
+      <c r="J77">
+        <f ca="1">SUM($G$2:G77)</f>
+        <v>28700</v>
+      </c>
+      <c r="K77">
+        <f t="shared" ca="1" si="4"/>
+        <v>616.29479078120755</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>82</v>
       </c>
       <c r="B78">
-        <f t="shared" ca="1" si="2"/>
-        <v>200</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>450</v>
       </c>
       <c r="C78" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>S</v>
       </c>
       <c r="D78" s="3">
         <f ca="1">200*EXP(SUM($B$2:B78)*COUNT($B$2:B78)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>626.54829808497857</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+        <v>655.53716814775453</v>
+      </c>
+      <c r="G78">
+        <f ca="1"/>
+        <v>450</v>
+      </c>
+      <c r="H78" t="str">
+        <f ca="1"/>
+        <v>S</v>
+      </c>
+      <c r="I78">
+        <f ca="1"/>
+        <v>655.53716814775453</v>
+      </c>
+      <c r="J78">
+        <f ca="1">SUM($G$2:G78)</f>
+        <v>29150</v>
+      </c>
+      <c r="K78">
+        <f t="shared" ca="1" si="4"/>
+        <v>655.53716814775453</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>83</v>
       </c>
       <c r="B79">
-        <f t="shared" ca="1" si="2"/>
-        <v>400</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>600</v>
       </c>
       <c r="C79" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>N</v>
       </c>
       <c r="D79" s="3">
         <f ca="1">200*EXP(SUM($B$2:B79)*COUNT($B$2:B79)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>665.58763208048288</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+        <v>705.89204267091225</v>
+      </c>
+      <c r="G79">
+        <f ca="1"/>
+        <v>600</v>
+      </c>
+      <c r="H79" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="I79">
+        <f ca="1"/>
+        <v>705.89204267091225</v>
+      </c>
+      <c r="J79">
+        <f ca="1">SUM($G$2:G79)</f>
+        <v>29750</v>
+      </c>
+      <c r="K79">
+        <f t="shared" ca="1" si="4"/>
+        <v>705.89204267091225</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>84</v>
       </c>
       <c r="B80">
-        <f t="shared" ca="1" si="2"/>
-        <v>550</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
       </c>
       <c r="C80" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>NE</v>
       </c>
       <c r="D80" s="3">
         <f ca="1">200*EXP(SUM($B$2:B80)*COUNT($B$2:B80)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>716.47511142240671</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+        <v>732.26998567615794</v>
+      </c>
+      <c r="G80">
+        <f ca="1"/>
+        <v>100</v>
+      </c>
+      <c r="H80" t="str">
+        <f ca="1"/>
+        <v>NE</v>
+      </c>
+      <c r="I80">
+        <f ca="1"/>
+        <v>732.26998567615794</v>
+      </c>
+      <c r="J80">
+        <f ca="1">SUM($G$2:G80)</f>
+        <v>29850</v>
+      </c>
+      <c r="K80">
+        <f t="shared" ca="1" si="4"/>
+        <v>732.26998567615794</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>85</v>
       </c>
       <c r="B81">
-        <f t="shared" ca="1" si="2"/>
-        <v>200</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>400</v>
       </c>
       <c r="C81" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>SE</v>
       </c>
       <c r="D81" s="3">
         <f ca="1">200*EXP(SUM($B$2:B81)*COUNT($B$2:B81)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>749.85960374387514</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+        <v>777.75941780657911</v>
+      </c>
+      <c r="G81">
+        <f ca="1"/>
+        <v>400</v>
+      </c>
+      <c r="H81" t="str">
+        <f ca="1"/>
+        <v>SE</v>
+      </c>
+      <c r="I81">
+        <f ca="1"/>
+        <v>777.75941780657911</v>
+      </c>
+      <c r="J81">
+        <f ca="1">SUM($G$2:G81)</f>
+        <v>30250</v>
+      </c>
+      <c r="K81">
+        <f t="shared" ca="1" si="4"/>
+        <v>777.75941780657911</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>86</v>
       </c>
       <c r="B82">
-        <f t="shared" ca="1" si="2"/>
-        <v>500</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>300</v>
       </c>
       <c r="C82" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -2527,16 +7245,36 @@
       </c>
       <c r="D82" s="3">
         <f ca="1">200*EXP(SUM($B$2:B82)*COUNT($B$2:B82)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>805.33516356174061</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+        <v>820.21945635126428</v>
+      </c>
+      <c r="G82">
+        <f ca="1"/>
+        <v>300</v>
+      </c>
+      <c r="H82" t="str">
+        <f ca="1"/>
+        <v>S</v>
+      </c>
+      <c r="I82">
+        <f ca="1"/>
+        <v>820.21945635126428</v>
+      </c>
+      <c r="J82">
+        <f ca="1">SUM($G$2:G82)</f>
+        <v>30550</v>
+      </c>
+      <c r="K82">
+        <f t="shared" ca="1" si="4"/>
+        <v>820.21945635126428</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>87</v>
       </c>
       <c r="B83">
-        <f t="shared" ca="1" si="2"/>
-        <v>400</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>550</v>
       </c>
       <c r="C83" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -2544,135 +7282,295 @@
       </c>
       <c r="D83" s="3">
         <f ca="1">200*EXP(SUM($B$2:B83)*COUNT($B$2:B83)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>858.42703054630135</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+        <v>882.96619523419236</v>
+      </c>
+      <c r="G83">
+        <f ca="1"/>
+        <v>550</v>
+      </c>
+      <c r="H83" t="str">
+        <f ca="1"/>
+        <v>SE</v>
+      </c>
+      <c r="I83">
+        <f ca="1"/>
+        <v>882.96619523419236</v>
+      </c>
+      <c r="J83">
+        <f ca="1">SUM($G$2:G83)</f>
+        <v>31100</v>
+      </c>
+      <c r="K83">
+        <f t="shared" ca="1" si="4"/>
+        <v>882.96619523419236</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>88</v>
       </c>
       <c r="B84">
-        <f t="shared" ca="1" si="2"/>
-        <v>200</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>300</v>
       </c>
       <c r="C84" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>NE</v>
       </c>
       <c r="D84" s="3">
         <f ca="1">200*EXP(SUM($B$2:B84)*COUNT($B$2:B84)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>900.0244608808141</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+        <v>932.48635282002977</v>
+      </c>
+      <c r="G84">
+        <f ca="1"/>
+        <v>300</v>
+      </c>
+      <c r="H84" t="str">
+        <f ca="1"/>
+        <v>NE</v>
+      </c>
+      <c r="I84">
+        <f ca="1"/>
+        <v>932.48635282002977</v>
+      </c>
+      <c r="J84">
+        <f ca="1">SUM($G$2:G84)</f>
+        <v>31400</v>
+      </c>
+      <c r="K84">
+        <f t="shared" ca="1" si="4"/>
+        <v>932.48635282002977</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>89</v>
       </c>
       <c r="B85">
-        <f t="shared" ca="1" si="2"/>
-        <v>350</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>600</v>
       </c>
       <c r="C85" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>SE</v>
       </c>
       <c r="D85" s="3">
         <f ca="1">200*EXP(SUM($B$2:B85)*COUNT($B$2:B85)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>956.55374295091713</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1009.8551562868183</v>
+      </c>
+      <c r="G85">
+        <f ca="1"/>
+        <v>600</v>
+      </c>
+      <c r="H85" t="str">
+        <f ca="1"/>
+        <v>SE</v>
+      </c>
+      <c r="I85">
+        <f ca="1"/>
+        <v>1009.8551562868183</v>
+      </c>
+      <c r="J85">
+        <f ca="1">SUM($G$2:G85)</f>
+        <v>32000</v>
+      </c>
+      <c r="K85">
+        <f t="shared" ca="1" si="4"/>
+        <v>1009.8551562868183</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>90</v>
       </c>
       <c r="B86">
-        <f t="shared" ca="1" si="2"/>
-        <v>250</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>300</v>
       </c>
       <c r="C86" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>SE</v>
       </c>
       <c r="D86" s="3">
         <f ca="1">200*EXP(SUM($B$2:B86)*COUNT($B$2:B86)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>1008.3747389001603</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1068.0516957161194</v>
+      </c>
+      <c r="G86">
+        <f ca="1"/>
+        <v>300</v>
+      </c>
+      <c r="H86" t="str">
+        <f ca="1"/>
+        <v>SE</v>
+      </c>
+      <c r="I86">
+        <f ca="1"/>
+        <v>1068.0516957161194</v>
+      </c>
+      <c r="J86">
+        <f ca="1">SUM($G$2:G86)</f>
+        <v>32300</v>
+      </c>
+      <c r="K86">
+        <f t="shared" ca="1" si="4"/>
+        <v>1068.0516957161194</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>91</v>
       </c>
       <c r="B87">
-        <f t="shared" ca="1" si="2"/>
-        <v>550</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>450</v>
       </c>
       <c r="C87" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>N</v>
       </c>
       <c r="D87" s="3">
         <f ca="1">200*EXP(SUM($B$2:B87)*COUNT($B$2:B87)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>1092.6449354895537</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1144.5597504464322</v>
+      </c>
+      <c r="G87">
+        <f ca="1"/>
+        <v>450</v>
+      </c>
+      <c r="H87" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="I87">
+        <f ca="1"/>
+        <v>1144.5597504464322</v>
+      </c>
+      <c r="J87">
+        <f ca="1">SUM($G$2:G87)</f>
+        <v>32750</v>
+      </c>
+      <c r="K87">
+        <f t="shared" ca="1" si="4"/>
+        <v>1144.5597504464322</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>92</v>
       </c>
       <c r="B88">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>400</v>
       </c>
       <c r="C88" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>N</v>
       </c>
       <c r="D88" s="3">
         <f ca="1">200*EXP(SUM($B$2:B88)*COUNT($B$2:B88)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>1169.2540824559765</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1222.4318980872702</v>
+      </c>
+      <c r="G88">
+        <f ca="1"/>
+        <v>400</v>
+      </c>
+      <c r="H88" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="I88">
+        <f ca="1"/>
+        <v>1222.4318980872702</v>
+      </c>
+      <c r="J88">
+        <f ca="1">SUM($G$2:G88)</f>
+        <v>33150</v>
+      </c>
+      <c r="K88">
+        <f t="shared" ca="1" si="4"/>
+        <v>1222.4318980872702</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>93</v>
       </c>
       <c r="B89">
-        <f t="shared" ca="1" si="2"/>
-        <v>500</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>300</v>
       </c>
       <c r="C89" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>SE</v>
       </c>
       <c r="D89" s="3">
         <f ca="1">200*EXP(SUM($B$2:B89)*COUNT($B$2:B89)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>1263.8592424506896</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1295.4641271930263</v>
+      </c>
+      <c r="G89">
+        <f ca="1"/>
+        <v>300</v>
+      </c>
+      <c r="H89" t="str">
+        <f ca="1"/>
+        <v>SE</v>
+      </c>
+      <c r="I89">
+        <f ca="1"/>
+        <v>1295.4641271930263</v>
+      </c>
+      <c r="J89">
+        <f ca="1">SUM($G$2:G89)</f>
+        <v>33450</v>
+      </c>
+      <c r="K89">
+        <f t="shared" ca="1" si="4"/>
+        <v>1295.4641271930263</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>94</v>
       </c>
       <c r="B90">
-        <f t="shared" ca="1" si="2"/>
-        <v>300</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>550</v>
       </c>
       <c r="C90" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>NE</v>
       </c>
       <c r="D90" s="3">
         <f ca="1">200*EXP(SUM($B$2:B90)*COUNT($B$2:B90)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>1342.3277379890303</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1403.7698346774541</v>
+      </c>
+      <c r="G90">
+        <f ca="1"/>
+        <v>550</v>
+      </c>
+      <c r="H90" t="str">
+        <f ca="1"/>
+        <v>NE</v>
+      </c>
+      <c r="I90">
+        <f ca="1"/>
+        <v>1403.7698346774541</v>
+      </c>
+      <c r="J90">
+        <f ca="1">SUM($G$2:G90)</f>
+        <v>34000</v>
+      </c>
+      <c r="K90">
+        <f t="shared" ca="1" si="4"/>
+        <v>1403.7698346774541</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>95</v>
       </c>
       <c r="B91">
-        <f t="shared" ca="1" si="2"/>
-        <v>400</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>300</v>
       </c>
       <c r="C91" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -2680,16 +7578,36 @@
       </c>
       <c r="D91" s="3">
         <f ca="1">200*EXP(SUM($B$2:B91)*COUNT($B$2:B91)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>1440.0527352586162</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1489.7391900831494</v>
+      </c>
+      <c r="G91">
+        <f ca="1"/>
+        <v>300</v>
+      </c>
+      <c r="H91" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="I91">
+        <f ca="1"/>
+        <v>1489.7391900831494</v>
+      </c>
+      <c r="J91">
+        <f ca="1">SUM($G$2:G91)</f>
+        <v>34300</v>
+      </c>
+      <c r="K91">
+        <f t="shared" ca="1" si="4"/>
+        <v>1489.7391900831494</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>96</v>
       </c>
       <c r="B92">
-        <f t="shared" ca="1" si="2"/>
-        <v>500</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>350</v>
       </c>
       <c r="C92" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -2697,16 +7615,36 @@
       </c>
       <c r="D92" s="3">
         <f ca="1">200*EXP(SUM($B$2:B92)*COUNT($B$2:B92)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>1560.9696295915553</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1588.9271538763689</v>
+      </c>
+      <c r="G92">
+        <f ca="1"/>
+        <v>350</v>
+      </c>
+      <c r="H92" t="str">
+        <f ca="1"/>
+        <v>S</v>
+      </c>
+      <c r="I92">
+        <f ca="1"/>
+        <v>1588.9271538763689</v>
+      </c>
+      <c r="J92">
+        <f ca="1">SUM($G$2:G92)</f>
+        <v>34650</v>
+      </c>
+      <c r="K92">
+        <f t="shared" ca="1" si="4"/>
+        <v>1588.9271538763689</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>97</v>
       </c>
       <c r="B93">
-        <f t="shared" ca="1" si="2"/>
-        <v>250</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>350</v>
       </c>
       <c r="C93" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -2714,84 +7652,184 @@
       </c>
       <c r="D93" s="3">
         <f ca="1">200*EXP(SUM($B$2:B93)*COUNT($B$2:B93)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>1653.5559672891955</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1695.8754812167765</v>
+      </c>
+      <c r="G93">
+        <f ca="1"/>
+        <v>350</v>
+      </c>
+      <c r="H93" t="str">
+        <f ca="1"/>
+        <v>S</v>
+      </c>
+      <c r="I93">
+        <f ca="1"/>
+        <v>1695.8754812167765</v>
+      </c>
+      <c r="J93">
+        <f ca="1">SUM($G$2:G93)</f>
+        <v>35000</v>
+      </c>
+      <c r="K93">
+        <f t="shared" ca="1" si="4"/>
+        <v>1695.8754812167765</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>98</v>
       </c>
       <c r="B94">
-        <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>600</v>
       </c>
       <c r="C94" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>SE</v>
       </c>
       <c r="D94" s="3">
         <f ca="1">200*EXP(SUM($B$2:B94)*COUNT($B$2:B94)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>1727.1690073578977</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1852.7603017548663</v>
+      </c>
+      <c r="G94">
+        <f ca="1"/>
+        <v>600</v>
+      </c>
+      <c r="H94" t="str">
+        <f ca="1"/>
+        <v>SE</v>
+      </c>
+      <c r="I94">
+        <f ca="1"/>
+        <v>1852.7603017548663</v>
+      </c>
+      <c r="J94">
+        <f ca="1">SUM($G$2:G94)</f>
+        <v>35600</v>
+      </c>
+      <c r="K94">
+        <f t="shared" ca="1" si="4"/>
+        <v>1852.7603017548663</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>99</v>
       </c>
       <c r="B95">
-        <f t="shared" ca="1" si="2"/>
-        <v>600</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>250</v>
       </c>
       <c r="C95" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>SE</v>
       </c>
       <c r="D95" s="3">
         <f ca="1">200*EXP(SUM($B$2:B95)*COUNT($B$2:B95)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>1895.3408470416452</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1962.5897243189775</v>
+      </c>
+      <c r="G95">
+        <f ca="1"/>
+        <v>250</v>
+      </c>
+      <c r="H95" t="str">
+        <f ca="1"/>
+        <v>SE</v>
+      </c>
+      <c r="I95">
+        <f ca="1"/>
+        <v>1962.5897243189775</v>
+      </c>
+      <c r="J95">
+        <f ca="1">SUM($G$2:G95)</f>
+        <v>35850</v>
+      </c>
+      <c r="K95">
+        <f t="shared" ca="1" si="4"/>
+        <v>1962.5897243189775</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>100</v>
       </c>
       <c r="B96">
-        <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>500</v>
       </c>
       <c r="C96" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>SE</v>
       </c>
       <c r="D96" s="3">
         <f ca="1">200*EXP(SUM($B$2:B96)*COUNT($B$2:B96)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>1981.5818123765121</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2128.6392287551366</v>
+      </c>
+      <c r="G96">
+        <f ca="1"/>
+        <v>500</v>
+      </c>
+      <c r="H96" t="str">
+        <f ca="1"/>
+        <v>SE</v>
+      </c>
+      <c r="I96">
+        <f ca="1"/>
+        <v>2128.6392287551366</v>
+      </c>
+      <c r="J96">
+        <f ca="1">SUM($G$2:G96)</f>
+        <v>36350</v>
+      </c>
+      <c r="K96">
+        <f t="shared" ca="1" si="4"/>
+        <v>2128.6392287551366</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>101</v>
       </c>
       <c r="B97">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>300</v>
       </c>
       <c r="C97" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>S</v>
       </c>
       <c r="D97" s="3">
         <f ca="1">200*EXP(SUM($B$2:B97)*COUNT($B$2:B97)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>2114.2068590516178</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2268.1544256587813</v>
+      </c>
+      <c r="G97">
+        <f ca="1"/>
+        <v>300</v>
+      </c>
+      <c r="H97" t="str">
+        <f ca="1"/>
+        <v>S</v>
+      </c>
+      <c r="I97">
+        <f ca="1"/>
+        <v>2268.1544256587813</v>
+      </c>
+      <c r="J97">
+        <f ca="1">SUM($G$2:G97)</f>
+        <v>36650</v>
+      </c>
+      <c r="K97">
+        <f t="shared" ca="1" si="4"/>
+        <v>2268.1544256587813</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>102</v>
       </c>
       <c r="B98">
-        <f t="shared" ca="1" si="2"/>
-        <v>150</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>200</v>
       </c>
       <c r="C98" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -2799,66 +7837,146 @@
       </c>
       <c r="D98" s="3">
         <f ca="1">200*EXP(SUM($B$2:B98)*COUNT($B$2:B98)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>2223.0404102258713</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2395.4780014589128</v>
+      </c>
+      <c r="G98">
+        <f ca="1"/>
+        <v>200</v>
+      </c>
+      <c r="H98" t="str">
+        <f ca="1"/>
+        <v>S</v>
+      </c>
+      <c r="I98">
+        <f ca="1"/>
+        <v>2395.4780014589128</v>
+      </c>
+      <c r="J98">
+        <f ca="1">SUM($G$2:G98)</f>
+        <v>36850</v>
+      </c>
+      <c r="K98">
+        <f t="shared" ca="1" si="4"/>
+        <v>2395.4780014589128</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>103</v>
       </c>
       <c r="B99">
-        <f t="shared" ca="1" si="2"/>
-        <v>150</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>300</v>
       </c>
       <c r="C99" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>NE</v>
       </c>
       <c r="D99" s="3">
         <f ca="1">200*EXP(SUM($B$2:B99)*COUNT($B$2:B99)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>2338.2098541006421</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2555.2197153913153</v>
+      </c>
+      <c r="G99">
+        <f ca="1"/>
+        <v>300</v>
+      </c>
+      <c r="H99" t="str">
+        <f ca="1"/>
+        <v>NE</v>
+      </c>
+      <c r="I99">
+        <f ca="1"/>
+        <v>2555.2197153913153</v>
+      </c>
+      <c r="J99">
+        <f ca="1">SUM($G$2:G99)</f>
+        <v>37150</v>
+      </c>
+      <c r="K99">
+        <f t="shared" ca="1" si="4"/>
+        <v>2555.2197153913153</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>104</v>
       </c>
       <c r="B100">
-        <f t="shared" ca="1" si="2"/>
-        <v>200</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
       </c>
       <c r="C100" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>NE</v>
       </c>
       <c r="D100" s="3">
         <f ca="1">200*EXP(SUM($B$2:B100)*COUNT($B$2:B100)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>2472.8853257869587</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2675.094596403801</v>
+      </c>
+      <c r="G100">
+        <f ca="1"/>
+        <v>100</v>
+      </c>
+      <c r="H100" t="str">
+        <f ca="1"/>
+        <v>NE</v>
+      </c>
+      <c r="I100">
+        <f ca="1"/>
+        <v>2675.094596403801</v>
+      </c>
+      <c r="J100">
+        <f ca="1">SUM($G$2:G100)</f>
+        <v>37250</v>
+      </c>
+      <c r="K100">
+        <f t="shared" ca="1" si="4"/>
+        <v>2675.094596403801</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>105</v>
       </c>
       <c r="B101">
-        <f t="shared" ca="1" si="2"/>
-        <v>500</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>300</v>
       </c>
       <c r="C101" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>NE</v>
       </c>
       <c r="D101" s="3">
         <f ca="1">200*EXP(SUM($B$2:B101)*COUNT($B$2:B101)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>2699.7966804852986</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2856.264306593504</v>
+      </c>
+      <c r="G101">
+        <f ca="1"/>
+        <v>300</v>
+      </c>
+      <c r="H101" t="str">
+        <f ca="1"/>
+        <v>NE</v>
+      </c>
+      <c r="I101">
+        <f ca="1"/>
+        <v>2856.264306593504</v>
+      </c>
+      <c r="J101">
+        <f ca="1">SUM($G$2:G101)</f>
+        <v>37550</v>
+      </c>
+      <c r="K101">
+        <f t="shared" ca="1" si="4"/>
+        <v>2856.264306593504</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>128</v>
       </c>
       <c r="B102">
-        <f t="shared" ref="B102:B111" ca="1" si="3">RANDBETWEEN(2,12)*50</f>
+        <f t="shared" ref="B102:B111" ca="1" si="5">RANDBETWEEN(2,12)*50</f>
         <v>300</v>
       </c>
       <c r="C102" t="str">
@@ -2867,165 +7985,366 @@
       </c>
       <c r="D102" s="3">
         <f ca="1">200*EXP(SUM($B$2:B102)*COUNT($B$2:B102)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>2888.9377816273695</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3051.4872021496562</v>
+      </c>
+      <c r="G102">
+        <f ca="1"/>
+        <v>300</v>
+      </c>
+      <c r="H102" t="str">
+        <f ca="1"/>
+        <v>SE</v>
+      </c>
+      <c r="I102">
+        <f ca="1"/>
+        <v>3051.4872021496562</v>
+      </c>
+      <c r="J102">
+        <f ca="1">SUM($G$2:G102)</f>
+        <v>37850</v>
+      </c>
+      <c r="K102">
+        <f t="shared" ca="1" si="4"/>
+        <v>3051.4872021496562</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>129</v>
       </c>
       <c r="B103">
-        <f t="shared" ca="1" si="3"/>
-        <v>150</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>250</v>
       </c>
       <c r="C103" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>SE</v>
       </c>
       <c r="D103" s="3">
         <f ca="1">200*EXP(SUM($B$2:B103)*COUNT($B$2:B103)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>3044.1714253524365</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3245.7896919762456</v>
+      </c>
+      <c r="G103">
+        <f ca="1"/>
+        <v>250</v>
+      </c>
+      <c r="H103" t="str">
+        <f ca="1"/>
+        <v>SE</v>
+      </c>
+      <c r="I103">
+        <f ca="1"/>
+        <v>3245.7896919762456</v>
+      </c>
+      <c r="J103">
+        <f ca="1">SUM($G$2:G103)</f>
+        <v>38100</v>
+      </c>
+      <c r="K103">
+        <f t="shared" ca="1" si="4"/>
+        <v>3245.7896919762456</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>130</v>
       </c>
       <c r="B104">
-        <f t="shared" ca="1" si="3"/>
-        <v>300</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>450</v>
       </c>
       <c r="C104" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>NE</v>
       </c>
       <c r="D104" s="3">
         <f ca="1">200*EXP(SUM($B$2:B104)*COUNT($B$2:B104)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>3261.0173320710219</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3524.1827572451039</v>
+      </c>
+      <c r="G104">
+        <f ca="1"/>
+        <v>450</v>
+      </c>
+      <c r="H104" t="str">
+        <f ca="1"/>
+        <v>NE</v>
+      </c>
+      <c r="I104">
+        <f ca="1"/>
+        <v>3524.1827572451039</v>
+      </c>
+      <c r="J104">
+        <f ca="1">SUM($G$2:G104)</f>
+        <v>38550</v>
+      </c>
+      <c r="K104">
+        <f t="shared" ca="1" si="4"/>
+        <v>3524.1827572451039</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>131</v>
       </c>
       <c r="B105">
-        <f t="shared" ca="1" si="3"/>
-        <v>200</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>250</v>
       </c>
       <c r="C105" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>S</v>
       </c>
       <c r="D105" s="3">
         <f ca="1">200*EXP(SUM($B$2:B105)*COUNT($B$2:B105)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>3457.6919612180072</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3752.9697925678065</v>
+      </c>
+      <c r="G105">
+        <f ca="1"/>
+        <v>250</v>
+      </c>
+      <c r="H105" t="str">
+        <f ca="1"/>
+        <v>S</v>
+      </c>
+      <c r="I105">
+        <f ca="1"/>
+        <v>3752.9697925678065</v>
+      </c>
+      <c r="J105">
+        <f ca="1">SUM($G$2:G105)</f>
+        <v>38800</v>
+      </c>
+      <c r="K105">
+        <f t="shared" ca="1" si="4"/>
+        <v>3752.9697925678065</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>132</v>
       </c>
       <c r="B106">
-        <f t="shared" ca="1" si="3"/>
-        <v>400</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>500</v>
       </c>
       <c r="C106" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>S</v>
       </c>
       <c r="D106" s="3">
         <f ca="1">200*EXP(SUM($B$2:B106)*COUNT($B$2:B106)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>3749.1999843754675</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4102.1537820100775</v>
+      </c>
+      <c r="G106">
+        <f ca="1"/>
+        <v>500</v>
+      </c>
+      <c r="H106" t="str">
+        <f ca="1"/>
+        <v>S</v>
+      </c>
+      <c r="I106">
+        <f ca="1"/>
+        <v>4102.1537820100775</v>
+      </c>
+      <c r="J106">
+        <f ca="1">SUM($G$2:G106)</f>
+        <v>39300</v>
+      </c>
+      <c r="K106">
+        <f t="shared" ca="1" si="4"/>
+        <v>4102.1537820100775</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>133</v>
       </c>
       <c r="B107">
-        <f t="shared" ca="1" si="3"/>
-        <v>500</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>150</v>
       </c>
       <c r="C107" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>N</v>
       </c>
       <c r="D107" s="3">
         <f ca="1">200*EXP(SUM($B$2:B107)*COUNT($B$2:B107)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>4114.0388099724678</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4328.8426149006082</v>
+      </c>
+      <c r="G107">
+        <f ca="1"/>
+        <v>150</v>
+      </c>
+      <c r="H107" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="I107">
+        <f ca="1"/>
+        <v>4328.8426149006082</v>
+      </c>
+      <c r="J107">
+        <f ca="1">SUM($G$2:G107)</f>
+        <v>39450</v>
+      </c>
+      <c r="K107">
+        <f t="shared" ca="1" si="4"/>
+        <v>4328.8426149006082</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>134</v>
       </c>
       <c r="B108">
-        <f t="shared" ca="1" si="3"/>
-        <v>550</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>300</v>
       </c>
       <c r="C108" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>NE</v>
       </c>
       <c r="D108" s="3">
         <f ca="1">200*EXP(SUM($B$2:B108)*COUNT($B$2:B108)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>4544.4581099826291</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4641.4186620621203</v>
+      </c>
+      <c r="G108">
+        <f ca="1"/>
+        <v>300</v>
+      </c>
+      <c r="H108" t="str">
+        <f ca="1"/>
+        <v>NE</v>
+      </c>
+      <c r="I108">
+        <f ca="1"/>
+        <v>4641.4186620621203</v>
+      </c>
+      <c r="J108">
+        <f ca="1">SUM($G$2:G108)</f>
+        <v>39750</v>
+      </c>
+      <c r="K108">
+        <f t="shared" ca="1" si="4"/>
+        <v>4641.4186620621203</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>135</v>
       </c>
       <c r="B109">
-        <f t="shared" ca="1" si="3"/>
-        <v>400</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>150</v>
       </c>
       <c r="C109" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>N</v>
       </c>
       <c r="D109" s="3">
         <f ca="1">200*EXP(SUM($B$2:B109)*COUNT($B$2:B109)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>4941.2627260404934</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4901.4885517617677</v>
+      </c>
+      <c r="G109">
+        <f ca="1"/>
+        <v>150</v>
+      </c>
+      <c r="H109" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="I109">
+        <f ca="1"/>
+        <v>4901.4885517617677</v>
+      </c>
+      <c r="J109">
+        <f ca="1">SUM($G$2:G109)</f>
+        <v>39900</v>
+      </c>
+      <c r="K109">
+        <f t="shared" ca="1" si="4"/>
+        <v>4901.4885517617677</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>136</v>
       </c>
       <c r="B110">
-        <f t="shared" ca="1" si="3"/>
-        <v>400</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>600</v>
       </c>
       <c r="C110" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>N</v>
       </c>
       <c r="D110" s="3">
         <f ca="1">200*EXP(SUM($B$2:B110)*COUNT($B$2:B110)/(SUM(B:B)*25))/EXP(1)</f>
-        <v>5377.2114970315415</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5431.1208049706538</v>
+      </c>
+      <c r="G110">
+        <f ca="1"/>
+        <v>600</v>
+      </c>
+      <c r="H110" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="I110">
+        <f ca="1"/>
+        <v>5431.1208049706538</v>
+      </c>
+      <c r="J110">
+        <f ca="1">SUM($G$2:G110)</f>
+        <v>40500</v>
+      </c>
+      <c r="K110">
+        <f t="shared" ca="1" si="4"/>
+        <v>5431.1208049706538</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>137</v>
       </c>
       <c r="B111">
-        <f t="shared" ca="1" si="3"/>
-        <v>600</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>550</v>
       </c>
       <c r="C111" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>NE</v>
       </c>
       <c r="D111" s="3">
         <f ca="1">200*EXP(SUM($B$2:B111)*COUNT($B$2:B111)/(SUM(B:B)*25))/EXP(1)</f>
         <v>5992.8200094794047</v>
       </c>
+      <c r="G111">
+        <f ca="1"/>
+        <v>550</v>
+      </c>
+      <c r="H111" t="str">
+        <f ca="1"/>
+        <v>NE</v>
+      </c>
+      <c r="I111">
+        <f ca="1"/>
+        <v>5992.8200094794047</v>
+      </c>
+      <c r="J111">
+        <f ca="1">SUM($G$2:G111)</f>
+        <v>41050</v>
+      </c>
+      <c r="K111">
+        <f t="shared" ca="1" si="4"/>
+        <v>5992.8200094794047</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3065,23 +8384,23 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(12,40)*50</f>
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="C2" s="2">
         <f ca="1">RANDBETWEEN(60,80)/100</f>
-        <v>0.77</v>
+        <v>0.64</v>
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.19</v>
+        <v>0.61</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(0,300)*RANDBETWEEN(0,1)*B2/100</f>
-        <v>561</v>
+        <v>0</v>
       </c>
       <c r="F2" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>SE</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3090,15 +8409,15 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B51" ca="1" si="0">RANDBETWEEN(12,40)*50</f>
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C51" ca="1" si="1">RANDBETWEEN(60,80)/100</f>
-        <v>0.73</v>
+        <v>0.65</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D51" ca="1" si="2">RANDBETWEEN(1,100)/100</f>
-        <v>0.33</v>
+        <v>0.79</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E51" ca="1" si="3">RANDBETWEEN(0,300)*RANDBETWEEN(0,1)*B3/100</f>
@@ -3115,15 +8434,15 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>1950</v>
+        <v>1550</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76</v>
+        <v>0.68</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="3"/>
@@ -3131,7 +8450,7 @@
       </c>
       <c r="F4" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>SE</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -3140,23 +8459,23 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>1850</v>
+        <v>1300</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8</v>
+        <v>0.61</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89</v>
+        <v>0.04</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="3"/>
-        <v>4384.5</v>
+        <v>0</v>
       </c>
       <c r="F5" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>S</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -3165,23 +8484,23 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>1700</v>
+        <v>750</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71</v>
+        <v>0.54</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="3"/>
-        <v>1819</v>
+        <v>1897.5</v>
       </c>
       <c r="F6" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>S</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -3190,15 +8509,15 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="3"/>
@@ -3206,7 +8525,7 @@
       </c>
       <c r="F7" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>S</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -3215,23 +8534,23 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72</v>
+        <v>0.6</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87</v>
+        <v>0.21</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="F8" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>S</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -3240,15 +8559,15 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>1900</v>
+        <v>800</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78</v>
+        <v>0.69</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44</v>
+        <v>0.27</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="3"/>
@@ -3256,7 +8575,7 @@
       </c>
       <c r="F9" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>SE</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -3265,23 +8584,23 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>1400</v>
+        <v>1050</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71</v>
+        <v>0.61</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41</v>
+        <v>0.23</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1963.5</v>
       </c>
       <c r="F10" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>S</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -3290,19 +8609,19 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="3"/>
-        <v>1434</v>
+        <v>0</v>
       </c>
       <c r="F11" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -3315,7 +8634,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -3327,11 +8646,11 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="3"/>
-        <v>348</v>
+        <v>286</v>
       </c>
       <c r="F12" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>N</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -3340,23 +8659,23 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66</v>
+        <v>0.62</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>2960</v>
       </c>
       <c r="F13" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>N</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -3365,23 +8684,23 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.92</v>
+        <v>0.72</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="3"/>
-        <v>322</v>
+        <v>0</v>
       </c>
       <c r="F14" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>SE</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -3390,19 +8709,19 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62</v>
+        <v>0.72</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42</v>
+        <v>0.53</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="3"/>
-        <v>1708</v>
+        <v>0</v>
       </c>
       <c r="F15" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -3415,19 +8734,19 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77</v>
+        <v>0.7</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74</v>
+        <v>0.38</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>3723</v>
       </c>
       <c r="F16" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -3440,23 +8759,23 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>1900</v>
+        <v>700</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61</v>
+        <v>0.67</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="3"/>
-        <v>2204</v>
+        <v>0</v>
       </c>
       <c r="F17" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>SE</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -3465,15 +8784,15 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77</v>
+        <v>0.73</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="3"/>
@@ -3481,7 +8800,7 @@
       </c>
       <c r="F18" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>S</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -3490,23 +8809,23 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>1950</v>
+        <v>1850</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.66</v>
+        <v>0.27</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="F19" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>N</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -3515,23 +8834,23 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>1900</v>
+        <v>1850</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="2"/>
-        <v>0.53</v>
+        <v>0.34</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>666</v>
       </c>
       <c r="F20" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>N</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -3540,23 +8859,23 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>1850</v>
+        <v>650</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25</v>
+        <v>0.43</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="3"/>
-        <v>1517</v>
+        <v>0</v>
       </c>
       <c r="F21" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>S</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -3565,15 +8884,15 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>950</v>
+        <v>1500</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67</v>
+        <v>0.72</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="2"/>
-        <v>0.84</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="3"/>
@@ -3581,7 +8900,7 @@
       </c>
       <c r="F22" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>N</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -3590,11 +8909,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>1150</v>
+        <v>1850</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65</v>
+        <v>0.8</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
@@ -3602,11 +8921,11 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="3"/>
-        <v>402.5</v>
+        <v>0</v>
       </c>
       <c r="F23" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>N</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -3615,15 +8934,15 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73</v>
+        <v>0.64</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94</v>
+        <v>0.78</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="3"/>
@@ -3631,7 +8950,7 @@
       </c>
       <c r="F24" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>N</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -3640,19 +8959,19 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69</v>
+        <v>0.62</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="3"/>
-        <v>1134</v>
+        <v>1852.5</v>
       </c>
       <c r="F25" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -3665,23 +8984,23 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>650</v>
+        <v>1500</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="2"/>
-        <v>0.84</v>
+        <v>0.3</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="3"/>
-        <v>71.5</v>
+        <v>0</v>
       </c>
       <c r="F26" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>NE</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -3690,23 +9009,23 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>1100</v>
+        <v>1950</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="2"/>
-        <v>0.28000000000000003</v>
+        <v>0.69</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="3"/>
-        <v>253</v>
+        <v>1501.5</v>
       </c>
       <c r="F27" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>N</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -3719,11 +9038,11 @@
       </c>
       <c r="C28" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69</v>
+        <v>0.71</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89</v>
+        <v>0.41</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="3"/>
@@ -3731,7 +9050,7 @@
       </c>
       <c r="F28" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>S</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -3740,23 +9059,23 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>1950</v>
+        <v>900</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68</v>
+        <v>0.73</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="3"/>
-        <v>4563</v>
+        <v>2484</v>
       </c>
       <c r="F29" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>SE</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -3765,23 +9084,23 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>1900</v>
+        <v>1000</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="2"/>
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="3"/>
-        <v>3154</v>
+        <v>2830</v>
       </c>
       <c r="F30" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>S</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -3790,23 +9109,23 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>1300</v>
+        <v>750</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71</v>
+        <v>0.64</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="3"/>
-        <v>3133</v>
+        <v>0</v>
       </c>
       <c r="F31" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>S</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -3815,7 +9134,7 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
-        <v>1050</v>
+        <v>1600</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -3823,7 +9142,7 @@
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="2"/>
-        <v>0.84</v>
+        <v>0.18</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="3"/>
@@ -3831,7 +9150,7 @@
       </c>
       <c r="F32" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>S</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -3840,19 +9159,19 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="0"/>
-        <v>650</v>
+        <v>1450</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64</v>
+        <v>0.75</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46</v>
+        <v>0.11</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="3"/>
-        <v>364</v>
+        <v>0</v>
       </c>
       <c r="F33" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -3865,23 +9184,23 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="0"/>
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68</v>
+        <v>0.62</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="2"/>
-        <v>0.91</v>
+        <v>0.31</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="3"/>
-        <v>1430</v>
+        <v>0</v>
       </c>
       <c r="F34" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>S</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -3890,23 +9209,23 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="0"/>
-        <v>1900</v>
+        <v>1050</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64</v>
+        <v>0.79</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="2"/>
-        <v>0.18</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="3"/>
-        <v>2185</v>
+        <v>1554</v>
       </c>
       <c r="F35" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>S</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -3915,15 +9234,15 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="0"/>
-        <v>1900</v>
+        <v>1250</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37</v>
+        <v>0.62</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="3"/>
@@ -3931,7 +9250,7 @@
       </c>
       <c r="F36" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>NE</v>
+        <v>N</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -3940,15 +9259,15 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="0"/>
-        <v>1650</v>
+        <v>1550</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68</v>
+        <v>0.61</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="2"/>
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="3"/>
@@ -3956,7 +9275,7 @@
       </c>
       <c r="F37" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>S</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -3965,23 +9284,23 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="0"/>
-        <v>1400</v>
+        <v>750</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79</v>
+        <v>0.61</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57999999999999996</v>
+        <v>0.34</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1770</v>
       </c>
       <c r="F38" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>NE</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -3990,23 +9309,23 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="0"/>
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="C39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67</v>
+        <v>0.72</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81</v>
+        <v>0.63</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="3"/>
-        <v>1062</v>
+        <v>288</v>
       </c>
       <c r="F39" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>NE</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -4015,19 +9334,19 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="0"/>
-        <v>1200</v>
+        <v>1350</v>
       </c>
       <c r="C40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="3"/>
-        <v>1944</v>
+        <v>0</v>
       </c>
       <c r="F40" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -4040,19 +9359,19 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="0"/>
-        <v>1350</v>
+        <v>1950</v>
       </c>
       <c r="C41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62</v>
+        <v>0.68</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96</v>
+        <v>0.61</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="3"/>
-        <v>3591</v>
+        <v>0</v>
       </c>
       <c r="F41" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -4065,19 +9384,19 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="0"/>
-        <v>1050</v>
+        <v>1250</v>
       </c>
       <c r="C42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69</v>
+        <v>0.75</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="2"/>
-        <v>0.13</v>
+        <v>0.4</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="3"/>
-        <v>2373</v>
+        <v>3175</v>
       </c>
       <c r="F42" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -4090,15 +9409,15 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="0"/>
-        <v>1900</v>
+        <v>850</v>
       </c>
       <c r="C43" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="2"/>
-        <v>0.62</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="3"/>
@@ -4106,7 +9425,7 @@
       </c>
       <c r="F43" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>SE</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -4115,23 +9434,23 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="0"/>
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="C44" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="2"/>
-        <v>0.19</v>
+        <v>0.88</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="3"/>
-        <v>1820</v>
+        <v>540</v>
       </c>
       <c r="F44" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>SE</v>
+        <v>S</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -4140,19 +9459,19 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="0"/>
-        <v>1850</v>
+        <v>1150</v>
       </c>
       <c r="C45" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61</v>
+        <v>0.76</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25</v>
+        <v>0.67</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>3128</v>
       </c>
       <c r="F45" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -4165,19 +9484,19 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="0"/>
-        <v>1950</v>
+        <v>850</v>
       </c>
       <c r="C46" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68</v>
+        <v>0.74</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="2"/>
-        <v>0.69</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="3"/>
-        <v>409.5</v>
+        <v>0</v>
       </c>
       <c r="F46" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -4190,23 +9509,23 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="0"/>
-        <v>950</v>
+        <v>1750</v>
       </c>
       <c r="C47" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71</v>
+        <v>0.78</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="3"/>
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="F47" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>N</v>
+        <v>S</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -4215,23 +9534,23 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="0"/>
-        <v>1250</v>
+        <v>700</v>
       </c>
       <c r="C48" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71</v>
+        <v>0.6</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="2"/>
-        <v>0.73</v>
+        <v>0.89</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="3"/>
-        <v>387.5</v>
+        <v>280</v>
       </c>
       <c r="F48" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>SE</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -4240,19 +9559,19 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="0"/>
-        <v>1550</v>
+        <v>900</v>
       </c>
       <c r="C49" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79</v>
+        <v>0.68</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="2"/>
-        <v>0.06</v>
+        <v>0.43</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="3"/>
-        <v>2991.5</v>
+        <v>0</v>
       </c>
       <c r="F49" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
@@ -4265,15 +9584,15 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="0"/>
-        <v>1450</v>
+        <v>700</v>
       </c>
       <c r="C50" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="2"/>
-        <v>0.99</v>
+        <v>0.04</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="3"/>
@@ -4281,7 +9600,7 @@
       </c>
       <c r="F50" t="str">
         <f ca="1">OFFSET(Submarkets!$A$2,RANDBETWEEN(0,3),0)</f>
-        <v>S</v>
+        <v>N</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -4290,15 +9609,15 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="0"/>
-        <v>1750</v>
+        <v>600</v>
       </c>
       <c r="C51" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64</v>
+        <v>0.73</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22</v>
+        <v>0.77</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="3"/>
@@ -4319,8 +9638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6D1DF2-4EDE-42E3-A8BA-91BF4C03B5F0}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScale="137" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4351,24 +9670,24 @@
         <v>SE</v>
       </c>
       <c r="B2">
-        <f ca="1">RANDBETWEEN(50,120)/100</f>
-        <v>0.73</v>
+        <f ca="1">RANDBETWEEN(70,100)/100</f>
+        <v>0.84</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:F6" ca="1" si="0">RANDBETWEEN(50,120)/100</f>
-        <v>1.02</v>
+        <f t="shared" ref="C2:F6" ca="1" si="0">RANDBETWEEN(70,100)/100</f>
+        <v>0.92</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.04</v>
+        <v>0.77</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -4377,24 +9696,24 @@
         <v>S</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B6" ca="1" si="1">RANDBETWEEN(50,120)/100</f>
-        <v>1.01</v>
+        <f t="shared" ref="B3:F6" ca="1" si="1">RANDBETWEEN(70,100)/100</f>
+        <v>0.7</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1599999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.01</v>
+        <v>0.84</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -4404,23 +9723,23 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71</v>
+        <v>0.88</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62</v>
+        <v>0.7</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61</v>
+        <v>0.81</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.05</v>
+        <v>0.88</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57999999999999996</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -4434,19 +9753,19 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99</v>
+        <v>0.83</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -4456,23 +9775,23 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1200000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51</v>
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -4485,7 +9804,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="186" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4528,19 +9847,19 @@
       </c>
       <c r="C2" s="1">
         <f>B3</f>
-        <v>20000</v>
+        <v>5500</v>
       </c>
       <c r="D2" s="1">
         <f>B4</f>
-        <v>20000</v>
+        <v>6500</v>
       </c>
       <c r="E2" s="1">
         <f>B5</f>
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="F2" s="1">
         <f>B6</f>
-        <v>20000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -4549,22 +9868,22 @@
         <v>S</v>
       </c>
       <c r="B3" s="1">
-        <v>20000</v>
+        <v>5500</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" s="1">
         <f>C4</f>
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
         <f>C5</f>
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <f>C6</f>
-        <v>20000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -4573,23 +9892,21 @@
         <v>NE</v>
       </c>
       <c r="B4" s="1">
-        <f>B3</f>
-        <v>20000</v>
+        <v>6500</v>
       </c>
       <c r="C4" s="1">
-        <f>B4</f>
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1">
         <f>D5</f>
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <f>D6</f>
-        <v>40000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -4598,22 +9915,21 @@
         <v>N</v>
       </c>
       <c r="B5" s="1">
-        <f>B4</f>
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="C5" s="1">
-        <f>B5</f>
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>40000</v>
+        <f>C5</f>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1">
         <f>E6</f>
-        <v>40000</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -4622,18 +9938,16 @@
         <v>IP</v>
       </c>
       <c r="B6" s="1">
-        <f>B5</f>
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="C6" s="1">
-        <f>B6</f>
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>40000</v>
+        <v>7000</v>
       </c>
       <c r="E6" s="1">
-        <v>40000</v>
+        <v>6500</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
